--- a/Blik/Wetsartikelen.xlsx
+++ b/Blik/Wetsartikelen.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Wetsartikelen" sheetId="3" r:id="rId1"/>
     <sheet name="Regelingen" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="416">
   <si>
     <t>Wet handhaving consumentenbescherming</t>
   </si>
@@ -1254,6 +1254,15 @@
   </si>
   <si>
     <t>artikel</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Aantal</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1309,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1606,1854 +1618,2836 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J249"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
         <v>411</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>TEXT(B3,"#")</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>289</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A67" si="0">TEXT(B4,"#")</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>289</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>290</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>154</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>291</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>293</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>158</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>293</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>160</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>294</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>162</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>295</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>402</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>164</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>296</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>166</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>297</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>168</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>298</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>311</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>311</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>311</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>311</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>312</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>312</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>312</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>122</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
         <v>190</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>312</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
         <v>191</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>313</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
         <v>193</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>313</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
         <v>194</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>314</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="4">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>315</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>315</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>316</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>316</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
         <v>201</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>316</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>317</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="4">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
         <v>204</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>317</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>318</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
         <v>206</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>318</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="4">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="4">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="4">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
         <v>210</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>321</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="4">
+        <v>62</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="4">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>322</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="4">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="4">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
         <v>214</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>323</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>104</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" ref="A68:A131" si="1">TEXT(B68,"#")</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="4">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="4">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
         <v>216</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>324</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="4">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="4">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
         <v>218</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>325</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="4">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
         <v>219</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="4">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
         <v>220</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>326</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="4">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="4">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
         <v>222</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>327</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="4">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
         <v>223</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="4">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
         <v>224</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>328</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>104</v>
       </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="4">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="4">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
         <v>226</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="4">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
         <v>227</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="4">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="4">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="4">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="4">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
         <v>231</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="4">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
         <v>232</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="4">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
         <v>233</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="4">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
         <v>234</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="4">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
         <v>235</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="4">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="4">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
         <v>237</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="4">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="4">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
         <v>239</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="4">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="4">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
         <v>241</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="4">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
         <v>242</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="4">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
         <v>243</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="4">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
         <v>244</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="4">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
         <v>245</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="4">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
         <v>246</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="4">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
         <v>247</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="4">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
         <v>248</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="4">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
         <v>249</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>355</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="4">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
         <v>250</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="4">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
         <v>251</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="4">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
         <v>252</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="4">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
         <v>253</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="4">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
         <v>254</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="4">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
         <v>255</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="4">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
         <v>256</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="4">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
         <v>257</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="4">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
         <v>258</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="4">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
         <v>259</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="4">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
         <v>260</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="4">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
         <v>261</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="4">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
         <v>262</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="4">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="4">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
         <v>264</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="4">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
         <v>265</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
         <v>266</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="4">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="4">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="4">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="4">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
         <v>270</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="4">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="4">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="4">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
         <v>273</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="4">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
         <v>274</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="4">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
         <v>276</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="4">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
         <v>277</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="4">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
         <v>278</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" ref="A132:A141" si="2">TEXT(B132,"#")</f>
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
         <v>279</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="4">
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
         <v>280</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="4">
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
         <v>281</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="4">
+        <v>133</v>
+      </c>
+      <c r="C135" t="s">
         <v>282</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="4">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
         <v>283</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="4">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
         <v>284</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="4">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
         <v>285</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="4">
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
         <v>286</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B140" s="4">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
         <v>287</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B141" s="4">
+        <v>139</v>
+      </c>
+      <c r="C141" t="s">
         <v>288</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>118</v>
       </c>
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="J151" s="1"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J153" s="1"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J155" s="1"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J157" s="1"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J159" s="1"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J161" s="1"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J182" s="1"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J184" s="1"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J186" s="1"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J188" s="1"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J190" s="1"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J192" s="1"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J194" s="1"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J196" s="1"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J198" s="1"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J200" s="1"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J202" s="1"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J204" s="1"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J206" s="1"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J208" s="1"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J210" s="1"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J212" s="1"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J214" s="1"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J216" s="1"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J218" s="1"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J220" s="1"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J222" s="1"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J224" s="1"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J226" s="1"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J228" s="1"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J230" s="1"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J232" s="1"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J234" s="1"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J236" s="1"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J238" s="1"/>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J240" s="1"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J242" s="1"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J244" s="1"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J246" s="1"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L153" s="1"/>
+    </row>
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L155" s="1"/>
+    </row>
+    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L157" s="1"/>
+    </row>
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L159" s="1"/>
+    </row>
+    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C167" s="1"/>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C170" s="1"/>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C172" s="1"/>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C174" s="1"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C176" s="1"/>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C180" s="1"/>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L184" s="1"/>
+    </row>
+    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L186" s="1"/>
+    </row>
+    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L188" s="1"/>
+    </row>
+    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L190" s="1"/>
+    </row>
+    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L192" s="1"/>
+    </row>
+    <row r="194" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L194" s="1"/>
+    </row>
+    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L196" s="1"/>
+    </row>
+    <row r="198" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L198" s="1"/>
+    </row>
+    <row r="200" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L200" s="1"/>
+    </row>
+    <row r="202" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L202" s="1"/>
+    </row>
+    <row r="204" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L204" s="1"/>
+    </row>
+    <row r="206" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L210" s="1"/>
+    </row>
+    <row r="212" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L212" s="1"/>
+    </row>
+    <row r="214" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L214" s="1"/>
+    </row>
+    <row r="216" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L216" s="1"/>
+    </row>
+    <row r="218" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L218" s="1"/>
+    </row>
+    <row r="220" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L220" s="1"/>
+    </row>
+    <row r="222" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L222" s="1"/>
+    </row>
+    <row r="224" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L224" s="1"/>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L226" s="1"/>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L228" s="1"/>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L230" s="1"/>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L232" s="1"/>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L234" s="1"/>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L236" s="1"/>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L238" s="1"/>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="242" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L242" s="1"/>
+    </row>
+    <row r="244" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L244" s="1"/>
+    </row>
+    <row r="246" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L246" s="1"/>
+    </row>
+    <row r="248" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
-      <c r="I249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="K249" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1" location="Paragraaf3_Artikel15g"/>
+    <hyperlink ref="C64" r:id="rId1" location="Paragraaf3_Artikel15g"/>
+    <hyperlink ref="C3" r:id="rId2" location="Hoofdstuk3_5_Artikel311"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3461,1208 +4455,1646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>399</v>
       </c>
       <c r="B1" t="s">
         <v>398</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>"http://wetten.overheid.nl/"&amp;A3&amp;"/"</f>
+        <v>http://wetten.overheid.nl/BWBR0020586/</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>290</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="0">"http://wetten.overheid.nl/"&amp;A4&amp;"/"</f>
+        <v>http://wetten.overheid.nl/BWBR0002075/</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0019795/</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0013798/</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0018823/</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0017347/</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0035217/</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0005758/</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>297</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0009828/</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>298</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0005489/</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>299</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0035091/</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>300</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0032386/</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0022233/</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>302</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0010009/</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>303</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0032657/</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>304</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0008223/</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0029746/</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>306</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0033323/</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>307</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0015167/</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>308</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0018370/</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>309</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0007216/</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>310</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0009675/</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>311</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0031405/</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>312</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0024291/</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>313</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0036129/</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>314</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0032262/</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>315</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0033809/</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>316</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0019074/</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>317</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0036080/</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>318</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>193</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0018989/</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>319</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0011673/</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>320</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0032518/</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>321</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0004284/</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>322</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0032626/</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>323</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0028123/</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>324</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0007049/</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>325</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0019229/</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>326</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0036106/</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>327</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0019227/</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>328</v>
       </c>
       <c r="B42" t="s">
         <v>144</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0007087/</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0011594/</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>330</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0002600/</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>331</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0013864/</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>332</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0036431/</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>333</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0034301/</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>334</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0033925/</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0020572/</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>336</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0032516/</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>337</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0029884/</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>338</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0036837/</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>339</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0030962/</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>340</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0035074/</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>341</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0035950/</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>342</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0017176/</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>343</v>
       </c>
       <c r="B57" t="s">
         <v>145</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0017341/</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>344</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0031531/</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>345</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0036430/</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>346</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0017587/</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>347</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0031503/</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>348</v>
       </c>
       <c r="B62" t="s">
         <v>58</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0023007/</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>349</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0022543/</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>350</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0007923/</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>351</v>
       </c>
       <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0007248/</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>352</v>
       </c>
       <c r="B66" t="s">
         <v>62</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0005835/</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>353</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/BWBR0013946/</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>354</v>
       </c>
       <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D109" si="1">"http://wetten.overheid.nl/"&amp;A68&amp;"/"</f>
+        <v>http://wetten.overheid.nl/BWBR0028149/</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>355</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0020740/</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>356</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0032462/</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>357</v>
       </c>
       <c r="B71" t="s">
         <v>146</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0032146/</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>358</v>
       </c>
       <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0019575/</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>359</v>
       </c>
       <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0022545/</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>360</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0034311/</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>361</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0035248/</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>362</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0014538/</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>363</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0020800/</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>364</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0033362/</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>365</v>
       </c>
       <c r="B79" t="s">
         <v>74</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0032975/</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>366</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>132</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0024915/</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>367</v>
       </c>
       <c r="B81" t="s">
         <v>76</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0034303/</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>368</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0034876/</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>369</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0035708/</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>370</v>
       </c>
       <c r="B84" t="s">
         <v>147</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0018397/</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>371</v>
       </c>
       <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0012616/</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>372</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0022420/</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>373</v>
       </c>
       <c r="B87" t="s">
         <v>81</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0022975/</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>374</v>
       </c>
       <c r="B88" t="s">
         <v>82</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0005528/</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>375</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0032771/</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>376</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0032751/</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>377</v>
       </c>
       <c r="B91" t="s">
         <v>85</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0012617/</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>378</v>
       </c>
       <c r="B92" t="s">
         <v>86</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0037073/</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>379</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0019235/</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>380</v>
       </c>
       <c r="B94" t="s">
         <v>88</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0035180/</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>381</v>
       </c>
       <c r="B95" t="s">
         <v>89</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0006003/</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>382</v>
       </c>
       <c r="B96" t="s">
         <v>90</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0015945/</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>383</v>
       </c>
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0006736/</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>384</v>
       </c>
       <c r="B98" t="s">
         <v>92</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0024539/</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>385</v>
       </c>
       <c r="B99" t="s">
         <v>93</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>151</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0030288/</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>386</v>
       </c>
       <c r="B100" t="s">
         <v>94</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0035516/</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>387</v>
       </c>
       <c r="B101" t="s">
         <v>95</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0010600/</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>388</v>
       </c>
       <c r="B102" t="s">
         <v>96</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0027118/</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>389</v>
       </c>
       <c r="B103" t="s">
         <v>97</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0024023/</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>390</v>
       </c>
       <c r="B104" t="s">
         <v>98</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0034872/</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>391</v>
       </c>
       <c r="B105" t="s">
         <v>99</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0020507/</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>392</v>
       </c>
       <c r="B106" t="s">
         <v>100</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0019442/</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>393</v>
       </c>
       <c r="B107" t="s">
         <v>101</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0019228/</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>394</v>
       </c>
       <c r="B108" t="s">
         <v>148</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0010434/</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B109" t="s">
         <v>102</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>11</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>http://wetten.overheid.nl/BWBR0021907/</v>
       </c>
     </row>
   </sheetData>

--- a/Blik/Wetsartikelen.xlsx
+++ b/Blik/Wetsartikelen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="15300" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="135" windowWidth="15300" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wetsartikelen" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="526">
   <si>
     <t>Wet handhaving consumentenbescherming</t>
   </si>
@@ -1263,6 +1263,336 @@
   </si>
   <si>
     <t>Aantal</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005537/</t>
+  </si>
+  <si>
+    <t>BWBR0005537</t>
+  </si>
+  <si>
+    <t>Algemene Wet Bestuursrecht</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020586/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002075/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019795/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013798/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018823/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017347/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035217/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005758/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009828/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005489/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035091/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032386/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022233/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0010009/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032657/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008223/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0029746/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033323/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0015167/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018370/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007216/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009675/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031405/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024291/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036129/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032262/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033809/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019074/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036080/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018989/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011673/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032518/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0004284/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032626/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0028123/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007049/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019229/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036106/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019227/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007087/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011594/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002600/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013864/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036431/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034301/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033925/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020572/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032516/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0029884/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036837/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0030962/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035074/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035950/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017176/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017341/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031531/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036430/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017587/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031503/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0023007/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022543/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007923/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007248/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005835/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013946/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0028149/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020740/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032462/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032146/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019575/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022545/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034311/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035248/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0014538/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020800/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033362/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032975/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024915/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034303/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034876/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035708/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018397/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012616/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022420/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022975/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005528/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032771/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032751/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012617/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0037073/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019235/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035180/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0006003/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0015945/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0006736/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024539/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0030288/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035516/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0010600/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0027118/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024023/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034872/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020507/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019442/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019228/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0010434/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021907/</t>
   </si>
 </sst>
 </file>
@@ -4455,12 +4785,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -4502,9 +4836,8 @@
       <c r="C3" s="3">
         <v>61</v>
       </c>
-      <c r="D3" t="str">
-        <f>"http://wetten.overheid.nl/"&amp;A3&amp;"/"</f>
-        <v>http://wetten.overheid.nl/BWBR0020586/</v>
+      <c r="D3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,9 +4850,8 @@
       <c r="C4" s="3">
         <v>18</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="0">"http://wetten.overheid.nl/"&amp;A4&amp;"/"</f>
-        <v>http://wetten.overheid.nl/BWBR0002075/</v>
+      <c r="D4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4532,9 +4864,8 @@
       <c r="C5" s="3">
         <v>14</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0019795/</v>
+      <c r="D5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,9 +4878,8 @@
       <c r="C6" s="3">
         <v>47</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0013798/</v>
+      <c r="D6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,9 +4892,8 @@
       <c r="C7" s="3">
         <v>20</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0018823/</v>
+      <c r="D7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,9 +4906,8 @@
       <c r="C8" s="3">
         <v>12</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0017347/</v>
+      <c r="D8" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,9 +4920,8 @@
       <c r="C9" s="3">
         <v>196</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0035217/</v>
+      <c r="D9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,9 +4934,8 @@
       <c r="C10" s="3">
         <v>26</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0005758/</v>
+      <c r="D10" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,9 +4948,8 @@
       <c r="C11" s="3">
         <v>21</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0009828/</v>
+      <c r="D11" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,9 +4962,8 @@
       <c r="C12" s="3">
         <v>18</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0005489/</v>
+      <c r="D12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,9 +4976,8 @@
       <c r="C13" s="3">
         <v>54</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0035091/</v>
+      <c r="D13" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4667,9 +4990,8 @@
       <c r="C14" s="3">
         <v>112</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0032386/</v>
+      <c r="D14" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,9 +5004,8 @@
       <c r="C15" s="3">
         <v>21</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0022233/</v>
+      <c r="D15" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,9 +5018,8 @@
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0010009/</v>
+      <c r="D16" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4712,9 +5032,8 @@
       <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0032657/</v>
+      <c r="D17" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,9 +5046,8 @@
       <c r="C18" s="3">
         <v>34</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0008223/</v>
+      <c r="D18" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4742,9 +5060,8 @@
       <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0029746/</v>
+      <c r="D19" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,9 +5074,8 @@
       <c r="C20" s="3">
         <v>33</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0033323/</v>
+      <c r="D20" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,9 +5088,8 @@
       <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0015167/</v>
+      <c r="D21" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,9 +5102,8 @@
       <c r="C22" s="3">
         <v>15</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0018370/</v>
+      <c r="D22" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,9 +5116,8 @@
       <c r="C23" s="3">
         <v>11</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0007216/</v>
+      <c r="D23" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,9 +5130,8 @@
       <c r="C24" s="3">
         <v>17</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0009675/</v>
+      <c r="D24" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,9 +5144,8 @@
       <c r="C25" s="3">
         <v>13</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0031405/</v>
+      <c r="D25" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,9 +5158,8 @@
       <c r="C26" s="3">
         <v>178</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0024291/</v>
+      <c r="D26" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4862,9 +5172,8 @@
       <c r="C27" s="3">
         <v>9</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0036129/</v>
+      <c r="D27" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,9 +5186,8 @@
       <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0032262/</v>
+      <c r="D28" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,9 +5200,8 @@
       <c r="C29" s="3">
         <v>4</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0033809/</v>
+      <c r="D29" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,9 +5214,8 @@
       <c r="C30" s="3">
         <v>6</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0019074/</v>
+      <c r="D30" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4922,9 +5228,8 @@
       <c r="C31" s="3">
         <v>25</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0036080/</v>
+      <c r="D31" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,9 +5242,8 @@
       <c r="C32" s="3">
         <v>193</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0018989/</v>
+      <c r="D32" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,9 +5256,8 @@
       <c r="C33" s="3">
         <v>24</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0011673/</v>
+      <c r="D33" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,9 +5270,8 @@
       <c r="C34" s="3">
         <v>7</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0032518/</v>
+      <c r="D34" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,9 +5284,8 @@
       <c r="C35" s="3">
         <v>20</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0004284/</v>
+      <c r="D35" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,9 +5298,8 @@
       <c r="C36" s="3">
         <v>169</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0032626/</v>
+      <c r="D36" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,9 +5312,8 @@
       <c r="C37" s="3">
         <v>49</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0028123/</v>
+      <c r="D37" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,9 +5326,8 @@
       <c r="C38" s="3">
         <v>208</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0007049/</v>
+      <c r="D38" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,9 +5340,8 @@
       <c r="C39" s="3">
         <v>7</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0019229/</v>
+      <c r="D39" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,9 +5354,8 @@
       <c r="C40" s="3">
         <v>18</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0036106/</v>
+      <c r="D40" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5072,9 +5368,8 @@
       <c r="C41" s="3">
         <v>7</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0019227/</v>
+      <c r="D41" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5087,9 +5382,8 @@
       <c r="C42" s="3">
         <v>17</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0007087/</v>
+      <c r="D42" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5102,9 +5396,8 @@
       <c r="C43" s="3">
         <v>2</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0011594/</v>
+      <c r="D43" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,9 +5410,8 @@
       <c r="C44" s="3">
         <v>2</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0002600/</v>
+      <c r="D44" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,9 +5424,8 @@
       <c r="C45" s="3">
         <v>3</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0013864/</v>
+      <c r="D45" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,9 +5438,8 @@
       <c r="C46" s="3">
         <v>3</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0036431/</v>
+      <c r="D46" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5162,9 +5452,8 @@
       <c r="C47" s="3">
         <v>12</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0034301/</v>
+      <c r="D47" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,9 +5466,8 @@
       <c r="C48" s="3">
         <v>5</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0033925/</v>
+      <c r="D48" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,9 +5480,8 @@
       <c r="C49" s="3">
         <v>3</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0020572/</v>
+      <c r="D49" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,9 +5494,8 @@
       <c r="C50" s="3">
         <v>4</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0032516/</v>
+      <c r="D50" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,9 +5508,8 @@
       <c r="C51" s="3">
         <v>3</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0029884/</v>
+      <c r="D51" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5237,9 +5522,8 @@
       <c r="C52" s="3">
         <v>4</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0036837/</v>
+      <c r="D52" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,9 +5536,8 @@
       <c r="C53" s="3">
         <v>10</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0030962/</v>
+      <c r="D53" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,9 +5550,8 @@
       <c r="C54" s="3">
         <v>4</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0035074/</v>
+      <c r="D54" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,9 +5564,8 @@
       <c r="C55" s="3">
         <v>8</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0035950/</v>
+      <c r="D55" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,9 +5578,8 @@
       <c r="C56" s="3">
         <v>2</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0017176/</v>
+      <c r="D56" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5312,9 +5592,8 @@
       <c r="C57" s="3">
         <v>2</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0017341/</v>
+      <c r="D57" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,9 +5606,8 @@
       <c r="C58" s="3">
         <v>2</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0031531/</v>
+      <c r="D58" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,9 +5620,8 @@
       <c r="C59" s="3">
         <v>3</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0036430/</v>
+      <c r="D59" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,9 +5634,8 @@
       <c r="C60" s="3">
         <v>7</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0017587/</v>
+      <c r="D60" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -5372,9 +5648,8 @@
       <c r="C61" s="3">
         <v>6</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0031503/</v>
+      <c r="D61" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,9 +5662,8 @@
       <c r="C62" s="3">
         <v>10</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0023007/</v>
+      <c r="D62" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,9 +5676,8 @@
       <c r="C63" s="3">
         <v>24</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0022543/</v>
+      <c r="D63" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,9 +5690,8 @@
       <c r="C64" s="3">
         <v>24</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0007923/</v>
+      <c r="D64" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,9 +5704,8 @@
       <c r="C65" s="3">
         <v>2</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0007248/</v>
+      <c r="D65" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,9 +5718,8 @@
       <c r="C66" s="3">
         <v>5</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0005835/</v>
+      <c r="D66" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,9 +5732,8 @@
       <c r="C67" s="3">
         <v>33</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>http://wetten.overheid.nl/BWBR0013946/</v>
+      <c r="D67" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,9 +5746,8 @@
       <c r="C68" s="3">
         <v>8</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68:D109" si="1">"http://wetten.overheid.nl/"&amp;A68&amp;"/"</f>
-        <v>http://wetten.overheid.nl/BWBR0028149/</v>
+      <c r="D68" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5492,9 +5760,8 @@
       <c r="C69" s="3">
         <v>28</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0020740/</v>
+      <c r="D69" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,9 +5774,8 @@
       <c r="C70" s="3">
         <v>95</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0032462/</v>
+      <c r="D70" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,9 +5788,8 @@
       <c r="C71" s="3">
         <v>7</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0032146/</v>
+      <c r="D71" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,9 +5802,8 @@
       <c r="C72" s="3">
         <v>37</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0019575/</v>
+      <c r="D72" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5552,9 +5816,8 @@
       <c r="C73" s="3">
         <v>53</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0022545/</v>
+      <c r="D73" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5567,9 +5830,8 @@
       <c r="C74" s="3">
         <v>12</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0034311/</v>
+      <c r="D74" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,9 +5844,8 @@
       <c r="C75" s="3">
         <v>63</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0035248/</v>
+      <c r="D75" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,9 +5858,8 @@
       <c r="C76" s="3">
         <v>127</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0014538/</v>
+      <c r="D76" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,9 +5872,8 @@
       <c r="C77" s="3">
         <v>44</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0020800/</v>
+      <c r="D77" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,9 +5886,8 @@
       <c r="C78" s="3">
         <v>12</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0033362/</v>
+      <c r="D78" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5642,9 +5900,8 @@
       <c r="C79" s="3">
         <v>35</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0032975/</v>
+      <c r="D79" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5657,9 +5914,8 @@
       <c r="C80" s="3">
         <v>132</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0024915/</v>
+      <c r="D80" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,9 +5928,8 @@
       <c r="C81" s="3">
         <v>8</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0034303/</v>
+      <c r="D81" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,9 +5942,8 @@
       <c r="C82" s="3">
         <v>33</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0034876/</v>
+      <c r="D82" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5702,9 +5956,8 @@
       <c r="C83" s="3">
         <v>33</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0035708/</v>
+      <c r="D83" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,9 +5970,8 @@
       <c r="C84" s="3">
         <v>201</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0018397/</v>
+      <c r="D84" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,9 +5984,8 @@
       <c r="C85" s="3">
         <v>31</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0012616/</v>
+      <c r="D85" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5747,9 +5998,8 @@
       <c r="C86" s="3">
         <v>58</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0022420/</v>
+      <c r="D86" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5762,9 +6012,8 @@
       <c r="C87" s="3">
         <v>46</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0022975/</v>
+      <c r="D87" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,9 +6026,8 @@
       <c r="C88" s="3">
         <v>2</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0005528/</v>
+      <c r="D88" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,9 +6040,8 @@
       <c r="C89" s="3">
         <v>6</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0032771/</v>
+      <c r="D89" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,9 +6054,8 @@
       <c r="C90" s="3">
         <v>6</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0032751/</v>
+      <c r="D90" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5822,9 +6068,8 @@
       <c r="C91" s="3">
         <v>32</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0012617/</v>
+      <c r="D91" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,9 +6082,8 @@
       <c r="C92" s="3">
         <v>3</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0037073/</v>
+      <c r="D92" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5852,9 +6096,8 @@
       <c r="C93" s="3">
         <v>70</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0019235/</v>
+      <c r="D93" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5867,9 +6110,8 @@
       <c r="C94" s="3">
         <v>25</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0035180/</v>
+      <c r="D94" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,9 +6124,8 @@
       <c r="C95" s="3">
         <v>12</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0006003/</v>
+      <c r="D95" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,9 +6138,8 @@
       <c r="C96" s="3">
         <v>9</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0015945/</v>
+      <c r="D96" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5912,9 +6152,8 @@
       <c r="C97" s="3">
         <v>47</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0006736/</v>
+      <c r="D97" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5927,9 +6166,8 @@
       <c r="C98" s="3">
         <v>103</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0024539/</v>
+      <c r="D98" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,9 +6180,8 @@
       <c r="C99" s="3">
         <v>151</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0030288/</v>
+      <c r="D99" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,9 +6194,8 @@
       <c r="C100" s="3">
         <v>5</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0035516/</v>
+      <c r="D100" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5972,9 +6208,8 @@
       <c r="C101" s="3">
         <v>11</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0010600/</v>
+      <c r="D101" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,9 +6222,8 @@
       <c r="C102" s="3">
         <v>7</v>
       </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0027118/</v>
+      <c r="D102" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -6002,9 +6236,8 @@
       <c r="C103" s="3">
         <v>5</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0024023/</v>
+      <c r="D103" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,9 +6250,8 @@
       <c r="C104" s="3">
         <v>9</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0034872/</v>
+      <c r="D104" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,9 +6264,8 @@
       <c r="C105" s="3">
         <v>5</v>
       </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0020507/</v>
+      <c r="D105" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,9 +6278,8 @@
       <c r="C106" s="3">
         <v>6</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0019442/</v>
+      <c r="D106" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -6062,9 +6292,8 @@
       <c r="C107" s="3">
         <v>4</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0019228/</v>
+      <c r="D107" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -6077,9 +6306,8 @@
       <c r="C108" s="3">
         <v>9</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0010434/</v>
+      <c r="D108" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,12 +6320,28 @@
       <c r="C109" s="3">
         <v>11</v>
       </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>http://wetten.overheid.nl/BWBR0021907/</v>
+      <c r="D109" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>417</v>
+      </c>
+      <c r="B110" t="s">
+        <v>418</v>
+      </c>
+      <c r="C110" s="3">
+        <v>518</v>
+      </c>
+      <c r="D110" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D110" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Blik/Wetsartikelen.xlsx
+++ b/Blik/Wetsartikelen.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="135" windowWidth="15300" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="135" windowWidth="15300" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wetsartikelen" sheetId="3" r:id="rId1"/>
     <sheet name="Regelingen" sheetId="4" r:id="rId2"/>
+    <sheet name="Handelingen" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="808">
   <si>
     <t>Wet handhaving consumentenbescherming</t>
   </si>
@@ -467,423 +468,6 @@
     <t>Artikel 3.12</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/BWBR0020586/geldigheidsdatum_05-01-2016#Hoofdstuk3_5_Artikel311</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0020586/geldigheidsdatum_05-01-2016#Hoofdstuk3_5_Artikel312</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0002075/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0002075/geldigheidsdatum_05-01-2016#Artikel6a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019795/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019795/geldigheidsdatum_05-01-2016#Hoofdstuk5_Artikel14</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0013798/geldigheidsdatum_05-01-2016#Hoofdstuk4_Paragraaf42_Artikel27</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018823/geldigheidsdatum_05-01-2016#1_Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018823/geldigheidsdatum_05-01-2016#2_Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018823/geldigheidsdatum_05-01-2016#5_Artikel9</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0017347/geldigheidsdatum_05-01-2016#Paragraaf2_Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0017347/geldigheidsdatum_05-01-2016#Paragraaf4_Artikel5b</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035217/Hoofdstuk2/3/Artikel27/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035217/Hoofdstuk2/6/61/Artikel253/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0005758/geldigheidsdatum_05-01-2016#2_Artikel2a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0005758/geldigheidsdatum_05-01-2016#4_Artikel13a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0009828/geldigheidsdatum_05-01-2016#2_Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0009828/geldigheidsdatum_05-01-2016#BijlageII</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0005489/geldigheidsdatum_05-01-2016#1_Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0005489/geldigheidsdatum_05-01-2016#2_Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035091/geldigheidsdatum_05-01-2016#Hoofdstuk5_Artikel56</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032386/geldigheidsdatum_05-01-2016#Hoofdstuk1_1_Artikel11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0022233/HoofdstukIV/Artikel42/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0010009/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032657/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0008223/geldigheidsdatum_05-01-2016#Hoofdstuk6_Artikel20</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0029746/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0033323/geldigheidsdatum_05-01-2016#Artikel13</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0015167/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018370/geldigheidsdatum_05-01-2016#Artikel6a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007216/geldigheidsdatum_05-01-2016#Artikel9</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0009675/geldigheidsdatum_05-01-2016#5_Artikel14</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031405/geldigheidsdatum_05-01-2016#Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031405/geldigheidsdatum_05-01-2016#Artikel5</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031405/geldigheidsdatum_05-01-2016#Artikel7</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031405/geldigheidsdatum_05-01-2016#Artikel9</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031405/geldigheidsdatum_05-01-2016#Artikel13</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk1/Afdeling11/Artikel12/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk1/Afdeling12/Artikel18/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk3/Afdeling321/Paragraaf3/Artikel316m/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk3/Afdeling36/Artikel333/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk3/Afdeling36/Artikel334/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036129/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036129/geldigheidsdatum_05-01-2016#4_Artikel9</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032262/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032262/geldigheidsdatum_05-01-2016#Artikel5</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0033809/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0033809/geldigheidsdatum_05-01-2016#Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0033809/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019074/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019074/geldigheidsdatum_05-01-2016#Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019074/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019074/geldigheidsdatum_05-01-2016#Artikel3a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036080/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036080/geldigheidsdatum_05-01-2016#2_Artikel7</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018989/Hoofdstuk8/1/Artikel54/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018989/Hoofdstuk9/2/Artikel81/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018989/Hoofdstuk11/Artikel129/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0011673/geldigheidsdatum_05-01-2016#8_SUBPAR814706_Artikel81</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032518/geldigheidsdatum_05-01-2016#Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0004284/geldigheidsdatum_05-01-2016#Paragraaf3_Artikel15</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0004284/geldigheidsdatum_05-01-2016#Paragraaf3_Artikel15g</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032626/Hoofdstuk8/2/Artikel87/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032626/Bijlage8/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0028123/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0028123/geldigheidsdatum_05-01-2016#Hoofdstuk6_2_Artikel55</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007049/Hoofdstuk1/Artikel11/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007049/Hoofdstuk11a/Artikel11a3/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019229/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019229/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036106/geldigheidsdatum_05-01-2016#Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036106/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019227/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019227/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007087/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007087/geldigheidsdatum_05-01-2016#4_Artikel7</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0011594/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0002600/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0013864/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0034301/geldigheidsdatum_05-01-2016#1_Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0033925/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0020572/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032516/geldigheidsdatum_05-01-2016#Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0029884/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0036837/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0030962/geldigheidsdatum_05-01-2016#Artikel5</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035074/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0017176/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0017341/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031531/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0017587/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0031503/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0023007/geldigheidsdatum_05-01-2016#2_Artikel2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0022543/geldigheidsdatum_05-01-2016#Hoofdstuk7_Artikel26</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007923/geldigheidsdatum_05-01-2016#Hoofdstuk3_Artikel10</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0007248/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0005835/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0013946/geldigheidsdatum_05-01-2016#Bijlage5</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0028149/geldigheidsdatum_05-01-2016#3_Artikel6</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0020740/geldigheidsdatum_05-01-2016#Paragraaf1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032462/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032146/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019575/geldigheidsdatum_05-01-2016#Paragraaf1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0022545/Hoofdstuk9/1/Artikel91/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0034311/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035248/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0014538/1/Artikel1/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0020800/geldigheidsdatum_05-01-2016#Hoofdstuk5_Artikel29</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0033362/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032975/geldigheidsdatum_05-01-2016#4_Artikel11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024915/geldigheidsdatum_05-01-2016#Hoofdstuk1_Paragraaf1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0034303/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0034876/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035708/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0018397/Titel1/Hoofdstuk1/1/Artikel1/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0012616/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0022420/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0022975/geldigheidsdatum_05-01-2016#1_Artikel11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0005528/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032771/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0032751/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0012617/geldigheidsdatum_05-01-2016#1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019235/geldigheidsdatum_05-01-2016#Titel1_12_Artikel121</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035180/geldigheidsdatum_05-01-2016#Hoofdstuk1_Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0006003/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0015945/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0006736/geldigheidsdatum_05-01-2016#Hoofdstuk10a_Artikel43c</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024539/Hoofdstuk4/42/Artikel42/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0030288/Hoofdstuk1/Artikel1/geldigheidsdatum_05-01-2016</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0035516/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0010600/geldigheidsdatum_05-01-2016#Artikel9</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0027118/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0024023/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0034872/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0020507/geldigheidsdatum_05-01-2016#Artikel3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019442/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0019228/geldigheidsdatum_05-01-2016#Artikel1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0010434/geldigheidsdatum_05-01-2016#Artikel4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/BWBR0021907/geldigheidsdatum_05-01-2016#Artikel5</t>
-  </si>
-  <si>
     <t>BWBR0020586</t>
   </si>
   <si>
@@ -1593,6 +1177,1269 @@
   </si>
   <si>
     <t>http://wetten.overheid.nl/BWBR0021907/</t>
+  </si>
+  <si>
+    <t>BWBR0007376</t>
+  </si>
+  <si>
+    <t>Archiefwet 1995</t>
+  </si>
+  <si>
+    <t>BWBR0007748</t>
+  </si>
+  <si>
+    <t>Archiefbesluit 1995</t>
+  </si>
+  <si>
+    <t>BWBR0011771</t>
+  </si>
+  <si>
+    <t>Beperkende bepalingen openbaarheid archiefbescheiden</t>
+  </si>
+  <si>
+    <t>BWBR0012254</t>
+  </si>
+  <si>
+    <t>Beperkende bepalingen openbaarheid archiefbescheiden 2001</t>
+  </si>
+  <si>
+    <t>BWBR0011748</t>
+  </si>
+  <si>
+    <t>Beperkende bepalingen t.a.v. de openbaarheid van archiefbescheiden</t>
+  </si>
+  <si>
+    <t>BWBR0012618</t>
+  </si>
+  <si>
+    <t>Beperkende bepalingen t.a.v. openbaarheid archiefbescheiden</t>
+  </si>
+  <si>
+    <t>BWBR0020351</t>
+  </si>
+  <si>
+    <t>Besluit beperkende bepalingen op openbaarheid van naar Nationaal Archief over te brengen archiefbescheiden</t>
+  </si>
+  <si>
+    <t>BWBR0024116</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Gezondheid en welzijn van dieren vanaf 1945 (Minister van Landbouw, Natuur en Voedselkwaliteit, 2008)</t>
+  </si>
+  <si>
+    <t>BWBR0035584</t>
+  </si>
+  <si>
+    <t>Besluit wijziging Warenwetbesluit Gereserveerde aanduidingen, enz. (opheffen product- en bedrijfschappen)</t>
+  </si>
+  <si>
+    <t>BWBR0020235</t>
+  </si>
+  <si>
+    <t>Vaststellingsbesluit selectielijst neerslag handelingen beleidsterrein Geneesmiddelen en medische hulpmiddelen vanaf 1945 (minister van Volksgezondheid, Welzijn en Sport)</t>
+  </si>
+  <si>
+    <t>BWBR0020172</t>
+  </si>
+  <si>
+    <t>Vaststellingsbesluit selectielijst neerslag handelingen beleidsterrein In- en uitvoerregelingen vanaf 1945 (Minister van Landbouw, Natuur en Voedselkwaliteit)</t>
+  </si>
+  <si>
+    <t>BWBR0016940</t>
+  </si>
+  <si>
+    <t>Vaststellingsbesluit selectielijst neerslag handelingen op het beleidsterrein Overheidsinformatievoorziening over de periode 1945–1999</t>
+  </si>
+  <si>
+    <t>BWBR0005730</t>
+  </si>
+  <si>
+    <t>Aanwijzingen voor de regelgeving</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005730/Hoofdstuk4/45a/Aanwijzing124h</t>
+  </si>
+  <si>
+    <t>Aanwijzing 124h</t>
+  </si>
+  <si>
+    <t>BWBR0034802</t>
+  </si>
+  <si>
+    <t>ACM Werkwijze voor onderzoek in digitale gegevens 2014</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005537/Bijlage1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005537/Bijlage2</t>
+  </si>
+  <si>
+    <t>BWBR0008587</t>
+  </si>
+  <si>
+    <t>Arbeidsomstandighedenregeling</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008587/BijlageIIc</t>
+  </si>
+  <si>
+    <t>Bijlage IIc</t>
+  </si>
+  <si>
+    <t>Bijlage XI</t>
+  </si>
+  <si>
+    <t>Bijlage XIIa</t>
+  </si>
+  <si>
+    <t>Bijlage XVI</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008587/BijlageXVII</t>
+  </si>
+  <si>
+    <t>Bijlage XVII</t>
+  </si>
+  <si>
+    <t>BWBR0019962</t>
+  </si>
+  <si>
+    <t>Archiefbeheersregeling voor het College voor de Toelating van Bestrijdingsmiddelen 2006</t>
+  </si>
+  <si>
+    <t>BWBR0014977</t>
+  </si>
+  <si>
+    <t>Archiefregeling Londens Archief</t>
+  </si>
+  <si>
+    <t>BWBR0031514</t>
+  </si>
+  <si>
+    <t>Beheersregeling documentaire informatieverzorging Infrastructuur en Milieu 2012</t>
+  </si>
+  <si>
+    <t>BWBR0035354</t>
+  </si>
+  <si>
+    <t>Beleidsregel openbaarmaking RDW</t>
+  </si>
+  <si>
+    <t>BWBR0011783</t>
+  </si>
+  <si>
+    <t>BWBR0013567</t>
+  </si>
+  <si>
+    <t>Beperking openbaarheid archiefbescheiden Stichting Landelijke Bezettingsschade (SLB) 1942-1945 en de Stichting Beheer Landbouwgronden (SBL) 1946-1982</t>
+  </si>
+  <si>
+    <t>BWBR0018204</t>
+  </si>
+  <si>
+    <t>Besluit archiefbeheersregels SER</t>
+  </si>
+  <si>
+    <t>BWBR0004427</t>
+  </si>
+  <si>
+    <t>Besluit archiefoverdrachten rijksadministratie</t>
+  </si>
+  <si>
+    <t>BWBR0033480</t>
+  </si>
+  <si>
+    <t>Besluit beperkende bepalingen archiefbescheiden archief Bureau Secretaris-generaal 1946–1999</t>
+  </si>
+  <si>
+    <t>BWBR0025608</t>
+  </si>
+  <si>
+    <t>Besluit beperkende bepalingen archiefbescheiden archief Statische Archieven Overzeese Rijksdelen 1925–1980</t>
+  </si>
+  <si>
+    <t>BWBR0025137</t>
+  </si>
+  <si>
+    <t>Besluit beperkende bepalingen openbaarheid archiefbescheiden archief afdeling Kabinet 1945–1991</t>
+  </si>
+  <si>
+    <t>BWBR0021152</t>
+  </si>
+  <si>
+    <t>Besluit beperkende bepalingen openbaarheid werkarchief jhr. mr. H.F. van Kinschot (overbrengen naar het Nationaal Archief)</t>
+  </si>
+  <si>
+    <t>BWBR0020428</t>
+  </si>
+  <si>
+    <t>Besluit beperking openbaarheid van bescheiden uit het archief Beleidsbureau Algemeen Burgerlijk Pensioenfonds 1970–1988</t>
+  </si>
+  <si>
+    <t>Bijlage</t>
+  </si>
+  <si>
+    <t>BWBR0029475</t>
+  </si>
+  <si>
+    <t>Besluit elektronisch proces-verbaal</t>
+  </si>
+  <si>
+    <t>BWBR0011674</t>
+  </si>
+  <si>
+    <t>Besluit opheffing Landbouwschap</t>
+  </si>
+  <si>
+    <t>BWBR0022918</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Arbeidsomstandigheden bij de Overheid periode 1945– (Minister van Buitenlandse Zaken)</t>
+  </si>
+  <si>
+    <t>BWBR0023929</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Arbeidsomstandigheden periode 1999-2004 (Minister van Economische Zaken)</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0023929/BIJL1053178</t>
+  </si>
+  <si>
+    <t>BWBR0021072</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Bestuurlijke en financiële organisatie lagere overheden vanaf 1945 (Minister van Justitie)</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021072/BIJL1005669</t>
+  </si>
+  <si>
+    <t>BWBR0020609</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Gewasbescherming vanaf 1945 (Minister van Verkeer en Waterstaat)</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020609/BIJL997348</t>
+  </si>
+  <si>
+    <t>BWBR0022257</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Gewasbescherming vanaf 1953 (College voor de Toelating van Bestrijdingsmiddelen )</t>
+  </si>
+  <si>
+    <t>BWBR0021841</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Landbouwkwaliteit en voedselveiligheid vanaf 1945 (Stichting Nederlandse Vleeswarencontrole (NVK))</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021841/BIJL1018896</t>
+  </si>
+  <si>
+    <t>BWBR0022633</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Personeelsinformatievoorziening en -administratie vanaf 1945 (Minister van Buitenlandse Zaken)</t>
+  </si>
+  <si>
+    <t>BWBR0021430</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Voeding- en productveiligheid vanaf 1945 (Minister van Sociale Zaken en Werkgelegenheid)</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021430/BIJL1011678</t>
+  </si>
+  <si>
+    <t>BWBR0022613</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Voedselvoorziening en agrarisch markt- en prijsbeleid (1934) 1945-2000 (Minister van Onderwijs, Cultuur en Wetenschap)</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022613/BIJL1033154</t>
+  </si>
+  <si>
+    <t>BWBR0036054</t>
+  </si>
+  <si>
+    <t>Besluit zoönosen</t>
+  </si>
+  <si>
+    <t>BWBR0002656</t>
+  </si>
+  <si>
+    <t>Burgerlijk Wetboek Boek 1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002656/Boek1/Titel4/Afdeling2/Artikel17a</t>
+  </si>
+  <si>
+    <t>BWBR0026881</t>
+  </si>
+  <si>
+    <t>Circulaire Aanvulling Modelgedragscode Integriteit Sector Rijk en e-mailgedragslijn</t>
+  </si>
+  <si>
+    <t>BWBR0032103</t>
+  </si>
+  <si>
+    <t>Circulaire overdracht personeelsgegevens door rijkswerkgevers bij interdepartementale verplaatsing</t>
+  </si>
+  <si>
+    <t>BWBR0009866</t>
+  </si>
+  <si>
+    <t>Regeling beheer archiefbescheiden</t>
+  </si>
+  <si>
+    <t>BWBR0036075</t>
+  </si>
+  <si>
+    <t>Regeling kostenverevening reductie CO2-emissies glastuinbouw</t>
+  </si>
+  <si>
+    <t>BWBR0034313</t>
+  </si>
+  <si>
+    <t>Regeling marktordening vlees</t>
+  </si>
+  <si>
+    <t>BWBR0036074</t>
+  </si>
+  <si>
+    <t>Regeling teelt</t>
+  </si>
+  <si>
+    <t>BWBR0034320</t>
+  </si>
+  <si>
+    <t>Regeling uitvoering GMO groenten en fruit</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034320/Hoofdstuk8/Artikel311</t>
+  </si>
+  <si>
+    <t>BWBR0036123</t>
+  </si>
+  <si>
+    <t>Regeling wijziging diverse regelingen (opheffing bedrijfslichamen en overname taken)</t>
+  </si>
+  <si>
+    <t>BWBR0033229</t>
+  </si>
+  <si>
+    <t>Richtsnoeren publicatie van persoonsgegevens op internet</t>
+  </si>
+  <si>
+    <t>BWBR0018133</t>
+  </si>
+  <si>
+    <t>Vaststellingsbesluit selectielijst neerslag handelingen Akkerbouwproductschappen beleidsterrein Publiekrechtelijke bedrijfsorganisaties periode 1956–2002</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020235/BIJL987692</t>
+  </si>
+  <si>
+    <t>BWBR0008415</t>
+  </si>
+  <si>
+    <t>Warenwetregeling liften</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008415/Bijlage1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008415/Bijlage2</t>
+  </si>
+  <si>
+    <t>BWBR0036795</t>
+  </si>
+  <si>
+    <t>Wet hergebruik van overheidsinformatie</t>
+  </si>
+  <si>
+    <t>BWBR0005252</t>
+  </si>
+  <si>
+    <t>Wet openbaarheid van bestuur</t>
+  </si>
+  <si>
+    <t>BWBR0036067</t>
+  </si>
+  <si>
+    <t>Wijzigingsbesluit Besluit bestrijding schadelijke organismen, enz. (opheffing bedrijfslichamen en overname taken)</t>
+  </si>
+  <si>
+    <t>BWBR0035944</t>
+  </si>
+  <si>
+    <t>Wijzigingsbesluit Besluit houders van dieren, enz. (opheffing product- en bedrijfschappen en overname welzijnsregels ouderdieren vleeskuikens, vleeskalkoenen, konijnen en nertsen)</t>
+  </si>
+  <si>
+    <t>BWBR0035318</t>
+  </si>
+  <si>
+    <t>Wijzigingsbesluit diverse besluiten betreffende dieren en dierlijke producten (opheffing bedrijfslichamen)</t>
+  </si>
+  <si>
+    <t>BWBR0034328</t>
+  </si>
+  <si>
+    <t>Wijzigingsregeling diverse regelingen (overname van taken van de bedrijfslichamen)</t>
+  </si>
+  <si>
+    <t>BWBR0035182</t>
+  </si>
+  <si>
+    <t>Wijzigingsregeling Regeling diergeneesmiddelen, enz. (overname taken van de bedrijfslichamen)</t>
+  </si>
+  <si>
+    <t>BWBR0035776</t>
+  </si>
+  <si>
+    <t>Wijzigingsregeling Regeling dierlijke producten (aanduiding bijzondere slachtpluimveehouderijsystemen)</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034313/#Hoofdstuk4_Artikel42</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034802/#PAR1400698_Artikel26</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019962/#HoofdstukI_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019962/#HoofdstukVI_Artikel12</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019962/#HoofdstukVIII_Artikel17</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007748/#HoofdstukI_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007748/#HoofdstukVII_Artikel24</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0014977/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031514/#Hoofdstuk1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031514/#Hoofdstuk2_Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011771/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012254/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011783/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011748/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012618/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013567/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018204/#3_Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0004427/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033480/#Artikel5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0025608/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020351/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0025137/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021152/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020428/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0029475/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011674/#Artikel13</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022918/#BIJL1038167</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022257/#BIJL1028459</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024116/#BIJL1055997</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022633/#BIJL1033562</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035584/#ArtikelIII</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036054/#Artikel5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009866/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034311/#5_Artikel10</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020800/#Hoofdstuk2_Paragraaf22_Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036075/#Artikel6</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034303/#Hoofdstuk4_Artikel42</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036074/#Hoofdstuk4_Artikel10</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035180/#Hoofdstuk4_Artikel22</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036123/#ArtikelXX</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018133/#Bijlage</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020172/#BIJL987226</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0016940/#BIJL881166</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036795/#HoofdstukIV_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005252/#HoofdstukVII_Artikel21</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036067/#ArtikelXV</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035944/#ArtikelII</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035318/#ArtikelIV</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034328/#ArtikelXV</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035182/#ArtikelVI</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035776/#ArtikelII</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0004427/#1_Artikel5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008587/BijlageXII</t>
+  </si>
+  <si>
+    <t>Artikel 2.6</t>
+  </si>
+  <si>
+    <t>Bijlage 1</t>
+  </si>
+  <si>
+    <t>Bijlage 2</t>
+  </si>
+  <si>
+    <t>Artikel 12</t>
+  </si>
+  <si>
+    <t>Artikel 17</t>
+  </si>
+  <si>
+    <t>Artikel 24</t>
+  </si>
+  <si>
+    <t>Artikel III</t>
+  </si>
+  <si>
+    <t>Artikel  17a</t>
+  </si>
+  <si>
+    <t>Artikel 4:2</t>
+  </si>
+  <si>
+    <t>Artikel 311</t>
+  </si>
+  <si>
+    <t>Artikel 22</t>
+  </si>
+  <si>
+    <t>Artikel XX</t>
+  </si>
+  <si>
+    <t>Artikel 21</t>
+  </si>
+  <si>
+    <t>Artikel XV</t>
+  </si>
+  <si>
+    <t>Artikel II</t>
+  </si>
+  <si>
+    <t>Artikel IV</t>
+  </si>
+  <si>
+    <t>Artikel VI</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005730/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034802/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008587/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019962/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007748/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0014977/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031514/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035354/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011771/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012254/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011748/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012618/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013567/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018204/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0004427/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033480/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0025608/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020351/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0025137/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021152/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020428/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0029475/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011674/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022918/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0023929/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021072/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020609/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022257/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024116/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021841/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022633/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021430/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022613/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035584/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036054/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0026881/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032103/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009866/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036075/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034313/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036074/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034320/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036123/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033229/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018133/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020235/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020172/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0016940/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008415/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036795/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005252/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036067/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035944/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035318/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034328/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035182/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035776/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007376/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002656/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020586/#Hoofdstuk3_5_Artikel311</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020586/#Hoofdstuk3_5_Artikel312</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002075/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002075/#Artikel6a</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019795/#Hoofdstuk1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019795/#Hoofdstuk5_Artikel14</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013798/#Hoofdstuk4_Paragraaf42_Artikel27</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018823/#1_Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018823/#2_Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018823/#5_Artikel9</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017347/#Paragraaf2_Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017347/#Paragraaf4_Artikel5b</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035217/Hoofdstuk2/3/Artikel27/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035217/Hoofdstuk2/6/61/Artikel253/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005758/#2_Artikel2a</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005758/#4_Artikel13a</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009828/#2_Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009828/#BijlageII</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005489/#1_Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005489/#2_Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035091/#Hoofdstuk5_Artikel56</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032386/#Hoofdstuk1_1_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022233/HoofdstukIV/Artikel42/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0010009/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032657/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0008223/#Hoofdstuk6_Artikel20</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0029746/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033323/#Artikel13</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0015167/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018370/#Artikel6a</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007216/#Artikel9</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0009675/#5_Artikel14</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031405/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031405/#Artikel5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031405/#Artikel7</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031405/#Artikel9</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031405/#Artikel13</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk1/Afdeling11/Artikel12/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk1/Afdeling12/Artikel18/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk3/Afdeling321/Paragraaf3/Artikel316m/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk3/Afdeling36/Artikel333/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024291/Hoofdstuk3/Afdeling36/Artikel334/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036129/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036129/#4_Artikel9</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032262/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032262/#Artikel5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033809/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033809/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033809/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019074/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019074/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019074/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019074/#Artikel3a</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036080/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036080/#2_Artikel7</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018989/Hoofdstuk8/1/Artikel54/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018989/Hoofdstuk9/2/Artikel81/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018989/Hoofdstuk11/Artikel129/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011673/#8_SUBPAR814706_Artikel81</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032518/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0004284/#Paragraaf3_Artikel15</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0004284/#Paragraaf3_Artikel15g</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032626/Hoofdstuk8/2/Artikel87/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032626/Bijlage8/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0028123/#Hoofdstuk1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0028123/#Hoofdstuk6_2_Artikel55</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007049/Hoofdstuk1/Artikel11/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007049/Hoofdstuk11a/Artikel11a3/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019229/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019229/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036106/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036106/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019227/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019227/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007087/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007087/#4_Artikel7</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0011594/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0002600/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013864/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034301/#1_Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033925/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020572/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032516/#Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0029884/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0036837/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0030962/#Artikel5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035074/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017176/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017341/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031531/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0017587/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0031503/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0023007/#2_Artikel2</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022543/#Hoofdstuk7_Artikel26</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007923/#Hoofdstuk3_Artikel10</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0007248/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005835/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0013946/#Bijlage5</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0028149/#3_Artikel6</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020740/#Paragraaf1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032462/#Hoofdstuk1_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032146/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019575/#Paragraaf1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022545/Hoofdstuk9/1/Artikel91/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034311/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035248/#Hoofdstuk1_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0014538/1/Artikel1/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020800/#Hoofdstuk5_Artikel29</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0033362/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032975/#4_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024915/#Hoofdstuk1_Paragraaf1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034303/#Hoofdstuk1_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034876/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035708/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0018397/Titel1/Hoofdstuk1/1/Artikel1/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012616/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022420/#Hoofdstuk1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0022975/#1_Artikel11</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0005528/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032771/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0032751/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0012617/#1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019235/#Titel1_12_Artikel121</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035180/#Hoofdstuk1_Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0006003/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0015945/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0006736/#Hoofdstuk10a_Artikel43c</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024539/Hoofdstuk4/42/Artikel42/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0030288/Hoofdstuk1/Artikel1/</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0035516/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0010600/#Artikel9</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0027118/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0024023/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0034872/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0020507/#Artikel3</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019442/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0019228/#Artikel1</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0010434/#Artikel4</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/BWBR0021907/#Artikel5</t>
+  </si>
+  <si>
+    <t>Handeling</t>
+  </si>
+  <si>
+    <t>[Handeling]</t>
+  </si>
+  <si>
+    <t>grondslag</t>
+  </si>
+  <si>
+    <t>[Rechtsgrond;]</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>opmerking</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>waardering</t>
+  </si>
+  <si>
+    <t>Waardering</t>
+  </si>
+  <si>
+    <t>[Product;]</t>
+  </si>
+  <si>
+    <t>Periode</t>
   </si>
 </sst>
 </file>
@@ -1639,13 +2486,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1948,11 +2796,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L249"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1965,27 +2811,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>410</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>409</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>275</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -2001,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D3" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>103</v>
@@ -2020,10 +2866,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>659</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
         <v>149</v>
@@ -2038,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>104</v>
@@ -2056,10 +2902,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>661</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>105</v>
@@ -2075,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>662</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -2093,10 +2939,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>663</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>106</v>
@@ -2111,10 +2957,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>664</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>107</v>
@@ -2130,10 +2976,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>108</v>
@@ -2148,10 +2994,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
@@ -2166,10 +3012,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>667</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>110</v>
@@ -2185,10 +3031,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
         <v>111</v>
@@ -2203,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>669</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>112</v>
@@ -2221,13 +3067,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>670</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>263</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -2240,13 +3086,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>671</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>401</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2258,10 +3104,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>672</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
         <v>113</v>
@@ -2276,10 +3122,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>673</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>114</v>
@@ -2295,10 +3141,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>674</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
         <v>109</v>
@@ -2313,10 +3159,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>675</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -2332,10 +3178,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>676</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
         <v>111</v>
@@ -2350,10 +3196,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>677</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>109</v>
@@ -2369,13 +3215,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>678</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>403</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2387,10 +3233,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>679</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>133</v>
@@ -2406,10 +3252,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>680</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>115</v>
@@ -2424,10 +3270,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>681</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>104</v>
@@ -2443,10 +3289,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>682</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>109</v>
@@ -2461,10 +3307,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>683</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>116</v>
@@ -2480,10 +3326,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>684</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>109</v>
@@ -2498,10 +3344,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>685</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>117</v>
@@ -2517,10 +3363,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>686</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>104</v>
@@ -2535,10 +3381,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>687</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>105</v>
@@ -2554,10 +3400,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>688</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>110</v>
@@ -2572,10 +3418,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>689</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>106</v>
@@ -2591,10 +3437,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>690</v>
       </c>
       <c r="D35" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
         <v>111</v>
@@ -2609,10 +3455,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>183</v>
+        <v>691</v>
       </c>
       <c r="D36" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
         <v>118</v>
@@ -2628,10 +3474,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>184</v>
+        <v>692</v>
       </c>
       <c r="D37" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
         <v>119</v>
@@ -2646,10 +3492,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>693</v>
       </c>
       <c r="D38" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
         <v>110</v>
@@ -2665,10 +3511,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>694</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>117</v>
@@ -2683,10 +3529,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>695</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="E40" t="s">
         <v>120</v>
@@ -2702,10 +3548,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>188</v>
+        <v>696</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2720,10 +3566,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>189</v>
+        <v>697</v>
       </c>
       <c r="D42" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
         <v>122</v>
@@ -2739,10 +3585,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>698</v>
       </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
         <v>123</v>
@@ -2757,10 +3603,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>699</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>124</v>
@@ -2775,10 +3621,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
+        <v>700</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
         <v>104</v>
@@ -2793,10 +3639,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>701</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
         <v>110</v>
@@ -2811,10 +3657,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>702</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
         <v>104</v>
@@ -2829,10 +3675,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>703</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>118</v>
@@ -2847,10 +3693,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>196</v>
+        <v>704</v>
       </c>
       <c r="D49" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
         <v>104</v>
@@ -2865,10 +3711,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>705</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
         <v>111</v>
@@ -2884,10 +3730,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>706</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>109</v>
@@ -2902,10 +3748,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>707</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
         <v>104</v>
@@ -2920,10 +3766,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>200</v>
+        <v>708</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
         <v>111</v>
@@ -2938,10 +3784,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>709</v>
       </c>
       <c r="D54" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
         <v>108</v>
@@ -2956,10 +3802,10 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>710</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>125</v>
@@ -2974,10 +3820,10 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>203</v>
+        <v>711</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
         <v>104</v>
@@ -2993,10 +3839,10 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>712</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
         <v>119</v>
@@ -3011,10 +3857,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>205</v>
+        <v>713</v>
       </c>
       <c r="D58" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
         <v>126</v>
@@ -3029,10 +3875,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>714</v>
       </c>
       <c r="D59" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
         <v>127</v>
@@ -3047,10 +3893,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>715</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>128</v>
@@ -3065,10 +3911,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>716</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>129</v>
@@ -3083,10 +3929,10 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>717</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>111</v>
@@ -3102,10 +3948,10 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>718</v>
       </c>
       <c r="D63" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
         <v>130</v>
@@ -3120,10 +3966,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>211</v>
+        <v>719</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>131</v>
@@ -3138,13 +3984,13 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>212</v>
+        <v>720</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
-        <v>405</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3156,13 +4002,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>721</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3174,10 +4020,10 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>722</v>
       </c>
       <c r="D67" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
         <v>104</v>
@@ -3193,10 +4039,10 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>723</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>132</v>
@@ -3211,10 +4057,10 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>724</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
         <v>133</v>
@@ -3229,10 +4075,10 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>725</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>134</v>
@@ -3247,10 +4093,10 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>726</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
         <v>108</v>
@@ -3265,10 +4111,10 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>727</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>109</v>
@@ -3284,10 +4130,10 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>728</v>
       </c>
       <c r="D73" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
         <v>111</v>
@@ -3302,10 +4148,10 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>729</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>108</v>
@@ -3320,10 +4166,10 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>730</v>
       </c>
       <c r="D75" t="s">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="E75" t="s">
         <v>104</v>
@@ -3338,10 +4184,10 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>731</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>108</v>
@@ -3356,10 +4202,10 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>732</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
         <v>104</v>
@@ -3375,10 +4221,10 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>733</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>119</v>
@@ -3393,10 +4239,10 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>226</v>
+        <v>734</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>104</v>
@@ -3411,10 +4257,10 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>735</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>104</v>
@@ -3429,10 +4275,10 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>736</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>104</v>
@@ -3448,10 +4294,10 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>737</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>108</v>
@@ -3466,10 +4312,10 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>738</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>104</v>
@@ -3484,10 +4330,10 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>739</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>104</v>
@@ -3502,10 +4348,10 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>740</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>111</v>
@@ -3521,10 +4367,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>741</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>104</v>
@@ -3539,10 +4385,10 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>742</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>104</v>
@@ -3557,10 +4403,10 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>743</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>118</v>
@@ -3576,10 +4422,10 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>744</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>104</v>
@@ -3594,10 +4440,10 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>745</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>104</v>
@@ -3612,10 +4458,10 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>746</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>104</v>
@@ -3631,10 +4477,10 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>747</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>104</v>
@@ -3649,10 +4495,10 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>748</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>108</v>
@@ -3667,10 +4513,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>108</v>
@@ -3686,10 +4532,10 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>242</v>
+        <v>750</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>348</v>
+        <v>209</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>111</v>
@@ -3704,10 +4550,10 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>751</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>135</v>
@@ -3722,10 +4568,10 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>244</v>
+        <v>752</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>136</v>
@@ -3741,10 +4587,10 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>753</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>104</v>
@@ -3759,10 +4605,10 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>246</v>
+        <v>754</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>104</v>
@@ -3777,13 +4623,13 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>755</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>407</v>
+        <v>268</v>
       </c>
       <c r="L100" s="1"/>
     </row>
@@ -3796,13 +4642,13 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>756</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -3814,10 +4660,10 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>757</v>
       </c>
       <c r="D102" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="E102" t="s">
         <v>104</v>
@@ -3832,10 +4678,10 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>758</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>133</v>
@@ -3851,10 +4697,10 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>251</v>
+        <v>759</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>357</v>
+        <v>218</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>104</v>
@@ -3869,10 +4715,10 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>760</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>104</v>
@@ -3887,13 +4733,13 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>761</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>406</v>
+        <v>267</v>
       </c>
       <c r="L106" s="1"/>
     </row>
@@ -3906,10 +4752,10 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>762</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>104</v>
@@ -3924,10 +4770,10 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>763</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>133</v>
@@ -3942,10 +4788,10 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>764</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>362</v>
+        <v>223</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>104</v>
@@ -3961,10 +4807,10 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>765</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>137</v>
@@ -3979,10 +4825,10 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>258</v>
+        <v>766</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>104</v>
@@ -3997,10 +4843,10 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>767</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>365</v>
+        <v>226</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>138</v>
@@ -4016,10 +4862,10 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>768</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>104</v>
@@ -4034,10 +4880,10 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>261</v>
+        <v>769</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>139</v>
@@ -4052,10 +4898,10 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>770</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>104</v>
@@ -4071,10 +4917,10 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>263</v>
+        <v>771</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>369</v>
+        <v>230</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>104</v>
@@ -4089,10 +4935,10 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>264</v>
+        <v>772</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>104</v>
@@ -4108,10 +4954,10 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>265</v>
+        <v>773</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>104</v>
@@ -4126,10 +4972,10 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>266</v>
+        <v>774</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>372</v>
+        <v>233</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>104</v>
@@ -4145,10 +4991,10 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>267</v>
+        <v>775</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>133</v>
@@ -4163,10 +5009,10 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>776</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>104</v>
@@ -4182,10 +5028,10 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>269</v>
+        <v>777</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>109</v>
@@ -4200,10 +5046,10 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>270</v>
+        <v>778</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>109</v>
@@ -4219,10 +5065,10 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>271</v>
+        <v>779</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>104</v>
@@ -4237,10 +5083,10 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>272</v>
+        <v>780</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>140</v>
@@ -4256,10 +5102,10 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>273</v>
+        <v>781</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>104</v>
@@ -4274,10 +5120,10 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>782</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>381</v>
+        <v>242</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>104</v>
@@ -4293,10 +5139,10 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>275</v>
+        <v>783</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>104</v>
@@ -4311,10 +5157,10 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>276</v>
+        <v>784</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>141</v>
@@ -4330,10 +5176,10 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>277</v>
+        <v>785</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>384</v>
+        <v>245</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>142</v>
@@ -4348,10 +5194,10 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>786</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>385</v>
+        <v>246</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>104</v>
@@ -4360,17 +5206,17 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A141" si="2">TEXT(B132,"#")</f>
+        <f t="shared" ref="A132:A192" si="2">TEXT(B132,"#")</f>
         <v>130</v>
       </c>
       <c r="B132" s="4">
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>279</v>
+        <v>787</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>108</v>
@@ -4385,10 +5231,10 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>280</v>
+        <v>788</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>110</v>
@@ -4404,10 +5250,10 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>789</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>388</v>
+        <v>249</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>108</v>
@@ -4422,10 +5268,10 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>790</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>104</v>
@@ -4441,10 +5287,10 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>283</v>
+        <v>791</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>390</v>
+        <v>251</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>104</v>
@@ -4459,10 +5305,10 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>792</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>108</v>
@@ -4478,10 +5324,10 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>285</v>
+        <v>793</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>104</v>
@@ -4496,10 +5342,10 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>286</v>
+        <v>794</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>393</v>
+        <v>254</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>104</v>
@@ -4515,10 +5361,10 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>795</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>394</v>
+        <v>255</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>109</v>
@@ -4532,11 +5378,11 @@
       <c r="B141" s="4">
         <v>139</v>
       </c>
-      <c r="C141" t="s">
-        <v>288</v>
+      <c r="C141" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>395</v>
+        <v>256</v>
       </c>
       <c r="E141" t="s">
         <v>118</v>
@@ -4544,192 +5390,1333 @@
       <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="1"/>
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B142" s="4">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" t="s">
+        <v>411</v>
+      </c>
+      <c r="E142" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C143" s="1"/>
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B143" s="4">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>530</v>
+      </c>
+      <c r="D143" t="s">
+        <v>415</v>
+      </c>
+      <c r="E143" t="s">
+        <v>582</v>
+      </c>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C145" s="1"/>
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B144" s="4">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>417</v>
+      </c>
+      <c r="D144" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B145" s="4">
+        <v>143</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D145" t="s">
+        <v>278</v>
+      </c>
+      <c r="E145" t="s">
+        <v>584</v>
+      </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C147" s="1"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B146" s="4">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>421</v>
+      </c>
+      <c r="D146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="4">
+        <v>145</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D147" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" t="s">
+        <v>423</v>
+      </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C149" s="1"/>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="4">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D148" t="s">
+        <v>419</v>
+      </c>
+      <c r="E148" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="4">
+        <v>147</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" t="s">
+        <v>419</v>
+      </c>
+      <c r="E149" t="s">
+        <v>425</v>
+      </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C151" s="1"/>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="4">
+        <v>148</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D150" t="s">
+        <v>419</v>
+      </c>
+      <c r="E150" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="4">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>531</v>
+      </c>
+      <c r="D151" t="s">
+        <v>428</v>
+      </c>
+      <c r="E151" t="s">
+        <v>104</v>
+      </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="4">
+        <v>150</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D152" t="s">
+        <v>428</v>
+      </c>
+      <c r="E152" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B153" s="4">
+        <v>151</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D153" t="s">
+        <v>428</v>
+      </c>
+      <c r="E153" t="s">
+        <v>586</v>
+      </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B154" s="4">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>534</v>
+      </c>
+      <c r="D154" t="s">
+        <v>389</v>
+      </c>
+      <c r="E154" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B155" s="4">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D155" t="s">
+        <v>389</v>
+      </c>
+      <c r="E155" t="s">
+        <v>587</v>
+      </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B156" s="4">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>536</v>
+      </c>
+      <c r="D156" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B157" s="4">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>537</v>
+      </c>
+      <c r="D157" t="s">
+        <v>432</v>
+      </c>
+      <c r="E157" t="s">
+        <v>104</v>
+      </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L159" s="1"/>
-    </row>
-    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L161" s="1"/>
-    </row>
-    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C163" s="1"/>
-      <c r="L163" s="1"/>
-    </row>
-    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-      <c r="L165" s="1"/>
-    </row>
-    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C167" s="1"/>
-      <c r="L167" s="1"/>
-    </row>
-    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C170" s="1"/>
-      <c r="L170" s="1"/>
-    </row>
-    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-      <c r="L172" s="1"/>
-    </row>
-    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-      <c r="L174" s="1"/>
-    </row>
-    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-      <c r="L176" s="1"/>
-    </row>
-    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-      <c r="L178" s="1"/>
-    </row>
-    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-      <c r="L180" s="1"/>
-    </row>
-    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L182" s="1"/>
-    </row>
-    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L184" s="1"/>
-    </row>
-    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L186" s="1"/>
-    </row>
-    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L188" s="1"/>
-    </row>
-    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L190" s="1"/>
-    </row>
-    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L192" s="1"/>
-    </row>
-    <row r="194" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L194" s="1"/>
-    </row>
-    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L196" s="1"/>
-    </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L198" s="1"/>
-    </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="4">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>538</v>
+      </c>
+      <c r="D158" t="s">
+        <v>432</v>
+      </c>
+      <c r="E158" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B159" s="4">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>539</v>
+      </c>
+      <c r="D159" t="s">
+        <v>391</v>
+      </c>
+      <c r="E159" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="4">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>540</v>
+      </c>
+      <c r="D160" t="s">
+        <v>393</v>
+      </c>
+      <c r="E160" t="s">
+        <v>111</v>
+      </c>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="4">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>541</v>
+      </c>
+      <c r="D161" t="s">
+        <v>436</v>
+      </c>
+      <c r="E161" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="4">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>542</v>
+      </c>
+      <c r="D162" t="s">
+        <v>395</v>
+      </c>
+      <c r="E162" t="s">
+        <v>111</v>
+      </c>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="4">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>543</v>
+      </c>
+      <c r="D163" t="s">
+        <v>397</v>
+      </c>
+      <c r="E163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="4">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>544</v>
+      </c>
+      <c r="D164" t="s">
+        <v>437</v>
+      </c>
+      <c r="E164" t="s">
+        <v>108</v>
+      </c>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="4">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>545</v>
+      </c>
+      <c r="D165" t="s">
+        <v>439</v>
+      </c>
+      <c r="E165" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="4">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>546</v>
+      </c>
+      <c r="D166" t="s">
+        <v>441</v>
+      </c>
+      <c r="E166" t="s">
+        <v>104</v>
+      </c>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="4">
+        <v>165</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D167" t="s">
+        <v>441</v>
+      </c>
+      <c r="E167" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="4">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>547</v>
+      </c>
+      <c r="D168" t="s">
+        <v>443</v>
+      </c>
+      <c r="E168" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="4">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>548</v>
+      </c>
+      <c r="D169" t="s">
+        <v>445</v>
+      </c>
+      <c r="E169" t="s">
+        <v>111</v>
+      </c>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B170" s="4">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>549</v>
+      </c>
+      <c r="D170" t="s">
+        <v>399</v>
+      </c>
+      <c r="E170" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="4">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>550</v>
+      </c>
+      <c r="D171" t="s">
+        <v>447</v>
+      </c>
+      <c r="E171" t="s">
+        <v>111</v>
+      </c>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="4">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>551</v>
+      </c>
+      <c r="D172" t="s">
+        <v>449</v>
+      </c>
+      <c r="E172" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B173" s="4">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s">
+        <v>552</v>
+      </c>
+      <c r="D173" t="s">
+        <v>451</v>
+      </c>
+      <c r="E173" t="s">
+        <v>111</v>
+      </c>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B174" s="4">
+        <v>172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>553</v>
+      </c>
+      <c r="D174" t="s">
+        <v>454</v>
+      </c>
+      <c r="E174" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B175" s="4">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>554</v>
+      </c>
+      <c r="D175" t="s">
+        <v>456</v>
+      </c>
+      <c r="E175" t="s">
+        <v>117</v>
+      </c>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="4">
+        <v>174</v>
+      </c>
+      <c r="C176" t="s">
+        <v>555</v>
+      </c>
+      <c r="D176" t="s">
+        <v>458</v>
+      </c>
+      <c r="E176" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B177" s="4">
+        <v>175</v>
+      </c>
+      <c r="C177" t="s">
+        <v>462</v>
+      </c>
+      <c r="D177" t="s">
+        <v>460</v>
+      </c>
+      <c r="E177" t="s">
+        <v>453</v>
+      </c>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="4">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>465</v>
+      </c>
+      <c r="D178" t="s">
+        <v>463</v>
+      </c>
+      <c r="E178" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="4">
+        <v>177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>468</v>
+      </c>
+      <c r="D179" t="s">
+        <v>466</v>
+      </c>
+      <c r="E179" t="s">
+        <v>453</v>
+      </c>
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="4">
+        <v>178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>556</v>
+      </c>
+      <c r="D180" t="s">
+        <v>469</v>
+      </c>
+      <c r="E180" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="4">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>557</v>
+      </c>
+      <c r="D181" t="s">
+        <v>401</v>
+      </c>
+      <c r="E181" t="s">
+        <v>453</v>
+      </c>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="4">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>473</v>
+      </c>
+      <c r="D182" t="s">
+        <v>471</v>
+      </c>
+      <c r="E182" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="4">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>558</v>
+      </c>
+      <c r="D183" t="s">
+        <v>474</v>
+      </c>
+      <c r="E183" t="s">
+        <v>453</v>
+      </c>
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B184" s="4">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>478</v>
+      </c>
+      <c r="D184" t="s">
+        <v>476</v>
+      </c>
+      <c r="E184" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B185" s="4">
+        <v>183</v>
+      </c>
+      <c r="C185" t="s">
+        <v>481</v>
+      </c>
+      <c r="D185" t="s">
+        <v>479</v>
+      </c>
+      <c r="E185" t="s">
+        <v>453</v>
+      </c>
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B186" s="4">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>559</v>
+      </c>
+      <c r="D186" t="s">
+        <v>403</v>
+      </c>
+      <c r="E186" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B187" s="4">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>560</v>
+      </c>
+      <c r="D187" t="s">
+        <v>482</v>
+      </c>
+      <c r="E187" t="s">
+        <v>118</v>
+      </c>
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B188" s="4">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s">
+        <v>486</v>
+      </c>
+      <c r="D188" t="s">
+        <v>484</v>
+      </c>
+      <c r="E188" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B189" s="4">
+        <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>561</v>
+      </c>
+      <c r="D189" t="s">
+        <v>491</v>
+      </c>
+      <c r="E189" t="s">
+        <v>108</v>
+      </c>
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B190" s="4">
+        <v>188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>562</v>
+      </c>
+      <c r="D190" t="s">
+        <v>221</v>
+      </c>
+      <c r="E190" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B191" s="4">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>563</v>
+      </c>
+      <c r="D191" t="s">
+        <v>224</v>
+      </c>
+      <c r="E191" t="s">
+        <v>109</v>
+      </c>
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B192" s="4">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>564</v>
+      </c>
+      <c r="D192" t="s">
+        <v>493</v>
+      </c>
+      <c r="E192" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" ref="A193:A212" si="3">TEXT(B193,"#")</f>
+        <v>191</v>
+      </c>
+      <c r="B193" s="4">
+        <v>191</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D193" t="s">
+        <v>495</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="B194" s="4">
+        <v>192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>565</v>
+      </c>
+      <c r="D194" t="s">
+        <v>228</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="B195" s="4">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>566</v>
+      </c>
+      <c r="D195" t="s">
+        <v>497</v>
+      </c>
+      <c r="E195" t="s">
+        <v>136</v>
+      </c>
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="B196" s="4">
+        <v>194</v>
+      </c>
+      <c r="C196" t="s">
+        <v>501</v>
+      </c>
+      <c r="D196" t="s">
+        <v>499</v>
+      </c>
+      <c r="E196" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B197" s="4">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>567</v>
+      </c>
+      <c r="D197" t="s">
+        <v>241</v>
+      </c>
+      <c r="E197" t="s">
+        <v>592</v>
+      </c>
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B198" s="4">
+        <v>196</v>
+      </c>
+      <c r="C198" t="s">
+        <v>568</v>
+      </c>
+      <c r="D198" t="s">
+        <v>502</v>
+      </c>
+      <c r="E198" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B199" s="4">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>569</v>
+      </c>
+      <c r="D199" t="s">
+        <v>506</v>
+      </c>
+      <c r="E199" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B200" s="4">
+        <v>198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>508</v>
+      </c>
+      <c r="D200" t="s">
+        <v>405</v>
+      </c>
+      <c r="E200" t="s">
+        <v>453</v>
+      </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B201" s="4">
+        <v>199</v>
+      </c>
+      <c r="C201" t="s">
+        <v>570</v>
+      </c>
+      <c r="D201" t="s">
+        <v>407</v>
+      </c>
+      <c r="E201" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B202" s="4">
+        <v>200</v>
+      </c>
+      <c r="C202" t="s">
+        <v>571</v>
+      </c>
+      <c r="D202" t="s">
+        <v>409</v>
+      </c>
+      <c r="E202" t="s">
+        <v>453</v>
+      </c>
       <c r="L202" s="1"/>
     </row>
-    <row r="204" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B203" s="4">
+        <v>201</v>
+      </c>
+      <c r="C203" t="s">
+        <v>511</v>
+      </c>
+      <c r="D203" t="s">
+        <v>509</v>
+      </c>
+      <c r="E203" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B204" s="4">
+        <v>202</v>
+      </c>
+      <c r="C204" t="s">
+        <v>512</v>
+      </c>
+      <c r="D204" t="s">
+        <v>509</v>
+      </c>
+      <c r="E204" t="s">
+        <v>584</v>
+      </c>
       <c r="L204" s="1"/>
     </row>
-    <row r="206" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B205" s="4">
+        <v>203</v>
+      </c>
+      <c r="C205" t="s">
+        <v>572</v>
+      </c>
+      <c r="D205" t="s">
+        <v>513</v>
+      </c>
+      <c r="E205" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B206" s="4">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
+        <v>573</v>
+      </c>
+      <c r="D206" t="s">
+        <v>515</v>
+      </c>
+      <c r="E206" t="s">
+        <v>594</v>
+      </c>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B207" s="4">
+        <v>205</v>
+      </c>
+      <c r="C207" t="s">
+        <v>574</v>
+      </c>
+      <c r="D207" t="s">
+        <v>517</v>
+      </c>
+      <c r="E207" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B208" s="4">
+        <v>206</v>
+      </c>
+      <c r="C208" t="s">
+        <v>575</v>
+      </c>
+      <c r="D208" t="s">
+        <v>519</v>
+      </c>
+      <c r="E208" t="s">
+        <v>596</v>
+      </c>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-    </row>
-    <row r="210" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B209" s="4">
+        <v>207</v>
+      </c>
+      <c r="C209" t="s">
+        <v>576</v>
+      </c>
+      <c r="D209" t="s">
+        <v>521</v>
+      </c>
+      <c r="E209" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B210" s="4">
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
+        <v>577</v>
+      </c>
+      <c r="D210" t="s">
+        <v>523</v>
+      </c>
+      <c r="E210" t="s">
+        <v>595</v>
+      </c>
       <c r="L210" s="1"/>
     </row>
-    <row r="212" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B211" s="4">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
+        <v>578</v>
+      </c>
+      <c r="D211" t="s">
+        <v>525</v>
+      </c>
+      <c r="E211" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B212" s="4">
+        <v>210</v>
+      </c>
+      <c r="C212" t="s">
+        <v>579</v>
+      </c>
+      <c r="D212" t="s">
+        <v>527</v>
+      </c>
+      <c r="E212" t="s">
+        <v>596</v>
+      </c>
       <c r="L212" s="1"/>
     </row>
-    <row r="214" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L214" s="1"/>
     </row>
-    <row r="216" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L216" s="1"/>
     </row>
-    <row r="218" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L218" s="1"/>
     </row>
-    <row r="220" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L220" s="1"/>
     </row>
-    <row r="222" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L222" s="1"/>
     </row>
-    <row r="224" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L224" s="1"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.25">
@@ -4762,22 +6749,27 @@
     <row r="244" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L244" s="1"/>
     </row>
-    <row r="246" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L246" s="1"/>
-    </row>
-    <row r="248" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L248" s="1"/>
-    </row>
-    <row r="249" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="K249" s="1"/>
+    <row r="245" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="K245" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C64" r:id="rId1" location="Paragraaf3_Artikel15g"/>
-    <hyperlink ref="C3" r:id="rId2" location="Hoofdstuk3_5_Artikel311"/>
+    <hyperlink ref="C64" r:id="rId1" location="Paragraaf3_Artikel15g" display="http://wetten.overheid.nl/BWBR0004284/geldigheidsdatum_05-01-2016#Paragraaf3_Artikel15g"/>
+    <hyperlink ref="C3" r:id="rId2" location="Hoofdstuk3_5_Artikel311" display="http://wetten.overheid.nl/BWBR0020586/geldigheidsdatum_05-01-2016#Hoofdstuk3_5_Artikel311"/>
+    <hyperlink ref="C155" r:id="rId3" location="HoofdstukVII_Artikel24"/>
+    <hyperlink ref="C153" r:id="rId4" location="HoofdstukVIII_Artikel17"/>
+    <hyperlink ref="C152" r:id="rId5" location="HoofdstukVI_Artikel12"/>
+    <hyperlink ref="C147" r:id="rId6"/>
+    <hyperlink ref="C148" r:id="rId7"/>
+    <hyperlink ref="C149" r:id="rId8"/>
+    <hyperlink ref="C150" r:id="rId9"/>
+    <hyperlink ref="C145" r:id="rId10"/>
+    <hyperlink ref="C167" r:id="rId11" location="1_Artikel5"/>
+    <hyperlink ref="C193" r:id="rId12" location="Hoofdstuk4_Artikel42"/>
+    <hyperlink ref="C141" r:id="rId13" location="Artikel5" display="http://wetten.overheid.nl/BWBR0021907/geldigheidsdatum_05-01-2016#Artikel5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4785,11 +6777,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4800,35 +6790,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>397</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>415</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -4837,12 +6827,12 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -4851,12 +6841,12 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -4865,12 +6855,12 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -4879,12 +6869,12 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>422</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4893,12 +6883,12 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4907,12 +6897,12 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -4921,12 +6911,12 @@
         <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -4935,12 +6925,12 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -4949,12 +6939,12 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -4963,12 +6953,12 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -4977,12 +6967,12 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -4991,12 +6981,12 @@
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -5005,12 +6995,12 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>431</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -5019,12 +7009,12 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -5033,12 +7023,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>433</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -5047,12 +7037,12 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>434</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -5061,12 +7051,12 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>435</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -5075,12 +7065,12 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>436</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -5089,12 +7079,12 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>437</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -5103,12 +7093,12 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>438</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -5117,12 +7107,12 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>439</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -5131,12 +7121,12 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -5145,12 +7135,12 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>441</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -5159,12 +7149,12 @@
         <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>442</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -5173,12 +7163,12 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>443</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>
@@ -5187,12 +7177,12 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -5201,12 +7191,12 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>445</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -5215,12 +7205,12 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>446</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -5229,12 +7219,12 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>447</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -5243,12 +7233,12 @@
         <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -5257,12 +7247,12 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>449</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -5271,12 +7261,12 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -5285,12 +7275,12 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>451</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -5299,12 +7289,12 @@
         <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>452</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -5313,12 +7303,12 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -5327,12 +7317,12 @@
         <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>454</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -5341,12 +7331,12 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -5355,12 +7345,12 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>456</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -5369,12 +7359,12 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>457</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
         <v>144</v>
@@ -5383,12 +7373,12 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>458</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -5397,12 +7387,12 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>459</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -5411,12 +7401,12 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>460</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -5425,12 +7415,12 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>461</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -5439,12 +7429,12 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>462</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
@@ -5453,12 +7443,12 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>463</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
@@ -5467,12 +7457,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>464</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -5481,12 +7471,12 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>465</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
@@ -5495,12 +7485,12 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>466</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -5509,12 +7499,12 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>467</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -5523,12 +7513,12 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>468</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -5537,12 +7527,12 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>469</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -5551,12 +7541,12 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>470</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>341</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
@@ -5565,12 +7555,12 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>471</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
@@ -5579,12 +7569,12 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>472</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
         <v>145</v>
@@ -5593,12 +7583,12 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>473</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
@@ -5607,12 +7597,12 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>474</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
@@ -5621,12 +7611,12 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -5635,12 +7625,12 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
@@ -5649,12 +7639,12 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>477</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
         <v>58</v>
@@ -5663,12 +7653,12 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>478</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -5677,12 +7667,12 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>479</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -5691,12 +7681,12 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>480</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
         <v>61</v>
@@ -5705,12 +7695,12 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>481</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s">
         <v>62</v>
@@ -5719,12 +7709,12 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>482</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
@@ -5733,12 +7723,12 @@
         <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
         <v>64</v>
@@ -5747,12 +7737,12 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>484</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -5761,12 +7751,12 @@
         <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>485</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
@@ -5775,12 +7765,12 @@
         <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>486</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
         <v>146</v>
@@ -5789,12 +7779,12 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
         <v>67</v>
@@ -5803,12 +7793,12 @@
         <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
         <v>68</v>
@@ -5817,12 +7807,12 @@
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>489</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
@@ -5831,12 +7821,12 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>490</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -5845,12 +7835,12 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>491</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>362</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
@@ -5859,12 +7849,12 @@
         <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>492</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
@@ -5873,12 +7863,12 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
@@ -5887,12 +7877,12 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
         <v>74</v>
@@ -5901,12 +7891,12 @@
         <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>495</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
@@ -5915,12 +7905,12 @@
         <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>496</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>76</v>
@@ -5929,12 +7919,12 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>497</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -5943,12 +7933,12 @@
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>498</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
@@ -5957,12 +7947,12 @@
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>499</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
         <v>147</v>
@@ -5971,12 +7961,12 @@
         <v>201</v>
       </c>
       <c r="D84" t="s">
-        <v>500</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
         <v>79</v>
@@ -5985,12 +7975,12 @@
         <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>501</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>372</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
@@ -5999,12 +7989,12 @@
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>502</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
         <v>81</v>
@@ -6013,12 +8003,12 @@
         <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>503</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
         <v>82</v>
@@ -6027,12 +8017,12 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>504</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
@@ -6041,12 +8031,12 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>505</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
@@ -6055,12 +8045,12 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>506</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
         <v>85</v>
@@ -6069,12 +8059,12 @@
         <v>32</v>
       </c>
       <c r="D91" t="s">
-        <v>507</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>378</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s">
         <v>86</v>
@@ -6083,12 +8073,12 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>508</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
@@ -6097,12 +8087,12 @@
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>509</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
         <v>88</v>
@@ -6111,12 +8101,12 @@
         <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>510</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>381</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
         <v>89</v>
@@ -6125,12 +8115,12 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>511</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
         <v>90</v>
@@ -6139,12 +8129,12 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
         <v>91</v>
@@ -6153,12 +8143,12 @@
         <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>384</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
         <v>92</v>
@@ -6167,12 +8157,12 @@
         <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>246</v>
       </c>
       <c r="B99" t="s">
         <v>93</v>
@@ -6181,12 +8171,13 @@
         <v>151</v>
       </c>
       <c r="D99" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="B100" t="s">
         <v>94</v>
@@ -6195,12 +8186,12 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
         <v>95</v>
@@ -6209,12 +8200,12 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>249</v>
       </c>
       <c r="B102" t="s">
         <v>96</v>
@@ -6223,12 +8214,12 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="B103" t="s">
         <v>97</v>
@@ -6237,12 +8228,12 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>251</v>
       </c>
       <c r="B104" t="s">
         <v>98</v>
@@ -6251,12 +8242,12 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="B105" t="s">
         <v>99</v>
@@ -6265,12 +8256,12 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
         <v>100</v>
@@ -6279,12 +8270,12 @@
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>393</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
         <v>101</v>
@@ -6293,12 +8284,12 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>394</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
         <v>148</v>
@@ -6307,12 +8298,12 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>395</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
         <v>102</v>
@@ -6321,27 +8312,793 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>279</v>
       </c>
       <c r="C110" s="3">
         <v>518</v>
       </c>
       <c r="D110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>387</v>
+      </c>
+      <c r="B111" t="s">
+        <v>388</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>415</v>
+      </c>
+      <c r="B113" t="s">
         <v>416</v>
+      </c>
+      <c r="D113" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115" t="s">
+        <v>429</v>
+      </c>
+      <c r="D115" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>389</v>
+      </c>
+      <c r="B116" t="s">
+        <v>390</v>
+      </c>
+      <c r="D116" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" t="s">
+        <v>431</v>
+      </c>
+      <c r="D117" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>432</v>
+      </c>
+      <c r="B118" t="s">
+        <v>433</v>
+      </c>
+      <c r="D118" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>434</v>
+      </c>
+      <c r="B119" t="s">
+        <v>435</v>
+      </c>
+      <c r="D119" t="s">
+        <v>606</v>
+      </c>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>392</v>
+      </c>
+      <c r="D120" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>393</v>
+      </c>
+      <c r="B121" t="s">
+        <v>394</v>
+      </c>
+      <c r="D121" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" t="s">
+        <v>396</v>
+      </c>
+      <c r="D122" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>397</v>
+      </c>
+      <c r="B123" t="s">
+        <v>398</v>
+      </c>
+      <c r="D123" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>437</v>
+      </c>
+      <c r="B124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D124" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>439</v>
+      </c>
+      <c r="B125" t="s">
+        <v>440</v>
+      </c>
+      <c r="D125" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>441</v>
+      </c>
+      <c r="B126" t="s">
+        <v>442</v>
+      </c>
+      <c r="D126" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>443</v>
+      </c>
+      <c r="B127" t="s">
+        <v>444</v>
+      </c>
+      <c r="D127" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>445</v>
+      </c>
+      <c r="B128" t="s">
+        <v>446</v>
+      </c>
+      <c r="D128" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>399</v>
+      </c>
+      <c r="B129" t="s">
+        <v>400</v>
+      </c>
+      <c r="D129" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>447</v>
+      </c>
+      <c r="B130" t="s">
+        <v>448</v>
+      </c>
+      <c r="D130" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>449</v>
+      </c>
+      <c r="B131" t="s">
+        <v>450</v>
+      </c>
+      <c r="D131" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>451</v>
+      </c>
+      <c r="B132" t="s">
+        <v>452</v>
+      </c>
+      <c r="D132" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" t="s">
+        <v>455</v>
+      </c>
+      <c r="D133" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>456</v>
+      </c>
+      <c r="B134" t="s">
+        <v>457</v>
+      </c>
+      <c r="D134" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>458</v>
+      </c>
+      <c r="B135" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>460</v>
+      </c>
+      <c r="B136" t="s">
+        <v>461</v>
+      </c>
+      <c r="D136" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>463</v>
+      </c>
+      <c r="B137" t="s">
+        <v>464</v>
+      </c>
+      <c r="D137" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>466</v>
+      </c>
+      <c r="B138" t="s">
+        <v>467</v>
+      </c>
+      <c r="D138" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>469</v>
+      </c>
+      <c r="B139" t="s">
+        <v>470</v>
+      </c>
+      <c r="D139" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" t="s">
+        <v>402</v>
+      </c>
+      <c r="D140" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>471</v>
+      </c>
+      <c r="B141" t="s">
+        <v>472</v>
+      </c>
+      <c r="D141" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>474</v>
+      </c>
+      <c r="B142" t="s">
+        <v>475</v>
+      </c>
+      <c r="D142" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>476</v>
+      </c>
+      <c r="B143" t="s">
+        <v>477</v>
+      </c>
+      <c r="D143" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>479</v>
+      </c>
+      <c r="B144" t="s">
+        <v>480</v>
+      </c>
+      <c r="D144" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>403</v>
+      </c>
+      <c r="B145" t="s">
+        <v>404</v>
+      </c>
+      <c r="D145" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>482</v>
+      </c>
+      <c r="B146" t="s">
+        <v>483</v>
+      </c>
+      <c r="D146" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>484</v>
+      </c>
+      <c r="B147" t="s">
+        <v>485</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>487</v>
+      </c>
+      <c r="B148" t="s">
+        <v>488</v>
+      </c>
+      <c r="D148" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>489</v>
+      </c>
+      <c r="B149" t="s">
+        <v>490</v>
+      </c>
+      <c r="D149" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>491</v>
+      </c>
+      <c r="B150" t="s">
+        <v>492</v>
+      </c>
+      <c r="D150" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>493</v>
+      </c>
+      <c r="B151" t="s">
+        <v>494</v>
+      </c>
+      <c r="D151" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>495</v>
+      </c>
+      <c r="B152" t="s">
+        <v>496</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>497</v>
+      </c>
+      <c r="B153" t="s">
+        <v>498</v>
+      </c>
+      <c r="D153" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>499</v>
+      </c>
+      <c r="B154" t="s">
+        <v>500</v>
+      </c>
+      <c r="D154" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D155" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>502</v>
+      </c>
+      <c r="B156" t="s">
+        <v>503</v>
+      </c>
+      <c r="D156" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>504</v>
+      </c>
+      <c r="B157" t="s">
+        <v>505</v>
+      </c>
+      <c r="D157" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>506</v>
+      </c>
+      <c r="B158" t="s">
+        <v>507</v>
+      </c>
+      <c r="D158" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>405</v>
+      </c>
+      <c r="B159" t="s">
+        <v>406</v>
+      </c>
+      <c r="D159" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>407</v>
+      </c>
+      <c r="B160" t="s">
+        <v>408</v>
+      </c>
+      <c r="D160" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>409</v>
+      </c>
+      <c r="B161" t="s">
+        <v>410</v>
+      </c>
+      <c r="D161" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>509</v>
+      </c>
+      <c r="B162" t="s">
+        <v>510</v>
+      </c>
+      <c r="D162" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>513</v>
+      </c>
+      <c r="B163" t="s">
+        <v>514</v>
+      </c>
+      <c r="D163" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>515</v>
+      </c>
+      <c r="B164" t="s">
+        <v>516</v>
+      </c>
+      <c r="D164" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>517</v>
+      </c>
+      <c r="B165" t="s">
+        <v>518</v>
+      </c>
+      <c r="D165" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>519</v>
+      </c>
+      <c r="B166" t="s">
+        <v>520</v>
+      </c>
+      <c r="D166" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>521</v>
+      </c>
+      <c r="B167" t="s">
+        <v>522</v>
+      </c>
+      <c r="D167" t="s">
+        <v>652</v>
+      </c>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>523</v>
+      </c>
+      <c r="B168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>525</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="D169" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>527</v>
+      </c>
+      <c r="B170" t="s">
+        <v>528</v>
+      </c>
+      <c r="D170" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D110" r:id="rId1"/>
+    <hyperlink ref="D111" r:id="rId2"/>
+    <hyperlink ref="D147" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Blik/Wetsartikelen.xlsx
+++ b/Blik/Wetsartikelen.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="135" windowWidth="15300" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="192" yWindow="132" windowWidth="15300" windowHeight="7896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wetsartikelen" sheetId="3" r:id="rId1"/>
     <sheet name="Regelingen" sheetId="4" r:id="rId2"/>
     <sheet name="Handelingen" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1290">
   <si>
     <t>Wet handhaving consumentenbescherming</t>
   </si>
@@ -2433,20 +2433,1498 @@
     <t>waardering</t>
   </si>
   <si>
-    <t>Waardering</t>
-  </si>
-  <si>
-    <t>[Product;]</t>
-  </si>
-  <si>
     <t>Periode</t>
+  </si>
+  <si>
+    <t>werkwoord</t>
+  </si>
+  <si>
+    <t>voorwerp</t>
+  </si>
+  <si>
+    <t>producttype</t>
+  </si>
+  <si>
+    <t>[Werkwoord;]</t>
+  </si>
+  <si>
+    <t>[Voorwerp;]</t>
+  </si>
+  <si>
+    <t>[Producttype;]</t>
+  </si>
+  <si>
+    <t>[Producttype,]</t>
+  </si>
+  <si>
+    <t>[Waardering;]</t>
+  </si>
+  <si>
+    <t>Het medeling doen aan buitenlanden van het uitbreken van een besmettelijke veezieke</t>
+  </si>
+  <si>
+    <t>mededelen</t>
+  </si>
+  <si>
+    <t>O.a. Overeenkomst tussen de Nederlandse Regering en de Duitse Bondsregering betreffende de bestrijding van veeziekten in de grensgebieden (Tractatenblad 1958, nr. 69 en 1959 nr. 129); Veterinaire overeenkomsten tussen het Koninkrijk der Nederlanden en andere landen; zie overzicht wet- en regeleving.</t>
+  </si>
+  <si>
+    <t>1959–</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de directeur Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Kennisgeving, rapporten</t>
+  </si>
+  <si>
+    <t>V 12 jaar</t>
+  </si>
+  <si>
+    <t>Het goedkeuren van het in zieke of verdachte toestand brengen van een diersoort in het belang van de algemene toestand van de betrokken diersoort.</t>
+  </si>
+  <si>
+    <t>goedkeuren</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art. 101.2</t>
+  </si>
+  <si>
+    <t>1992–</t>
+  </si>
+  <si>
+    <t>Het gaat hier om met opzet ziek maken van dieren ten behoeven van bevoorbeeld wetenschappelijk onderzoek.</t>
+  </si>
+  <si>
+    <t>Beschikking</t>
+  </si>
+  <si>
+    <t>V 5 jaar</t>
+  </si>
+  <si>
+    <t>Het verlenen van een ontheffing van de verplichting om dieren, aangevoerd voor een keuring of tentoonstelling te laten onderzoeken door een of meer (door de Veterinaire Dienst) aangewezen, veearts.</t>
+  </si>
+  <si>
+    <t>verlenen</t>
+  </si>
+  <si>
+    <t>ontheffing</t>
+  </si>
+  <si>
+    <t>Veewet, art. 5 bis en Beschikking verbod van in-, door- en vervoer van pluimvee en het verlenen van ontheffing (24 april 1959, Stcrt. 81). art. 5.3; Regeling markt- en tentoonstellingsverbod pluimvee 1992, art. 3.3</t>
+  </si>
+  <si>
+    <t>1945–</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het verstrekken van een bewijs dat de houder van een veewagen heeft voldaan aan de voorschriften tot ontsmetting van de wagen en daarbij behorende voorwerpen.</t>
+  </si>
+  <si>
+    <t>verstrekken</t>
+  </si>
+  <si>
+    <t>certificaat</t>
+  </si>
+  <si>
+    <t>Beschikking motorrijtuigen en aanhangwagens voor veevervoer ( 4 juni 1957, Stcrt.109, gewijzigd 16 januari 1964, Stcrt. 12), art. 2; Beschikking ontsmetting motorrijtuigen en aanhangwagens 1966 art.1; Beschikking ontsmetting motorrijtuigen en aanhangwagens 1976, art. 6a</t>
+  </si>
+  <si>
+    <t>1957–</t>
+  </si>
+  <si>
+    <t>Bewijsstuk</t>
+  </si>
+  <si>
+    <t>Het verlenen van een vergunning aan de eigenaar, houder of hoeder van een of meer varkens voor het voorhanden hebben van keukenafvallen en voedsel- en slachtafvallen.</t>
+  </si>
+  <si>
+    <t>vergunning</t>
+  </si>
+  <si>
+    <t>Beschikking sterilisatie keukenafvallen (15 oktober 1968, Stcrt. 203). Art. 1.1; Beschikking voedsel- en slachtafvallen (28 maart 1972, Stcrt. 65)</t>
+  </si>
+  <si>
+    <t>1966–</t>
+  </si>
+  <si>
+    <t>Het betreft hier keukenafvallen bestaande uit met vlees of gebeente van herkauwende, eenhoevige dieren of varkens. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Vergunningen</t>
+  </si>
+  <si>
+    <t>V 5 jaar na intrekking</t>
+  </si>
+  <si>
+    <t>Het geven van bijzondere voorschriften betreffende het veeartsenijkundig toezicht in verband met het dreigen, optreden of heersen van een besmettelijke veeziekte.</t>
+  </si>
+  <si>
+    <t>geven</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voorschrift</t>
+  </si>
+  <si>
+    <t>Besluit voorschriften het veeartsenijkundig toezicht op de veemarkten (1 mei 1975, Stb. 247)</t>
+  </si>
+  <si>
+    <t>1975–</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Besluit</t>
+  </si>
+  <si>
+    <t>B, criterium 5</t>
+  </si>
+  <si>
+    <t>Het verlenen of intrekken van een ontheffing van de verplichting het vervoermiddel en de daarbij behorende voorwerpen, waarin het vee wordt vervoerd, in het tijdvak van 7 dagen voorafgaand aan het vervoer te reinigen en te ontsmetten.</t>
+  </si>
+  <si>
+    <t>verlenen; intrekken</t>
+  </si>
+  <si>
+    <t>Beschikking ontsmetting motorrijtuigen en aanhangwagens 1976 (19 juli 1976,) art. 8.1</t>
+  </si>
+  <si>
+    <t>1976–</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de Directeur Veeartsenijkundige Dienst</t>
+  </si>
+  <si>
+    <t>Het onderzoeken, onderwerpen aan opneming en monsteren van producten van dierlijke oosprong of producten die drager kunnen zijn van smetstof.</t>
+  </si>
+  <si>
+    <t>onderzoeken; onderwerpen aan opneming; monsteren</t>
+  </si>
+  <si>
+    <t>Besluit inzake het in de handel brengen van dieren en producten en de toepassing van maatregelen met betrekking tot in Nederland gebrachte dieren en producten (4 mei 1994, Stcrt. 343, in werking 8 juni 1994, Stcrt. 392) art. 6.1 en 6.3; Gezondheids- en welzijnswet voor dieren art. 10.1</t>
+  </si>
+  <si>
+    <t>1994–</t>
+  </si>
+  <si>
+    <t>Verslag</t>
+  </si>
+  <si>
+    <t>Het vaststellen van een protocol voor het reinigen en ontsmetten van een verzamelplaats voor varkens.</t>
+  </si>
+  <si>
+    <t>vaststellen</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>Regeling betreffende het bijeenbrengen van dieren (12 maart 1996, Stcrt. 61), art. 3</t>
+  </si>
+  <si>
+    <t>1996–</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>B criterium 5</t>
+  </si>
+  <si>
+    <t>Het verlenen van ontheffing van een of meer bepalingen van de regeling.</t>
+  </si>
+  <si>
+    <t>Regeling inzake hygiënevoorschriften besmettelijke dierziekten (23 juni 1998, Stcrt. 117)</t>
+  </si>
+  <si>
+    <t>1998–</t>
+  </si>
+  <si>
+    <t>Het verlenen van ontheffing op verboden op in-, door- en vervoer van vee, pluimvee, producten en voorwerpen.</t>
+  </si>
+  <si>
+    <t>Veewet, art. 38; Beschikking verbod van in-, door- en vervoer van pluimvee en het verlenen van ontheffing (24 april 1959, Stcrt. 81), art. 3: Beschikking ingevoerde keukenafvallen (MB van 5 mei 1961, Stcrt. 87), art. 2; Beschikking in- en doorvoer van honden en katten (25 april 1962, Stcrt. 82, laatste wijziging van 2 oktober 1967, Stcrt. 193) art.3; Beschikking invoer levende entstoffen en smetstoffen (8 april 1963, Stcrt. 71; 9 juni 1970, Stact 110), art. 2; Beschikking wering besmettelijke pluimveeziekten 1975, art. 12; Beschikking invoer vlees, art. 5; Beschikking in- en doorvoormaatregelen voor varkens en varkensvlees uit Italië, art. 4; Regeling invoer van eenhoevige dieren andere dan slachtpaarden 1977, art. 4; Regeling invoer verbod klauwen, borstels en haar van varkens (15 maart 1985, Stcrt. 53, gewijzigd 20 mei 1988, Stcrt. 101), art. 2; Regeling invoer vee 1992, art. 2.3 en 16a.</t>
+  </si>
+  <si>
+    <t>1950–</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het gaat hier bijvoorbeeld om het verbod op in- en doorvoer van honden en katten in verband met de werking van hondsdolheid of om het verbod op in-, door- en vervoer van pluimvee in verband met pseudo-vogelpest, of om het verbod op invoer van levende ent- en smetstoffen. Er kan ontheffing worden verleend voor de invoer van verdachte dieren, producten of voorwerpen ten behoeve van bijvoorbeeld wetenschappelijk onderzoek. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De formele handeling ligt bij de Directeur/Inspecteur-districtshoofd Veterinaire Dienst.</t>
+    </r>
+  </si>
+  <si>
+    <t>Het verlenen van ontheffing op het verbod op in- en doorvoer van konijnen, pluimvee, papegaaien en papegaaiachtigen, van honden en katten, behorende tot een circus en van vlees, vleesproducten en andere dierlijke producten.</t>
+  </si>
+  <si>
+    <t>Regeling in- en doorvoor honden en katten, 1962; Beschikking in- en doorvoer konijnen 1972, art. 1; Regeling in- en doorvoer papegaaien en papegaaiachtigen 1977 art. 10; Regeling invoer vlees 1979, art. 8; Regeling in-, door- en vervoer van pluimvee en pluimveeproducten 1979 en 1987, art. 15; Regeling in- en doorvoer vlees 1979 (Stcrt. 4, 19 en 27, gewijzigd 23 juli 1992, Stcrt 143), art. 8 vanaf 1999 art. 7k.; Regeling in- en doorvoer vlees 1979, art. 7 k (Bij de wijziging van de regeling van 4 juni 1993, Stcrt. 110 kreeg dit artikel een andere inhoud); Regeling in- en doorvoer vleesproducten 1985, art. 6k; Regeling in- en doorvoer vee, veeproducten e.d. 1991 art. 4.1; Regeling in- en doorvoer van sperma van varkens (18 maart 1992, Stcrt. 59), art. 6; Regeling in-, door- en vervoer van pluimvee, duiven en broedeieren 92 (14 september 1992, Stcrt 177), art. 29; Regeling in- en doorvoer diepgevroren sperma van runderen 1992 (27 oktober 1992, Stcrt. 210), art. 23; Regeling in-, door- en vervoer niet-geharmoniseerde producten 1993 (28 juni 1993, Stcrt 125), art. 20; Regeling in- en doorvoer embryo’s van runderen 1993, art. 6 en art. 24; Regeling in- en doorvoer sperma van varkens 1993, art. 25; Regeling in-, door- en vervoer van pluimveeproducten 1993, art. 17.1; Regeling in- en doorvoer levende dieren en producten 1993 (14 juni 1993, Stcrt. 114)art. 34</t>
+  </si>
+  <si>
+    <t>1962–</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor het vervoer van eenhoevige dieren van hun plaats van aankomst in Nederland naar elders.</t>
+  </si>
+  <si>
+    <t>toestemming</t>
+  </si>
+  <si>
+    <t>Beschikking invoer eenhoevige dieren, art. 2.3</t>
+  </si>
+  <si>
+    <t>1964–</t>
+  </si>
+  <si>
+    <t>Het in bijzondere gevallen onder voorwaarden toelaten van de in- en doorvoer van beenderen, kunstmest en veevoeder.</t>
+  </si>
+  <si>
+    <t>toelaten</t>
+  </si>
+  <si>
+    <t>invoer; doorvoer</t>
+  </si>
+  <si>
+    <t>Beschikking in- en doorvoer beenderen, kunstmest en veevoeder, art. 7</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor verder vervoer van weder ingevoerde herkauwende dieren en varkens en het stellen van eisen tot beperking van besmettingsgevaar.</t>
+  </si>
+  <si>
+    <t>Beschikking wederinvoer herkauwende dieren en varkens, art. 1</t>
+  </si>
+  <si>
+    <t>Het verlenen of intrekken van een vergunning voor de invoer en wederinvoer van dieren ter beweiding of beakkering van grenslanderijen in Nederland.</t>
+  </si>
+  <si>
+    <t>Grensbeweidingsregeling (30 jui 1964, Stcrt. 146), art. 2 en 10.</t>
+  </si>
+  <si>
+    <t>Vergunning</t>
+  </si>
+  <si>
+    <t>Het verlenen of intrekken van een vergunning voor de in, uit- en doorvoer van herkauwende dieren en varkens die horen bij circussen, kijkspelen e.d.</t>
+  </si>
+  <si>
+    <t>Beschikking in-, uit- en doorvoer circusdieren, art. 1</t>
+  </si>
+  <si>
+    <t>Het verbieden van het verder vervoer op Nederlands grondgebied van ingevoerde dieren en producten.</t>
+  </si>
+  <si>
+    <t>verbieden</t>
+  </si>
+  <si>
+    <t>vervoer</t>
+  </si>
+  <si>
+    <t>Beschikking invoer slachtdieren 1965; Regeling invoer slachtdieren 1970, art. 3.1; Regeling invoer slachtpaarden 1977, art. 7.1; Regeling in- door- en vervoer van pluimvee en pluimveeproducten 1979 en 1987, art. 4.1; Regeling invoer slachtschapen en -geiten 1982, art. 3; Regeling invoer levende en dode vossen (23 februari 1987, Stcrt. 41, gewijzigd 26 mei 1987, Stcrt. 103), art. 4.1; Regeling doorvoer van vee 1987, art. 4.1; Regeling invoer fok- en gebruiksschapen en fok- en gebruiksgeiten (5 juni 1987, Stcrt. 109, gewijzigd 31 juli 1991, Stcrt. 149) art. 3.1</t>
+  </si>
+  <si>
+    <t>1965–</t>
+  </si>
+  <si>
+    <t>In deze regeling is de EG-richtlijn inzake veterinairrechtelijke vraagstukken op het gebied van het intracommunautair handelsverkeer in runderen en varkens van 24 juni 1964 Pb EEG 121 en 176, gewijzigd bij richtlijn van 25 oktober 1966, 66/600/EEG, Pb EEG 192 geïmplementeerd. Het gaat hier onder meer om fok- en verbruiksdieren en vanuit EG-landen ingevoerde slachtdieren. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Het besluiten tot maatregelen ter opheldering van de gevallen verdachte dieren en dierproducten.</t>
+  </si>
+  <si>
+    <t>besluiten</t>
+  </si>
+  <si>
+    <t>Beschikking invoer slachtdieren 1965; Regeling invoer slachtdieren 1970, 23 juni 1965, art. 3.2; Regeling invoer slachtpaarden 1971, art. 3.2; Regeling invoer eenhoevige dieren andere dan slachtpaarden 1977, art. 7.2; Regeling invoer slachtschapen en -⁠geiten 1982, art. 3; Regeling doorvoer vee 1987, art. 4.2; Regeling invoer fok- en gebruiksschapen en fok- en gebruiksgeiten (5 juni 1987, Stcrt. 109, gewijzigd 31 juli 1991, Stcrt. 149), art.. 3.2; Regeling invoer diepgevroren sperma van runderen, art. 4.2.</t>
+  </si>
+  <si>
+    <t>Het gaat om dieren en producten die worden verdacht te lijden aan, of te zijn besmet met een besmettelijke ziekte, of ervan worden verdacht een gevaar op te leveren voor de verbreiding van een dergelijke ziekte. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Het besluiten tot quarantainemaatregelen voor verdachte of besmette dieren.</t>
+  </si>
+  <si>
+    <t>Regeling invoer fok- en gebruiksdieren 1965 (23 juni 1965, Stcrt. 119, gewijzigd 13 november 1991) art. 3.1 en 3.2</t>
+  </si>
+  <si>
+    <t>In deze richtlijn werden geïmplementeerd: De EG-richtlijn inzake veterinairrechtelijke vraagstukken op het gebied van het intracommunautair handelsverkeer in runderen en varkens van 24 juni 1964, Pb EEG 121 en 176, gewijzigd bij richtlijn van 25 oktober 1966, 66/600 EEG, Pb EEG 192 en EG-richtlijn van 13 mei 1965, Pb 93. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor het vervoer van dieren van een kalvermesterij naar slachthuis.</t>
+  </si>
+  <si>
+    <t>Regeling invoer fok- en gebruiksdieren 1965, art. 6; Regeling invoer vee 1992 (23 juli 1992, Stcrt. 143), art. 12; Regeling handel levende dieren en levende producten (30 november 1994, Stcrt. 250), art. 3.10.</t>
+  </si>
+  <si>
+    <t>Het besluiten dat dieren of dierproducten (binnen een bepaalde termijn) moeten worden teruggezonden naar het land van verzending of moet worden vernietigd.</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Regeling invoer fok- en gebruiksdieren 1965, art 3b; Beschikking invoer slachtdieren 1965; Regeling invoer slachtdieren 1970, art. 3b en 3.4; Regeling in-, door- en vervoer van pluimvee en pluimveeproducten 1979 en 1987; Regeling in- en doorvoer vlees 1979 art. 7k (vanaf juni 1993); Regeling doorvoer eenhoevige dieren 1983 (15 april 1983, Stcrt. 76, gewijzigd 27 maart 1991, Stcrt. 64); Regeling in- en doorvoer vleesproducten 1985, art. 6k (vanaf juni 1993); Regeling invoer levende en dode vossen (23 februari 1987, Stcrt. 41, gewijzigd 26 mei 1987 Stcrt. 103), art. 4.3 en 4.4; Regeling invoer fok- en gebruiksschapen en fok- en gebruiksgeiten (5 juni 1987 Stcrt. 109, gewijzigd 31 juli 1991, Stcrt. 149), art. 3.4; Regeling doorvoer vee 1987, art. 4.4 en 4.6; Regeling in- en doorvoer van embryo’s van runderen 1991, art. 4.1 en art. 22; Regeling in-, door- en vervoer van pluimvee en pluimveeproducten 1979 en 1987, art. 4.2; Regeling in- en doorvoer sperma van varkens 1992 (18 maart 1992, Stcrt. 59), art. 4.1; Regeling in- en doorvoer sperma van varkens 1993, art. 12.2 en 13.1; Regeling in- en doorvoer diepgevroren sperma van runderen 1992 (27 oktober 1992, Stcrt. 210), art. 4.5, 11 en 12 en art. 21; Regeling in- en doorvoer levende dieren en producten 1993 (14 juni 1993 Stcrt. 114), art. 30.1; Regeling in- door en vervoer niet-geharmoniseerde producten 1993 (28 juni 1993, Stcrt. 125), art. 17.1; Regeling invoer diepgevroren sperma van runderen, art. 4.4</t>
+  </si>
+  <si>
+    <t>Het vernietigen betreft onder meer het laten doden van dieren in een door de inspecteur aangewezen slachthuis.</t>
+  </si>
+  <si>
+    <t>Het verlenen van een ontheffing van de verplichting van het van gemeentewegen of onder gemeentelijk toezicht ontsmetten van een vervoermiddel voor varkens.</t>
+  </si>
+  <si>
+    <t>Beschikking vervoersregeling varkens Noord-Brabant, art. 2; Beschikking vervoersregeling varkens, art. 3.2</t>
+  </si>
+  <si>
+    <t>1970–</t>
+  </si>
+  <si>
+    <t>Het goedkeuren van een quarantaineruimte voor papegaaien en papegaaiachtigen.</t>
+  </si>
+  <si>
+    <t>quarantaineruimte</t>
+  </si>
+  <si>
+    <t>Regeling in- en doorvoer papegaaien en papegaaiachtigen 1977, art. 9; Regeling aanwijzing quarantaineruimten papegaaien en papagaaiachtigen 1977 (9 november 1977 Stcrt. 221)</t>
+  </si>
+  <si>
+    <t>1977–</t>
+  </si>
+  <si>
+    <t>Het besluiten tot het nemen van maartegelen als bij dieren of een partij (dier)producten verwekkers van ziekten, zoönosen of andere aandoeningen zijn geconstateerd, of als de dieren of producten afkomstig zijn uit een epidemisch gebied, of als niet is voldaan aan de voorschriften van de regeling of aan communautaire voorschriften in het kader van de invoer.</t>
+  </si>
+  <si>
+    <t>O.a.: Regeling in- en doorvoer vlees 1979, art 7j; Regeling in- en doorvoer vleesproducten 1985 (Stcrt. 53, gewijzigd 23 juli 1992, Stcrt. 143), art. 6 e, 6 j en 6k1; Regeling invoer vee 1992 (23 juli 1992, Stcrt. 143), art. 10 en 20; Regeling in-, door- en vervoer pluimvee, duiven en broedeieren 1992 (14 september 1992, Stcrt. 177), art. 12, 20.4 en 26. Regeling in- en doorvoer diepgevroren sperma van runderen 1992 (27 oktober 1992, Stcrt. 210), art. 11, 12 en 21; Regeling keuring en handelsverkeer pluimveevlees 1992, art. 14.1 en 2 en art. 18.1 en 3; Regeling in- en doorvoer levende dieren en producten 1993 (14 juni 1993 Stcrt. 114), art. 10 en 20; Regeling in- en door- en vervoer niet geharmoniseerde producten 1993 (28 juni 1993, Stcrt. 125), art. 10.1 en 2 ; Regeling keuring en handelsverkeer konijne- en hazevlees 1993 (30 juni 1993, Stcrt. 125), art. 18.1 en 2 en art. 24,1 en 24.3; Regeling in-, door- en vervoer van pluimveeproducten 1993, art. 7.1 en 2; Regeling in- en doorvoer sperma van varkens 1993, art. 12, 13 en vanaf 1993 art. 23; Regeling in- en doorvoer embryo’s van runderen 1993, art. 12 en art. 22; Regeling keuring en handel dierlijke producten 1994, art. 22.4; Regeling aquicultuur, art. 29, 44 en 53.1</t>
+  </si>
+  <si>
+    <t>1979–</t>
+  </si>
+  <si>
+    <t>De maatregelen kunnen zijn: het in afzondering of quarantaine plaatsen, het doden of vernietigen van de dieren of de producten en voorwerpen, of ander maatregelen. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het besluiten tot het niet toelaten van diepgevroren sperma</t>
+  </si>
+  <si>
+    <t>Regeling invoer diepgevroren sperma van runderen, art. 4.1</t>
+  </si>
+  <si>
+    <t>1990–</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de directeur</t>
+  </si>
+  <si>
+    <t>Het verlenen van een ontheffing van het bepaalde in de beschikking.</t>
+  </si>
+  <si>
+    <t>Beschikking vervoer diepgevroren sperma van runderen (28 december 1989, Stcrt. 253) art 7; Beschikking vervoer embryo’s van runderen (9 april 1991, Stcrt. 71) art. 7</t>
+  </si>
+  <si>
+    <t>Het bepalen van de wijze van opslag voor ingevoerde runderembryo’s</t>
+  </si>
+  <si>
+    <t>bepalen</t>
+  </si>
+  <si>
+    <t>Regeling in- en doorvoer embryo’s van runderen, art. 4.4</t>
+  </si>
+  <si>
+    <t>1991–</t>
+  </si>
+  <si>
+    <t>Beschikking, regeling</t>
+  </si>
+  <si>
+    <t>V 5 jaar.</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemmig voor het laten vervaardigen en in voorraad hebben van keurmerken volgens EG-richtlijnen</t>
+  </si>
+  <si>
+    <t>o.a. Regeling keuring en handelsverkeer pluimveevlees 1992, art. 6</t>
+  </si>
+  <si>
+    <t>V 5 jaar na vervallen toestemming</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor vervoer van sperma wat niet voldoet aan de voorschriften van de EG-richtlijn 88/407/EEG</t>
+  </si>
+  <si>
+    <t>Regeling in- en doorvoer diepgevroren sperma van runderen 1992, art. 9</t>
+  </si>
+  <si>
+    <t>1993–</t>
+  </si>
+  <si>
+    <t>Het besluiten tot het doorsturen naar een derde land of het vernietigen van een partij of het in afzondering plaatsen of voor andere doeleinden gebruiken dan menselijke consumptie (vanaf 20 juni 1997)</t>
+  </si>
+  <si>
+    <t>Regeling in-, door- en vervoer van pluimveeproducten 1993, art. 14.1 en 14.3</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van een termijn en een plaats waar runderen afkomstig uit het Verenigd Koninkrijk worden gedood.</t>
+  </si>
+  <si>
+    <t>aanwijzen</t>
+  </si>
+  <si>
+    <t>termijn en plaats</t>
+  </si>
+  <si>
+    <t>Regeling handel levende dieren en levende producten (30 november 1994, Stcrt. 250), art. 3.10 gewijzigd 3 april , Stcrt. 69) art. IV</t>
+  </si>
+  <si>
+    <t>Het besluiten tot maatregelen bij het vermoeden of constateren van de aanwezigheid van verwekkers van ziekten, zoönosen of andere aandoeningen of als de producten afkomstig zijn uit een gebied met een epidemische dierziekte.</t>
+  </si>
+  <si>
+    <t>Regeling handel levende dieren en levende producten, art. 2.32</t>
+  </si>
+  <si>
+    <t>1997–</t>
+  </si>
+  <si>
+    <t>Het afgeven van bewijsstukken voor vee bestemd voor de uitvoer dat voldoet aan de eisen.</t>
+  </si>
+  <si>
+    <t>afgeven</t>
+  </si>
+  <si>
+    <t>Beschikking uitvoer vee (23 juln 1965) art. 2.2</t>
+  </si>
+  <si>
+    <t>Bewijsstuk, cerificaat</t>
+  </si>
+  <si>
+    <t>Het vaststellen van modellen voor aanvraagformulieren en certificaten vereist bij de uitvoer van vee, vlees en op vleesproducten</t>
+  </si>
+  <si>
+    <t>model voor aanvraagformulieren; model voor certificaten</t>
+  </si>
+  <si>
+    <t>Beschikking uitvoer vee 1965 (23 juni 1965 Stcrt. 119) art. 6; Regeling uitvoer vers vlees 1974 en 1985, art. 12.3; Regeling uitvoer vleesproducten 1979, art. 3.2 en 3.4</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de Directeur Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Modelformulier</t>
+  </si>
+  <si>
+    <t>V 5 jaar na wijziging of vervallen model</t>
+  </si>
+  <si>
+    <t>Het stellen van nadere regels voor de identificatie van de bij de slachting van een dier verkregen lossen delen van het dier.</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>regels</t>
+  </si>
+  <si>
+    <t>Exportkeuringsregulatief (17 juni 1965, Stcrt. 114, gewijzigd 20 april 1967, Stcrt. 78), art. 18a</t>
+  </si>
+  <si>
+    <t>1965–1992</t>
+  </si>
+  <si>
+    <t>V 10 jaar</t>
+  </si>
+  <si>
+    <t>Het stellen van nadere regels waarmee, in verband met eisen van het invoerland, kan worden afgeweken van de regels in de beschikking Exportkeuringsregulatief 1965.</t>
+  </si>
+  <si>
+    <t>Exportkeuringsregulatief (17 juni 1965, Stcrt. 114, gewijzigd 20 april 1967 Stcrt. 78), art. 19</t>
+  </si>
+  <si>
+    <t>Het bepalen dat in bepaalde gevallen verpakt vlees of slachtafval mag worden voorzien van een stempel op de verpakking zelf</t>
+  </si>
+  <si>
+    <t>Merkenbeschikking vlees en vleesproducten (14 juni 1965, Stcrt. 114), art. 2.7</t>
+  </si>
+  <si>
+    <t>Het verlenen van ontheffing van de bepalingen van de Regeling uitvoer vee 1974 en van de Regeling uitvoer vleesproducten 1979 en 1992.</t>
+  </si>
+  <si>
+    <t>Regeling uitvoer vee 1974, art. 13; Regeling uitvoer vleesprodukcten 1979, art. 8 , Regeling 1992, art. 11 en 14.</t>
+  </si>
+  <si>
+    <t>1974–</t>
+  </si>
+  <si>
+    <t>Het vaststellen van een model voor een verklaring betreffende erkenning door de directeur van de RVV van een bedrijf voor de bereiding van vleesproducten bestemd voor de export.</t>
+  </si>
+  <si>
+    <t>model voor een verklaring</t>
+  </si>
+  <si>
+    <t>Regeling uitvoer vleesproducten 1979, art. 7.1; regeling 1992, art. 9.1</t>
+  </si>
+  <si>
+    <t>Het gaat hier om een verklaring van de aanvrager van een erkenning. De formele handeling ligt bij de Directeur Veterinaire Dienst\</t>
+  </si>
+  <si>
+    <t>Het verlenen van een vergunning in noodgevallen voor de uitvoer van dieren</t>
+  </si>
+  <si>
+    <t>Regeling uitvoer vee 1974, art. 3.5</t>
+  </si>
+  <si>
+    <t>Het stellen van regels voor het door een erkend bedrijf, of ondernemers in een erkend gebied bij te houden register betreffende de gezondheidstoestand van de vis.</t>
+  </si>
+  <si>
+    <t>Regeling aquicultuur, art. 6.3</t>
+  </si>
+  <si>
+    <t>Een erkend gebied is een gebied met een bepaalde gezondheidsstatus. Zo’n gebied wordt op voordracht van de minister door de Europese Commissie erkend (zie de handelingen betreffende de EG). Om deze status te kunnen waarborgen moeten partijen aquicultures voldoen aan bepaalde voorwarden. Bovendien moeten de ondernemers in zo’n gebied zich onder toezicht stellen van de RVV. De formele handeling ligt bij de directeur.</t>
+  </si>
+  <si>
+    <t>Een erkend gebied is een gebied met een bepaalde gezondheidsstatus. Zo’n gebied wordt op voordracht van de minister door de Europese Commissie erkend (zie de handelingen betreffende de EG). Om deze status te kunnen waarborgen moeten partijen aquicultures voldoen aan bepaalde voorwarden. Bovendien moeten de ondernemers in zo’n gebied zich onder toezicht stellen van de RVV. De formele handeling ligt bij de directeur</t>
+  </si>
+  <si>
+    <t>Het schorsen of intrekken van de erkenning van een bedrijf als erkend bedrijf, of van een gebied als erkend gebied.</t>
+  </si>
+  <si>
+    <t>schorsen; intrekken</t>
+  </si>
+  <si>
+    <t>erkenning</t>
+  </si>
+  <si>
+    <t>Regeling aquicultuur, art. 7</t>
+  </si>
+  <si>
+    <t>Het opheffen van de schorsing van de erkenning van een bedrijf als erkend bedrijf, of van een gebied als erkend gebied.</t>
+  </si>
+  <si>
+    <t>opheffen</t>
+  </si>
+  <si>
+    <t>schorsing</t>
+  </si>
+  <si>
+    <t>Regeling aquicultuur, art. 9</t>
+  </si>
+  <si>
+    <t>Het verlenen van vrijstelling van het verbod op uitvoer van vee en pluimvee voor zover het niet gaat om runderen, varkens, schapen, geiten en eenhoevige dieren, en voorzover het gaat om de uitvoer naar derde landen of naar een staat die partij is in het EER-verdrag.</t>
+  </si>
+  <si>
+    <t>vrijstelling</t>
+  </si>
+  <si>
+    <t>Regeling handel levende dieren en levende produkten (30 november 1994, Stcrt. 250), art. 2.1</t>
+  </si>
+  <si>
+    <t>Het aanwijzen of intrekken van de aanwijzing van quarantaireruimten, slachtplaatsen voor ingevoerd eenhoevig vee en paarden en van vleeswarenfabrieken en import- slachtveemarkten.</t>
+  </si>
+  <si>
+    <t>aanwijzen; intrekken van de aanwijzing</t>
+  </si>
+  <si>
+    <t>quarantaireruimte; slachtplaats; vleeswarenfabriek</t>
+  </si>
+  <si>
+    <t>Beschikking voor invoer eenhoevige dieren, art. 3.1 en 4.2; Regeling invoer slachtdieren 1970, art. 5.1; Regeling invoer slachtpaarden 1971, art. 2.d III; Regeling invoer eenhoevige dieren andere dan slachtpaarden 1977, art. 3.1; Regeling invoer slachtschapen en -⁠geiten 1982, art. 5</t>
+  </si>
+  <si>
+    <t>Beschikking vergoeding voor het gebruik van quarantainestallen (4 juli 1963, Stcrt. 128); Beschikking aanwijzing quarantaineruimten en slachtplaatsen (28 januari 1965, Stcrt. 20); Regeling gebruik Rijks quarantainestation te Hoek van Holland (6 maart 1975, Stcrt. 20); Regeling aanwijzing quarantaine-inrichtingen en slachthuizen eenhoevige dieren 1987 (11 juni 1987, St. 112)</t>
+  </si>
+  <si>
+    <t>V 5 jaar na vervallen</t>
+  </si>
+  <si>
+    <t>Het toelaten van een kalvermesterij</t>
+  </si>
+  <si>
+    <t>kalvermesterij</t>
+  </si>
+  <si>
+    <t>Beschikking invoer fok- en gebruiksdieren (23 juni 1965, Stcrt. 119; 23 december 1969, Stcrt. 252), art. 7 later art. 8; Regeling invoer vee 1992 (23 juli 1992, Stcrt. 143), art. 14</t>
+  </si>
+  <si>
+    <t>Het bijschrijven, intrekken of doorhalen van de registratie van een handelaar van dieren en dierproducten.</t>
+  </si>
+  <si>
+    <t>bijschrijven; intrekken; doorhalen</t>
+  </si>
+  <si>
+    <t>registratie</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Regeling uitvoer vee 1974, art. 3a; Beschikking vervoer pluimvee en broedeieren 1992, art. 3b; Beschikking vervoer sperma van varkens (18 maart 1992, Stcrt. 59), art. 3a; Regeling invoer vee 1992 (23 juli 1992, Stcrt. 143) art. 21; Regeling in-, door- en vervoer pluimvee, duiven en broedeieren 1992 (14 september 1992, Stcrt. 177), art. 27; Regeling in- en doorvoor diepgevroren sperma van runderen 1992 (27 oktober 1992, Stcrt. 210), art. 22; Regeling keuring en handelsverkeer pluimveevlees 1992, art. 13.1 en 3; Regeling in- en doorvoer van sperma van varkens 1993, art. 24.1; Regeling in- en doorvoer embryo’s van runderen 1993, art. 23.1 en 23.3; Regeling in- en doorvoer levende dieren en producten 1993(14 juni 1993, Stcrt. 114),art. 31.1 en 31.3; Regeling vervoer levende dieren en producten 1993 (14 juni 1993, Stcrt. 114), art. 4.1 en 4.3; Regeling in- door en vervoer niet-geharmoniseerde producten 1993 (28 juni 1993, Stcrt. 125), art. 7.1 en 7.3; Regeling keuring en handelsverkeer konijne- en hazevlees 1993 (30 juni 1993, Stcrt. 125)art. 15.1 wn 3; Regeling aquicultuur, art. 63.1 en 3.</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Het verlenen of intrekken van een erkenning aan een embryoteam.</t>
+  </si>
+  <si>
+    <t>Beschikking vervoer embryo’s van runderen (9 april 1991, Stcrt. 71) art. 4</t>
+  </si>
+  <si>
+    <t>Het afgeven van een verklaring betreffende de toelating van een kalvermesterij voor wie ingevoerde fok- en gebruikskalveren bestemd zijn.</t>
+  </si>
+  <si>
+    <t>verklaring</t>
+  </si>
+  <si>
+    <t>Regeling invoer vee 1992 (23 juli 1992, Stcrt. 143) art. 10.1c</t>
+  </si>
+  <si>
+    <t>Verklaring</t>
+  </si>
+  <si>
+    <t>Het doorhalen of schrappen van de inschrijving van een handelaar in het register.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doorhalen; schrappen</t>
+  </si>
+  <si>
+    <t>Regeling in- en doorvoer vleesproducten 1985 (Stcrt. 53, gewijzigd 23 juli 1992, Stcrt. 143), art. 6c.2; Regeling in-, door- en vervoer van pluimveeproducten 1993, art. 5.2</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van een andere instantie voor de registratie van de handelaren.</t>
+  </si>
+  <si>
+    <t>instantie</t>
+  </si>
+  <si>
+    <t>Regeling uitvoer vee 1974, art. 3a; Regeling keuring en handelsverkeer pluimveevlees 1992, art. 13.1; Beschikking vervoer sperma van varkens (18 maart 1992 Stcrt. 59), art. 3a; Regeling invoer vee 1992 (23 juli 1992, Stcrt. 143), art. 27; Regeling doorvoer vee 1992 (23 juli 1992, Stcrt. 143), art. 21; Regeling in-, door- en vervoer pluimvee, duiven en broedeieren 1992 (14 september 1992, Stcrt. 177), art. 27; Regeling in- en doorvoer diepgevroren sperma van runderen 1992 (27 oktober 1992, Stcrt. 210), art. 22; Regeling in- een doorvoer van sperma van varkens 1993, art 24.1; Regeling in- en doorvoer embryo’s van runderen 1993, art. 23.1; Regeling in- en doorvoer van levende dieren en producten 1993 (14 juni 1993, Stcrt. 114), art. 4.1; Regeling in-, door- en vervoer niet geharmoniseerde producten 1993 (28 juni 1993, Stcrt. 125), art. 7.1; Regeling keuring en handelsverkeer konijne- en hazevlees 1993 (30 juni 1993, Stcrt. 125), art. 15.1; Regeling aquicultuur, art. 61.1</t>
+  </si>
+  <si>
+    <t>Het verlenen of intrekken van een erkenning van een slachthuis, uitsnijderij of werkplaats, koel- of vrieshuis, een inrichting voor de productie van broedeieren.</t>
+  </si>
+  <si>
+    <t>Beschikking inrichtingseisen export-slachthuizen (17 juni 1965, Stcrt. 114), art. 10; Beschikking vleesopslag- en vervoer (17 juni 1965, Stcrt. 114), art. 3.2; Regeling keuring en handelsverkeer pluimveevlees 1992, art. 27.1 en 3 (5), art. 29.1; Regeling vervoer pluimvee en broedeieren 1992, art.. 4; Regeling keuring en handelsverkeer konijne- en hazevlees 1993 (30 juni 1993, Stcrt. 125), art. 31,1 en 5</t>
+  </si>
+  <si>
+    <t>Het nemen van maatregelen ter bestrijding bij of tijdens een opgetreden besmettelijke dierziekte.</t>
+  </si>
+  <si>
+    <t>nemen</t>
+  </si>
+  <si>
+    <t>maatregel</t>
+  </si>
+  <si>
+    <t>Veewet, art. 19; Gezondheids- en welzijnswet voor dieren , art. 21.3</t>
+  </si>
+  <si>
+    <t>Deze maatregelen kunnen zijn:
+het afzonderen van zieke en verdachte dieren
+het opstallen of ophokken van zieke en verdachte dieren
+het plaatsen van waarschuwingsborden
+het kentekenen van besmet verklaarde of van besmetting verdachte gebouwen en terreinen,
+het merken van zieke, verdachte en herstelde dieren
+het onschadelijk maken van gedode, gestorven, zieke en verdachte dieren en van besmette of van besmetting verdachte producten en voorwerpen,
+het reinigen en ontsmetten van gebouwen, terreinen, bewaardplaatsen van mest en van voorwerpen,
+het vastleggen en opsluiten van dieren,
+het behandelen van dieren volgens de aanwijzingen van de minister.
+Het districtshoofd doet van de maatregelen mededeling aan de burgemeester. Voor bijen kunnen soort kunnen soortgelijke maatregelen worden getroffen.
+De Inspecteur-districtshoofd van de Veterinaire Dienst heeft volgens art. 96 van de Veewet en art. 106.1 van de Gezondheids- en welzijnswet voor dieren de bevoegdheid maatregelen te nemen tegen de verspreiding van smetstof, op kosten van de overtreders in acute gevallen. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Beschikking, bevelschrift, regeling, verbod</t>
+  </si>
+  <si>
+    <t>B (verslaglegging en evaluatie van crises); V 12 jaar</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming of bevelen dat ziek of verdacht vee het bedrijf waar het wordt gehouden mag verlaten.</t>
+  </si>
+  <si>
+    <t>Veewet art. 37</t>
+  </si>
+  <si>
+    <t>1945–1992</t>
+  </si>
+  <si>
+    <t>Het vaststellen van maatregelen betreffende het verbieden van het vervoer van dieren, producten en voorwerpen uit, naar en binnen (bepaalde gedeelten van) Nederland.</t>
+  </si>
+  <si>
+    <t>Veewet, art. 38.1; Gezondheids- en welzijnswet voor dieren, art. 30.1</t>
+  </si>
+  <si>
+    <t>Het betreft hier maatregelen die algemene voorwaarden bevatten betreffende de uitvaardiging van vervoersverboden die langer geldig zullen zijn dan de vervoersverboden in verband met de uitbraak van een besmettelijke dierziekte.</t>
+  </si>
+  <si>
+    <t>Regeling vervoersverbod bijen Zuid-Limburg 1995 III ( 13 december 1995, Stcrt. 243 ingetrokken 9 juli 1996, Stcrt. 130); Regeling betreffende maatregelen ter voorkoming van overbrenging besmetting (12 maart 1996, Stcrt. 61); Regeling betreffende het bijeenbrengen van dieren (12 maart 1996, Stcrt. 61); Regeling uitvoerverbod varkens (10 februari 1997, Stcrt. 28); Regeling uitvoerverbod varkens en sperma van varkens (21 maart 1997, Stcrt. 58; gewijzigd 20 maart 1998, Stcrt. 58); Regeling compartimentering varkens en vervoermiddelen voor varkens (15 september 1997, Stcrt. 177); Regeling vervoersbeperkingen varkens (22 september 1997, Stcrt. 182); Regelingen vervoersverboden in verband met de uitbraak varkenspest, 1997-1998; Regeling aanvullend regime kerngebied varkenspest 1998 (14 januari 1998, Stcrt. 9); Regeling aanvullend regime kerngebied varkenspest 1998 (14 januari 1998, Stcrt. 9); Regeling inzake hygiënevoorschriften besmettelijke dierziekten (23 juni 1998, Stcrt. 117); Herbevolkingsregeling klassieke varkenspest 1997 (17 november 1997, Stcrt. 221).</t>
+  </si>
+  <si>
+    <t>Het geven van voorschriften aan de burgemeester voor het vastleggen, opsluiten, of in waarneming houden van een hond of kat, die een mens heeft gebeten en is aangetast door of verdacht van hondsdolheid.</t>
+  </si>
+  <si>
+    <t>Veevwet, art. 56</t>
+  </si>
+  <si>
+    <t>Voorschriften</t>
+  </si>
+  <si>
+    <t>Het stellen van voorwaarden waarop voor wetenschappelijke en onderwijsinrichtingen, waarop de Veewet niet van toepassing is verklaard, een ontheffing mogelijk is van het verbod ziek of verdacht vee, en dolle of van hondsdolheid verdachte honden en katten buiten het terrein te brengen.</t>
+  </si>
+  <si>
+    <t>voorwaarden</t>
+  </si>
+  <si>
+    <t>Besluit voorschriften ter voorkoming van verspreiding van smetstof door wetenschappelijke inrichtingen (25 april 1922, Stb. 218)</t>
+  </si>
+  <si>
+    <t>Het beslissen in bijzondere gevallen over de wijze van onschadelijk maken of ontsmetten en de middelen die daarbij moeten worden gebruikt.</t>
+  </si>
+  <si>
+    <t>Besluit voorschriften betreffende reiniging en ontsmetting en onschadelijk maken van ziek en verdacht vee, dat afgemaakt of gestorven is (23 februari 1922, Stb 83, gewijzigd 23 september 1948 (Stb. 429), art. 13</t>
+  </si>
+  <si>
+    <t>Een besluit wordt in overleg genomen met de burgemeester. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Het vaststellen van het tijdstip waarop vee niet meer verdacht is van besmetting.</t>
+  </si>
+  <si>
+    <t>tijdstip</t>
+  </si>
+  <si>
+    <t>Besluit termijn voor gevaar van besmetting bij verschillende veeziekten (25 april 1922, Stb. 220, gewijzigd 15 november 1984), art. 3 en 4; Besluit maatregelen in verband met de vogelcholera (25 september 1974, Stb. 615), art. 3, Besluit vogelpest, art. 3</t>
+  </si>
+  <si>
+    <t>De verklaring wordt door de burgemeester aan de belanghebbende kosteloos uitgereikt. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst.</t>
+  </si>
+  <si>
+    <t>Schriftelijke verklaring</t>
+  </si>
+  <si>
+    <t>Het vaststellen van het tijdstip waarop de termijn dat vee verdcht wordt van besmetting begint te lopen.</t>
+  </si>
+  <si>
+    <t>Besluit Termijn voor gevaar van besmetting bij verschillende veeziekten (25 april 1922, Stb. 220, gewijzigd 15 november 1984), art. 4</t>
+  </si>
+  <si>
+    <t>De verklaring wordt door de burgemeester aan de belanghebbende kosteloos uitgereikt. De termijn is per besmettelijke veeziekte verschillend. De formele handeling ligt bij de Inspecteur-districtshoofd Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het geven van voorschriften aan de burgemeester voor het opsluiten en in bewaring geven van honden en katten.</t>
+  </si>
+  <si>
+    <t>Besluit voorlopige aatregelen te nemen door de burgmeester (23 februari 1922, Stb. 80) art. 2.3</t>
+  </si>
+  <si>
+    <t>Het verbieden of voorwaardelijk toestaan van het vervoer van bijen naar door hem aan te wijzen delen van het land.</t>
+  </si>
+  <si>
+    <t>verbieden; toestaan</t>
+  </si>
+  <si>
+    <t>Bijenwet, art. 2</t>
+  </si>
+  <si>
+    <t>1947–</t>
+  </si>
+  <si>
+    <t>Vervoersbeschikking bijen 1968 (Stcrt. 253), 1972 (Stcrt. 85); Beschikking vervoersverbod bijen Waddeneilanden (10 februari 1984, Stcrt. 32); Regeling vervoersverbod bijen Zuid-Limburg 1989 (Stcrt. 222); Regeling vervoersverbod bijen Zuid-Limburg 1990 (27 maart 1990, Stcrt. 62).</t>
+  </si>
+  <si>
+    <t>Het geven van aanwijzingen voor de methode en uitvoering van de behandeling van schapendrift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aanwijzing</t>
+  </si>
+  <si>
+    <t>Besluit aanwijzing van een maatregel tot bestrijding van de schapendrif (8 februari 1947, Stb. H 48), art. 1</t>
+  </si>
+  <si>
+    <t>1947–1992</t>
+  </si>
+  <si>
+    <t>Besluit of beschikking</t>
+  </si>
+  <si>
+    <t>Het afgeven van een verklaring aan belanghebbende dat de verdachte toestand van besmetting met pseudo-vogelpest is beëindigd</t>
+  </si>
+  <si>
+    <t>Besluit maatregelen in verband met de pseudo-vogelpest (28 juli 1950, Stb. K 321), art. 6</t>
+  </si>
+  <si>
+    <t>1950–1996</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij deIinspecteur-districtshoofd Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het vaststellen van een formulier voor de certificering van honden en katten in verband met de bestrijding van hondsdolheid.</t>
+  </si>
+  <si>
+    <t>formulier</t>
+  </si>
+  <si>
+    <t>Beschikking in- en doorvoer honden en katten (25 april 1962, Stcrt. 82, laatste wijziging van 2 oktober 1967, Stcrt. 193), art. 1.8</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de inspecteur-districtshoofd Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Formulier</t>
+  </si>
+  <si>
+    <t>V 5 jaar na vervallen vaststelling</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van antibiotica die ter bestrijding van de vogelcholera kunnen worden toegepast.</t>
+  </si>
+  <si>
+    <t>antibiotica</t>
+  </si>
+  <si>
+    <t>Besluit maatregelen in verband met de vogelcholera, art. 5</t>
+  </si>
+  <si>
+    <t>Het nemen van maatregelen ter voorkoming van de overbrenging van besmetting.</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art. 17.1</t>
+  </si>
+  <si>
+    <t>Als het gaat om een besmettelijke dierziekte die in overeenstemming met de minister van Volksgezondheid is aangewezen, dan worden de maatregelen genomen in overeenstemming met de minister van Volksgezondheid.</t>
+  </si>
+  <si>
+    <t>Regeling betreffende maatregelen ter voorkoming van overbrenging besmetting ( 12 maart 1996, Stcrt. 61); Regeling verbod gebruik mengsperma (10 april 1997, Stcrt. 70); Regeling fokverbod varkens II (24 juni 1997 Stcrt. 118); Regeling aanvullend regime kerngebied varkenspest 1998 (14 januari 1998, Stcrt. 9); Regeling inzake hygiënevoorschriften besmettelijke dierziekten (23 juni 1998, Stcrt. 117); Herbevolkingsregeling klassieke varkenspest 1997 (17 november 1997, Stcrt. 221).</t>
+  </si>
+  <si>
+    <t>Het vaststellen van het tijdstip waarop de verdenking is ontstaan dat een dier aan een besmettelijke ziekte lijdt.</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art.24.1</t>
+  </si>
+  <si>
+    <t>Het tijdstip van besmetting met de ziekte is van belang voor de toekenning van een schadevergoeding aan de houder van het dier.</t>
+  </si>
+  <si>
+    <t>Kennisgeving aan de houder van het betreffende dier (art. 24.2)</t>
+  </si>
+  <si>
+    <t>Het geven van toestemming of bevelen aan de houder dat besmette of verdachte dieren het bedrijf mogen verlaten</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren art. 29</t>
+  </si>
+  <si>
+    <t>Herbevolkingsregeling klassieke varkenspest 1997</t>
+  </si>
+  <si>
+    <t>Het verbieden van het vervoer van dieren binnen een straal van 10 kilometer of minder rond een gebouw of terrein dat wordt verdacht van besmetting of besmet is verklaard.</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art. 30..2</t>
+  </si>
+  <si>
+    <t>Het bepalen dat het vervoersverbod binnen een gebied ook geldt voor gezonde dieren.</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art. 30.4</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor het verrichten van een handeling aan krachtens de wet geplaatste of aangebracht waarschuwingsborden en kentekenen.</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art. 104.3</t>
+  </si>
+  <si>
+    <t>Het bepalen dat dieren op grond van art. 2.b en c verdacht blijven voor een andere dan daar genoemde periode.</t>
+  </si>
+  <si>
+    <t>Besluit verdachte dieren (15 juli 1994, in werking 13 april 1996 bij Kb van 18 december 1995, Stb. 1996, 217) art. 5.3</t>
+  </si>
+  <si>
+    <t>Het vaststellen van een formulier voor het aanvragen van een verklaring dat een voertuig is geregistreerd als vervoermiddel uitsluitend bestemd voor het vervoer van varkens.</t>
+  </si>
+  <si>
+    <t>Regeling compartimentering varkens en vervoermiddelen voor varkens (15 september 1997, Stcrt. 177) art. 2.2</t>
+  </si>
+  <si>
+    <t>De betreffende verklaring moet worden aangevraagd bij het Regi⁠stratiebureau Varkensvervoer te Deventer. De formele handeling ligt bij de Directeur Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Aanvraagformulier</t>
+  </si>
+  <si>
+    <t>V 3 jaar</t>
+  </si>
+  <si>
+    <t>Het verlenen van een ontheffing op het verbod op vervoer van varkens buiten de compartimenten.</t>
+  </si>
+  <si>
+    <t>Regeling comparrtimentering varkens en vervoermiddelen voor varkens (15 september 1997, Stcrt. 177), art. 4; Regeling vervoersbeperkingen varkens (22 sept. 1997. Stcrt. 182), art. 6</t>
+  </si>
+  <si>
+    <t>Het afgeven van een verklaring dat varkens met een negatief serologisch resultaat zijn onderzocht op de mogelijke aanwezigheid van klassieke varkenspest.</t>
+  </si>
+  <si>
+    <t>Herbevolkingsregeling klassieke varkenspest 1997 (17 november 1997, Stcrt. 221), art. 2.1</t>
+  </si>
+  <si>
+    <t>Het vaststellen van een register van, door degene die daarvoor vergoedingen verschuldigd is goedgekeurde, opgaven van de door de rijkskeurmeester verrichtte keuringen.</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>Tariefbeschikking ( 14 juni 1965, Stcrt. 114) art. 7</t>
+  </si>
+  <si>
+    <t>Het verlenen van een ontheffing van het bepaalde ten aanzien van naleving van betaling van tarieven/ tariefverplichtingen</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Regeling zekerheidsstelling en betaling van RVV 1993 (27 mei 1993, Stcrt. 99), art. 8</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van een beëdigd deskundige voor het vaststellen van de waarde van dieren, raten, bijenvolken en producten die zullen worden gedood of onschadelijk gemaakt (art. 22)</t>
+  </si>
+  <si>
+    <t>beëdigd deskundige</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welzijnswet voor dieren, art. 88.1</t>
+  </si>
+  <si>
+    <t>De kosten van de deskundigen worden vanaf 1998 betaald uit de kas van het Diergezondheidsfonds (Wet herstructureren varkenshouderij, 6 april 1998, Stb. 236) art. 37</t>
+  </si>
+  <si>
+    <t>Aanwijzing</t>
+  </si>
+  <si>
+    <t>V 12 jaar na vervallen</t>
+  </si>
+  <si>
+    <t>Het toelaten van een merk ter identificatie en registratie van varkens.</t>
+  </si>
+  <si>
+    <t>merk</t>
+  </si>
+  <si>
+    <t>Regeling identificatie en registratie varkens 1979 (13 februari 1979, Stcrt. 35, gewijzigd 11 december 1985 Stcrt. 244), art. 2.2</t>
+  </si>
+  <si>
+    <t>1979–1995</t>
+  </si>
+  <si>
+    <t>Het geven van toestemming aan een varkenshouder de varkens die van zijn bedrijf worden afgevoerd te doen vergezellen van een ander formulier dan het door de STULM beschikbaar gestelde.</t>
+  </si>
+  <si>
+    <t>Regeling identificatie en reigstratie van varkens 1979 (13 februari 1979, Stcrt. 35, gewijzigd 11 december 1985, Stcrt. 244), art. 4.3</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming aan een biggenproducent een ander dan het door de STULM verstrekt identificatiemerk aan te brengen op de varkens die op zijn bedrijf zijn geboren.</t>
+  </si>
+  <si>
+    <t>1979–1996</t>
+  </si>
+  <si>
+    <t>De toestemming wordt verleend onder voorwaarden. Met ingang van 1 januari 1996 kwam deze handeling te vervallen, bij de wijziging van de regeling van 11 december 1995. Het was niet meer mogelijk andere merken dan het officiële merk te gebruiken. De formele handeling ligt bij de Directeur Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor het vernietigen, beschadigen of onleesbaar maken van volgens de wet aangebrachte merken.</t>
+  </si>
+  <si>
+    <t>Gezondheids- en welszijnswet voor dieren, art. 104.2</t>
+  </si>
+  <si>
+    <t>Het afgeven of intrekken van een verklaring dat de daarin genoemde persoon bevoegd is tot het uitoefenen van inentingen van hoenders en kalkoenen tegen pokken en difterie.</t>
+  </si>
+  <si>
+    <t>afgeven; intrekken</t>
+  </si>
+  <si>
+    <t>Besluit pluimveeselecteurs bij de uitoefening van de diergeneestkunst ter bestrijding van pokken en difterie bij hoenders (16 augustus 1956, Stcrt. 165), art. 2 en 3</t>
+  </si>
+  <si>
+    <t>1956–1992</t>
+  </si>
+  <si>
+    <t>Het viseren van de akte van bevoegdheid van een dierenarts in diens district.</t>
+  </si>
+  <si>
+    <t>viseren</t>
+  </si>
+  <si>
+    <t>akte van bevoegdheid</t>
+  </si>
+  <si>
+    <t>Wet op de uitoefening van de diergeneeskunst, art. 8.1</t>
+  </si>
+  <si>
+    <t>Visum</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van een instituut waar studenten worden onderricht in het verrichten van onderzoek van hoenders op salmonella pullorum door middel van de bloeddruppelmethode.</t>
+  </si>
+  <si>
+    <t>instituut</t>
+  </si>
+  <si>
+    <t>Beschikking van 8 september 1959</t>
+  </si>
+  <si>
+    <t>De aanwijzing betreft de Gezondheidsdienst voor Pluimvee te Soesterberg. De formele handeling ligt bij de Directeur Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>B 5</t>
+  </si>
+  <si>
+    <t>Het in Nederland toelaten van personen of groepen personen die een buitenlandse bevoegdheid hebben tot de uitoefening van de diergeneeskunde.</t>
+  </si>
+  <si>
+    <t>persoon</t>
+  </si>
+  <si>
+    <t>Wet op de uitoefening van de diergeneeskunde 1990, art. 3.1; Regeling toelating onderdanen EEG-lidstaten tot de uitoefening van de diergeneeskunde (6 november 1991, Stcrt. 220)</t>
+  </si>
+  <si>
+    <t>Het bijhouden van een register</t>
+  </si>
+  <si>
+    <t>voeren</t>
+  </si>
+  <si>
+    <t>Regeling register Wet op de uitoefening van de diergeneeskunde 1990 (17 december 1991, Stcrt. 248)</t>
+  </si>
+  <si>
+    <t>V 75 jaar na geboorte</t>
+  </si>
+  <si>
+    <t>Het afgeven van een verklaring op verzoek van de belanghebbende betreffende het tijdvak waarin onder de verantwoordelijkheid en begeleiding van een dierenarts de toegestane diergeneeskundige handelingen worden verricht.</t>
+  </si>
+  <si>
+    <t>Besluiten studentenhulp bij de uitoefening van de diergeneeskunst ter bestrijding van bepaalde dierziekten (16 augustus 1956, Stcrt. 165; 23 augustus 1957, Stcrt. 167, 5 oktober 1957, Stcrt. 200, 10mdecember 1962, Stcrt. 378); Besluit pluimveeselecteurs bij de uitoefening van de diergeneeskunst ter bestrijding van pokken en difterie bij hoenders (16 augustus 1956, Stcrt. 165)</t>
+  </si>
+  <si>
+    <t>Het bepalen aan wie de tuberculine mag worden afgeleverd en op welke wijze de aflevering moet geschieden.</t>
+  </si>
+  <si>
+    <t>Tuberculinewet, art. 3</t>
+  </si>
+  <si>
+    <t>1951–1985</t>
+  </si>
+  <si>
+    <t>Het stellen van voorwaarden voor het verlenen door de burgemeester van een vergunning voor het enten van vee met levende entstoffen.</t>
+  </si>
+  <si>
+    <t>Kb van 23 februrari 1922, art. 1</t>
+  </si>
+  <si>
+    <t>1945–1963</t>
+  </si>
+  <si>
+    <t>Het verlenen van een vergunning voor het enten van vee en vogels met levende entstoffen tegen ziekten waarop art. 11 van de Veewet van toepassing is.</t>
+  </si>
+  <si>
+    <t>Besluit entstoffen voor dieren (12 juni 1963, Stb. 287) art. 2</t>
+  </si>
+  <si>
+    <t>1963–1996</t>
+  </si>
+  <si>
+    <t>Het toelaten van een levende entstof voor het inenten van vee en vogels tegen pseudo-vogelpest.</t>
+  </si>
+  <si>
+    <t>entstof</t>
+  </si>
+  <si>
+    <t>Besluit entstoffen voor dieren (12 juni 1963, Stb. 287) art. 2.2 en 4,3.2 en art. 6</t>
+  </si>
+  <si>
+    <t>Het verlenen van een vergunning voor het enten van varkens met dode of geïnactiveerde entstoffen tegen mond- en klauwzeer</t>
+  </si>
+  <si>
+    <t>Besluit entstoffen voor dieren (12 juni 1963, Stb. 287) art. 3</t>
+  </si>
+  <si>
+    <t>Vergunning, o.a. door middel van beschikkingen: Beschikking voorschriften ten aanzien van het inenten van varkens (13 september 1963, Stcrt. 178); Beschikking vrijwillige inenting varkens tegen mond- en klauwzeer (18 oktober 1966, Stcrt. 203)</t>
+  </si>
+  <si>
+    <t>Het in bijzondere gevallen gelijkstellen van entingen verricht buiten de daarvoor bestemde periode met een enting, verricht binen de daarvoor bestemde periode.</t>
+  </si>
+  <si>
+    <t>gelijkstellen</t>
+  </si>
+  <si>
+    <t>enting</t>
+  </si>
+  <si>
+    <t>Vervoersbeschikking runderen 1968 (27 oktober 1967, stct. 211, 20 januari 1970, Stcrt. 22) art. 7</t>
+  </si>
+  <si>
+    <t>1967–1992</t>
+  </si>
+  <si>
+    <t>Het in bijzondere gevallen ontheffing verlenen van de verplichting tot enting van runderen.</t>
+  </si>
+  <si>
+    <t>Vervoersbeschikking runderen 1968 (27 oktober 1967, Stcrt. 211; 20 januari 1970, Stcrt. 22) art. 8</t>
+  </si>
+  <si>
+    <t>Het in bijzonder gevallen verlenen van ontheffing van de verboden in art. 2-7a van de regeling.</t>
+  </si>
+  <si>
+    <t>Entingsregeling runderen mond- en klauwzeer 1987 (27 oktober 1987, Stcrt. 210, gewijzigd 19 februari 1991, Stcrt. 36)</t>
+  </si>
+  <si>
+    <t>1987–</t>
+  </si>
+  <si>
+    <t>Het bepalen van een vaccin tegen de hondenzieke en een vaccin tegen de kattenziekte.</t>
+  </si>
+  <si>
+    <t>Honden- en kattenbesluit 1981, art. 4.1</t>
+  </si>
+  <si>
+    <t>1981–</t>
+  </si>
+  <si>
+    <t>Regeling houdende aanwijzing vaccins honde- en kattezieke (23 november 1984, Stcrt. 233)</t>
+  </si>
+  <si>
+    <t>Het afgeven en intrekken van een bewijsstuk (certificaat) met verklaring van geschiktheid voor vervoer van dieren.</t>
+  </si>
+  <si>
+    <t>Wet dierenvervoer, art. 3, Gezondheids- en welzijnswet voor dieren, art. 59.1</t>
+  </si>
+  <si>
+    <t>Certificaat</t>
+  </si>
+  <si>
+    <t>Het bevelen van maatregelen voor het verschaffen van voer, drinken, diergeneeskundige verzorging en rust</t>
+  </si>
+  <si>
+    <t>bevelen</t>
+  </si>
+  <si>
+    <t>Wet dierenvervoer, art. 9</t>
+  </si>
+  <si>
+    <t>Het vaststellen van de plaats waarop de dierenvervoerplaat op een voertuig moet worden bevestigd.</t>
+  </si>
+  <si>
+    <t>Regeling wegvervoer vee en pluimvee 1980, art. 3</t>
+  </si>
+  <si>
+    <t>1980–1992</t>
+  </si>
+  <si>
+    <t>Het nemen van maatregelen op kosten van de vervoerder wanneer deze in strijd met de het besluit heeft gehandeld.</t>
+  </si>
+  <si>
+    <t>Besluit dierenvervoer 1994, art. 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De maatregelen kunnen worden genomen als het welzijn van de dieren dit noodzakelijk maakt. De maatregelen zijn:
+het stopzetten van de reis
+het terugzenden van de dieren
+het onderbrengen van de dieren
+het slachten van de dieren Brief
+</t>
+  </si>
+  <si>
+    <t>Brief, beschikking, factuur</t>
+  </si>
+  <si>
+    <t>V 7 jaar</t>
+  </si>
+  <si>
+    <t>Het besluiten betreffende de toegestande duur van het gebruik van kooien die niet ouder zijn dan 10 jaar.</t>
+  </si>
+  <si>
+    <t>Regeling tot uitvoering van art. 2 vierde lid van de Wet houdende vaststelling van minimumeisen voor het houden van legkippen, art. 4</t>
+  </si>
+  <si>
+    <t>1984–1992</t>
+  </si>
+  <si>
+    <t>Het verlenen van ontheffing op de voorschriften voor verdoving van de dieren ten behoeve van het ritueel slachten</t>
+  </si>
+  <si>
+    <t>Regeling keuring en handelsverkeer pluimveevlees 1992, art. 41.2</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor het in afwijking van de regels in de EG richtlijn 71/118/EEG slachten van pluimvee</t>
+  </si>
+  <si>
+    <t>Regeling keuring en handelsverkeer pluimveevlees 1992, art. 5.2</t>
+  </si>
+  <si>
+    <t>Het geven van aanwijzingen betreffende het onbedwelmd slachten van dieren.</t>
+  </si>
+  <si>
+    <t>Besluit ritueel slachten (6 november 1996, Stcrt. 573)</t>
+  </si>
+  <si>
+    <t>De formele handeling ligt bij de Keuringsdierenarts of keurmeester</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van ambtenaren belast met het toezicht op de naleving van de wet en de daarop berustende bepalingen en belast met de opsporing van feiten die strafbaar zijn ingevolge de wet- en regelgeving voor de gezondheid en welzijn van dieren.</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Veewet, art. 2 bis, 76 en art. 77; Antibioticawet, art. 7.1; Diergeneesmiddelenwet, art. 52.1; Wet tot wering van besmettelijke ziekten bij knaagdieren, art. 5; Wet op de uitoefening van de diergeneeskunst, art. 18; Wet op de uitoefening van de diergeneeskunde 1990, art. 42; Wet dierenvervoer, art. 8; Wet op de dierproeven, art. 20; Wet houdende vaststelling van minimumeisen voor het houden van legkippen, art. 5; Gezondheids- en welzijnswet voor dieren, art. 19.2, 21.1, 24.1, 25.3, 29.1, 30.2, 88.1, 100 en 101.2, 104.2 en 3, 106 en art. 114.</t>
+  </si>
+  <si>
+    <t>Beschikking aanwijzing van opsporingsambtenaren t.a.v. de Wet tot wering van besmettelijke ziekten bij knaagdieren (17 juni 1955, Stcrt. 142; 17 oktober 1972, Stcrt. 205); Beschikking aanwijzing van opsporingsambtenaren ten aanzien van de Wet op de uitoefening van de diergeneeskunst (30 november 1956, Stcrt. 235); Beschikking betreffende aanwijzing ambtenaren ingevolge de artikelen 2, laatste lid en 2 bis van de Veewet (12 mei 1964, Stcrt. 92.); Beschikking opsporingsambtenaren Nertsen-Ziektenwet (7 december 1972, Stcrt. 242); Beschikking aanwijzing toezichthoudende ambtenaren wet Dierenvervoer (20 juni 1980, Stcrt. 120); Regeling aanwijzing opsporingsambtenaren Wet houdende vaststelling van minimumeisen voor het houden van legkippen (14 november 1984, Stcrt. 232); Regeling aanwijzing toezichthoudende ambtenaren Wet houdende vaststelling van minimumeisen voor het houden van legkippen (6 december 1984, Stcrt. 241); Beschikking aanwijzing opsporingsambtenaren Diergeneesmiddelwet (24 april 1986, Stcrt. 82); Regeling toezichthoudende ambtenaren Diergeneesmiddelenwet (25 september 1987, Stcrt. 187); Regeling aanwijzing toezichthoudende en opsporingsambtenaren Wet op de uitoefening van de diergeneeskunde 1990 (6 november 1991, Stcrt. 220); Regeling aanwijzing ambtenaren Gezondheids- en welzijnswet voor dieren (6 januari 1993, Stcrt. 7, gewijzigd 13 juli 1995, Stcrt. 137, gewijzigd 12 maart 1996, Stcrt. 61), art. 1 en 2; Regeling aanwijzing besmettelijke dierziekten bij vee (23 december 1993, Stcrt. 252), art. 3; Regeling aanwijzing ambtenaar als bedoeld in art. 19.2 van de Gezondheids- en welzijnswet voor dieren (regeling van de minister van VWC van 20 februari 1995, Stcrt. 37), art. 1; Regeling aanwijzing ambtenaren bestrijding besmettelijke dierziekten (12 maart 1996, Stcrt. 61).</t>
+  </si>
+  <si>
+    <t>V 7 jaar na ontslag</t>
+  </si>
+  <si>
+    <t>Het uitoefenen van toezicht en het opsporen van feiten die feiten die strafbaar zijn ingevolge de wet- en regelgeving voor de gezondheid en welzijn van dieren.</t>
+  </si>
+  <si>
+    <t>uitoefenen van toezicht; opsporen van feiten</t>
+  </si>
+  <si>
+    <t>Veewet, art. 77; Gezondheids- en welzijnswet voor dieren, art. 114, 115,3 en art. 116.a</t>
+  </si>
+  <si>
+    <t>Ten behoeve van deze handeling, hebben de betreffende ambtenaren een aantal bevoegdheden, zoals het binnentreden van een woning, het vordering van de administratie, etc.</t>
+  </si>
+  <si>
+    <t>Procesverbaal</t>
+  </si>
+  <si>
+    <t>Het bepalen dat een ambtenaar belast met de administratie van een Rijksuitvoerkeuringsdienst, niet behorend tot het keuringspersoneel, een vergoeding ontvang.</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling van toe te kennen beloningen aan personeel van Rijksuitvoerkeuringsdiensten, werkzaam in bijzonder dienst, art. 7.1</t>
+  </si>
+  <si>
+    <t>1956–</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van een rijkskeurmeester, al dan niet tevens hoofd van dienst als waarnemer van de directeur.</t>
+  </si>
+  <si>
+    <t>rijkskeurmeester</t>
+  </si>
+  <si>
+    <t>Besluit vaststelling van toe te kennen beloningen van personeel van Rijksuitvoerkeuringsdiensten, werkzaam in bijzonder dienst, art. 8</t>
+  </si>
+  <si>
+    <t>Het houden van een registratie van persoonsgegevens ten behoeve van de werkzaamheden van de dienst</t>
+  </si>
+  <si>
+    <t>Beschikking bescherming persoonlijke levenssfeer (Veeartsenijkundige Dienst), art.. 5.. Regeling bescherming persoonlijke levenssfeer (RVV), art. 5</t>
+  </si>
+  <si>
+    <t>Het vaststellen van formulieren voor de benodigde gegevens voor de registratie.</t>
+  </si>
+  <si>
+    <t>Regeling bescherming persoonlijke levenssfeer (RVV), art. 6</t>
+  </si>
+  <si>
+    <t>Het aanwijzen van bij de dienst werkzame personen die rechtstreeks toegang hebben tot het register van persoonsgegevens en van personen belast met controle van het register van persoonsgegevens ten behoeve van de werkzaamheden van de RVV</t>
+  </si>
+  <si>
+    <t>Regeling bescherming persoonlijke levenssfeer (RVV), art. 7</t>
+  </si>
+  <si>
+    <t>1986–</t>
+  </si>
+  <si>
+    <t>Het gaat hierbij ook om personen die rechtstreeks toegang hebben tot het register van persoonsgegevens ten behoeve van de werkzaamheden van de RVV in verband met de beveiliging van het computercentrum. De formele handeling ligt bij de Directeur Veterinaire Dienst</t>
+  </si>
+  <si>
+    <t>Het nemen van een beslissing over een verzoek van een persoon de gegevens in het register te verwijderen, aan te vullen of te verbeteren.</t>
+  </si>
+  <si>
+    <t>verzoek</t>
+  </si>
+  <si>
+    <t>Regeling bescherming persoonlijke levenssfeer (RVV), art. 12.1c</t>
+  </si>
+  <si>
+    <t>Het toekennen of verlenen van erkenningen, vergunningen en registraties aan bedrijven en producten.</t>
+  </si>
+  <si>
+    <t>toekennen of verlenen</t>
+  </si>
+  <si>
+    <t>erkenning; vergunning; registratie</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Besluit Organistatie VWA, art. 3 lid 3d; EEG-verordening (853/2004 art. 4 en 854/2004 art. 3); Kwaliteitshandboek, protocollen; Gezondheids- en welzijnswet voor dieren; Kaderwet diervoerders</t>
+  </si>
+  <si>
+    <t>De volgende activiteiten kunnen deel uit maken van deze handeling:
+Verlenen van erkenningen (vis, veterinair/vlees en dierenwelzijn, import)
+Verlenen van vergunningen en ontheffingen
+Verlenen van registraties (productiebedrijven, handelaren, diervoederbedrijven)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkenningsbrief, brief registratie handelaren </t>
+  </si>
+  <si>
+    <t>Het uitvoeren van inspecties(audits) in het kader van onderhoud van erkenningen, vergunningen en registraties</t>
+  </si>
+  <si>
+    <t>uitvoeren</t>
+  </si>
+  <si>
+    <t>audits</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Besluit Organistatie VWA, art. 3 lid 3d; EEG-verordening (853/2004 art. 4 en 854/2004 art. 3); Kwaliteitshandboek, protocollen; Gezondheids- en welzijnswet voor dieren; Kaderwet diervoeders</t>
+  </si>
+  <si>
+    <t>Inspecties kunnen gericht zijn op veterinair/vlees en dierenwelzijn, vis, import, productiebedrijven en diervoederbedrijven</t>
+  </si>
+  <si>
+    <t>Aanvraagformulier, inspectielijst, inspectierapport (procesverbaal van bevinding), Auditrapport, Monsteringsrapport, Monsterbegeleidingsformulier</t>
+  </si>
+  <si>
+    <t>V 5 jaar na inspectie</t>
+  </si>
+  <si>
+    <t>Het uitvoeren van (import)keuringen.</t>
+  </si>
+  <si>
+    <t>keuring</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: Besluit Organisatie VWA, art. 3 lidb; Beschikking 97/794/EEG art. 7, EEG verordening 21 januari 2004 136/2004</t>
+  </si>
+  <si>
+    <t>Aanmeldingsformulier, controlelijst, gezondheidscertificaat, melding import, aanvraag dieren vervoer, verklaring dieren vervoer.</t>
+  </si>
+  <si>
+    <t>Het uitvoeren van het tweedelijns toezicht op externe controle instellingen.</t>
+  </si>
+  <si>
+    <t>toezicht</t>
+  </si>
+  <si>
+    <t>Er wordt beoordeeld in hoeverre aangewezen controle-instellingen (b.v. KDS, Productschappen) voldoen aan de door de overheid opgedragen taken.</t>
+  </si>
+  <si>
+    <t>V 10 jaar na vervallen</t>
+  </si>
+  <si>
+    <t>Het programmeren en coördineren van (externe) (wetenschappelijke) (risico) onderzoeken en projecten.</t>
+  </si>
+  <si>
+    <t>programmeren; coördineren</t>
+  </si>
+  <si>
+    <t>onderzoek; project</t>
+  </si>
+  <si>
+    <t>Besluit Organisatie VWA, art. 4a; Wet onafhankelijke risicobeoordeling VWA, Stb 2006,247;</t>
+  </si>
+  <si>
+    <t>Het wetenschappelijk onderzoek wordt uitbesteed aan Instituten en Universiteiten zoals het RIVM, RIKILT, WUR enz.</t>
+  </si>
+  <si>
+    <t>Onderzoeksprogramma’s, onderzoeksopdrachten, projectenprogramma’s (kalenders), (tussen) rapportages en verslagen.</t>
+  </si>
+  <si>
+    <t>B rapporten die hebben geleid tot advies aan de Minister; V 10 jaar met uitzondering van de rapporten die blijven bewaard bij VWA in het kader van het bedrijfsbelang</t>
+  </si>
+  <si>
+    <t>Het deelnemen aan nationale overleggen en het geven van informatie en adviezen aan nationale organisatie waarvan de VWA het secretariaat voert</t>
+  </si>
+  <si>
+    <t>deelnemen</t>
+  </si>
+  <si>
+    <t>overleg</t>
+  </si>
+  <si>
+    <t>Productschappen e.d.</t>
+  </si>
+  <si>
+    <t>Adviezen, rapporten en vergaderstukken</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Het deelnemen aan nationale overleggen en het geven van informatie en adviezen aan nationale organisatie waarvan de VWA het secretariaat niet voert</t>
+  </si>
+  <si>
+    <t>Adviezen, vergaderstukken e.d.</t>
+  </si>
+  <si>
+    <t>Het afgeven van (export)certificaten en geleidebiljetten voor dieren en producten van dierlijke oorsprong</t>
+  </si>
+  <si>
+    <t>certificaat; geleidebiljet</t>
+  </si>
+  <si>
+    <t>Besluit Organisatie VWA, art. 3 lid 3d, Richtlijn 96/93/EEG Certificering van dieren en dierlijke producten.</t>
+  </si>
+  <si>
+    <t>Aanvraagformulier, exportcertificaat levend vee, TRACES formulier (met betrekking tot vervoer levende dieren binnen de EU) Free sales certificaat, reisschema’s</t>
+  </si>
+  <si>
+    <t>Handhaven protocol voor het reinigen en ontsmetten van verzamelplaatsen voor dieren</t>
+  </si>
+  <si>
+    <t>Regeling betreffende het bijeenbrengen van dieren (12 maart 1996, Stc. 61), art. 3</t>
+  </si>
+  <si>
+    <t>B&amp;O’s</t>
+  </si>
+  <si>
+    <t>Het behandelen van meldingen (consumentenklachten)</t>
+  </si>
+  <si>
+    <t>behandelen</t>
+  </si>
+  <si>
+    <t>melding</t>
+  </si>
+  <si>
+    <t>Kwaliteitshandboek, protocollen</t>
+  </si>
+  <si>
+    <t>5 jaar na afhandeling melding (klacht)</t>
+  </si>
+  <si>
+    <t>Het accepteren, beoordelen en afhandelen van klachten met betrekking tot het feitelijk handelen van de minister en zijn ambtenaren</t>
+  </si>
+  <si>
+    <t>accepteren; beoordelen; afhandelen</t>
+  </si>
+  <si>
+    <t>klacht</t>
+  </si>
+  <si>
+    <t>V 5 jaar na afhandeling klacht</t>
+  </si>
+  <si>
+    <t>Het adviseren van de minister van LNV en van VWS betreffende gezondheid en welzijn van dieren</t>
+  </si>
+  <si>
+    <t>adviseren</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>B, criterium 1</t>
+  </si>
+  <si>
+    <t>Onderstaande handelingen zijn overgenomen uit het Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Gezondheid en welzijn van dieren vanaf 1945 (Minister van Landbouw, Natuur en Voedselkwaliteit, 2008)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2460,6 +3938,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2486,7 +3972,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -2494,6 +3980,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2510,7 +4002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -2584,7 +4076,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2619,7 +4110,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -2795,21 +4285,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="88.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="4"/>
+    <col min="3" max="3" width="88.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>271</v>
       </c>
@@ -2823,7 +4313,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>270</v>
       </c>
@@ -2838,7 +4328,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="str">
         <f>TEXT(B3,"#")</f>
         <v>1</v>
@@ -2857,7 +4347,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">TEXT(B4,"#")</f>
         <v>2</v>
@@ -2875,7 +4365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2893,7 +4383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2912,7 +4402,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2930,7 +4420,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2948,7 +4438,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2967,7 +4457,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2985,7 +4475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3003,7 +4493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3022,7 +4512,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3040,7 +4530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3058,7 +4548,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3077,7 +4567,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3095,7 +4585,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3113,7 +4603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3132,7 +4622,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3150,7 +4640,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3169,7 +4659,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3187,7 +4677,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3206,7 +4696,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3224,7 +4714,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3243,7 +4733,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3261,7 +4751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3280,7 +4770,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3298,7 +4788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3317,7 +4807,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3335,7 +4825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3354,7 +4844,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3372,7 +4862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3391,7 +4881,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3409,7 +4899,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3428,7 +4918,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3446,7 +4936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3465,7 +4955,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3483,7 +4973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3502,7 +4992,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3520,7 +5010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3539,7 +5029,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3557,7 +5047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3576,7 +5066,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3594,7 +5084,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3612,7 +5102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3630,7 +5120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3648,7 +5138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3666,7 +5156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3684,7 +5174,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3702,7 +5192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3721,7 +5211,7 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3739,7 +5229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3757,7 +5247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3775,7 +5265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3793,7 +5283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3811,7 +5301,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3830,7 +5320,7 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3848,7 +5338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3866,7 +5356,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3884,7 +5374,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3902,7 +5392,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3920,7 +5410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3939,7 +5429,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3957,7 +5447,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3975,7 +5465,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3993,7 +5483,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4011,7 +5501,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4030,7 +5520,7 @@
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">TEXT(B68,"#")</f>
         <v>66</v>
@@ -4048,7 +5538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4066,7 +5556,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4084,7 +5574,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4102,7 +5592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4121,7 +5611,7 @@
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4139,7 +5629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4157,7 +5647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4175,7 +5665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4193,7 +5683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4212,7 +5702,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4230,7 +5720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4248,7 +5738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4266,7 +5756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4285,7 +5775,7 @@
       </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4303,7 +5793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4321,7 +5811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4339,7 +5829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4358,7 +5848,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4376,7 +5866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4394,7 +5884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4413,7 +5903,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4431,7 +5921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4449,7 +5939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4468,7 +5958,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4486,7 +5976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4504,7 +5994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4523,7 +6013,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4541,7 +6031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4559,7 +6049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4578,7 +6068,7 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4596,7 +6086,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4614,7 +6104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4633,7 +6123,7 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4651,7 +6141,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4669,7 +6159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4688,7 +6178,7 @@
       </c>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4706,7 +6196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4724,7 +6214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4743,7 +6233,7 @@
       </c>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4761,7 +6251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4779,7 +6269,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4798,7 +6288,7 @@
       </c>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4816,7 +6306,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4834,7 +6324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4853,7 +6343,7 @@
       </c>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4871,7 +6361,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4889,7 +6379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4908,7 +6398,7 @@
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4926,7 +6416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4945,7 +6435,7 @@
       </c>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4963,7 +6453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4982,7 +6472,7 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5000,7 +6490,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5019,7 +6509,7 @@
       </c>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5037,7 +6527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5056,7 +6546,7 @@
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5074,7 +6564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5093,7 +6583,7 @@
       </c>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5111,7 +6601,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5130,7 +6620,7 @@
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5148,7 +6638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5167,7 +6657,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5185,7 +6675,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5204,7 +6694,7 @@
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A192" si="2">TEXT(B132,"#")</f>
         <v>130</v>
@@ -5222,7 +6712,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5241,7 +6731,7 @@
       </c>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5259,7 +6749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5278,7 +6768,7 @@
       </c>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5296,7 +6786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5315,7 +6805,7 @@
       </c>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5333,7 +6823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5352,7 +6842,7 @@
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5370,7 +6860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5389,7 +6879,7 @@
       </c>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5407,7 +6897,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5426,7 +6916,7 @@
       </c>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5444,7 +6934,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5463,7 +6953,7 @@
       </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5481,7 +6971,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5500,7 +6990,7 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5518,7 +7008,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5537,7 +7027,7 @@
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5555,7 +7045,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5574,7 +7064,7 @@
       </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5592,7 +7082,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5611,7 +7101,7 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5629,7 +7119,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5648,7 +7138,7 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5666,7 +7156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5685,7 +7175,7 @@
       </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5703,7 +7193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5721,7 +7211,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5740,7 +7230,7 @@
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5758,7 +7248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5777,7 +7267,7 @@
       </c>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5795,7 +7285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5814,7 +7304,7 @@
       </c>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5832,7 +7322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5851,7 +7341,7 @@
       </c>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5869,7 +7359,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5887,7 +7377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5906,7 +7396,7 @@
       </c>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5924,7 +7414,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5943,7 +7433,7 @@
       </c>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5961,7 +7451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5980,7 +7470,7 @@
       </c>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5998,7 +7488,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6017,7 +7507,7 @@
       </c>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6035,7 +7525,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6054,7 +7544,7 @@
       </c>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6072,7 +7562,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6091,7 +7581,7 @@
       </c>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6109,7 +7599,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6128,7 +7618,7 @@
       </c>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6146,7 +7636,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6165,7 +7655,7 @@
       </c>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6183,7 +7673,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6202,7 +7692,7 @@
       </c>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6220,7 +7710,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6239,7 +7729,7 @@
       </c>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6257,7 +7747,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6276,7 +7766,7 @@
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6294,7 +7784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6313,7 +7803,7 @@
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6331,7 +7821,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" t="str">
         <f t="shared" ref="A193:A212" si="3">TEXT(B193,"#")</f>
         <v>191</v>
@@ -6350,7 +7840,7 @@
       </c>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" t="str">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -6368,7 +7858,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -6387,7 +7877,7 @@
       </c>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -6405,7 +7895,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6424,7 +7914,7 @@
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6442,7 +7932,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6460,7 +7950,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6479,7 +7969,7 @@
       </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6497,7 +7987,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6516,7 +8006,7 @@
       </c>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6534,7 +8024,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6553,7 +8043,7 @@
       </c>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6571,7 +8061,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6590,7 +8080,7 @@
       </c>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6608,7 +8098,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6627,7 +8117,7 @@
       </c>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6645,7 +8135,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6664,7 +8154,7 @@
       </c>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6682,7 +8172,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6701,55 +8191,55 @@
       </c>
       <c r="L212" s="1"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="L214" s="1"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="L216" s="1"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="L218" s="1"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="L220" s="1"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="L222" s="1"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="L224" s="1"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="12:12">
       <c r="L226" s="1"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="12:12">
       <c r="L228" s="1"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="12:12">
       <c r="L230" s="1"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="12:12">
       <c r="L232" s="1"/>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="12:12">
       <c r="L234" s="1"/>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="12:12">
       <c r="L236" s="1"/>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="12:12">
       <c r="L238" s="1"/>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="12:12">
       <c r="L240" s="1"/>
     </row>
-    <row r="242" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:12">
       <c r="L242" s="1"/>
     </row>
-    <row r="244" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:12">
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:12">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6776,19 +8266,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -6802,7 +8292,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -6816,7 +8306,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -6830,7 +8320,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -6844,7 +8334,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -6858,7 +8348,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -6872,7 +8362,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -6886,7 +8376,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -6900,7 +8390,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -6914,7 +8404,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -6928,7 +8418,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -6942,7 +8432,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -6956,7 +8446,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -6970,7 +8460,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -6984,7 +8474,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -6998,7 +8488,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -7012,7 +8502,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -7026,7 +8516,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -7040,7 +8530,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -7054,7 +8544,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -7068,7 +8558,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -7082,7 +8572,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>169</v>
       </c>
@@ -7096,7 +8586,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -7110,7 +8600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -7124,7 +8614,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -7138,7 +8628,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -7152,7 +8642,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -7166,7 +8656,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -7180,7 +8670,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -7194,7 +8684,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>177</v>
       </c>
@@ -7208,7 +8698,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -7222,7 +8712,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>179</v>
       </c>
@@ -7236,7 +8726,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>180</v>
       </c>
@@ -7250,7 +8740,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -7264,7 +8754,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -7278,7 +8768,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -7292,7 +8782,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -7306,7 +8796,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -7320,7 +8810,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -7334,7 +8824,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -7348,7 +8838,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -7362,7 +8852,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -7376,7 +8866,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -7390,7 +8880,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -7404,7 +8894,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>192</v>
       </c>
@@ -7418,7 +8908,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -7432,7 +8922,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -7446,7 +8936,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -7460,7 +8950,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -7474,7 +8964,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -7488,7 +8978,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -7502,7 +8992,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -7516,7 +9006,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -7530,7 +9020,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>201</v>
       </c>
@@ -7544,7 +9034,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -7558,7 +9048,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -7572,7 +9062,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -7586,7 +9076,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>205</v>
       </c>
@@ -7600,7 +9090,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -7614,7 +9104,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -7628,7 +9118,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>208</v>
       </c>
@@ -7642,7 +9132,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -7656,7 +9146,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>210</v>
       </c>
@@ -7670,7 +9160,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -7684,7 +9174,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -7698,7 +9188,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>213</v>
       </c>
@@ -7712,7 +9202,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -7726,7 +9216,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -7740,7 +9230,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>216</v>
       </c>
@@ -7754,7 +9244,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -7768,7 +9258,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -7782,7 +9272,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>219</v>
       </c>
@@ -7796,7 +9286,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -7810,7 +9300,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -7824,7 +9314,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -7838,7 +9328,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -7852,7 +9342,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>224</v>
       </c>
@@ -7866,7 +9356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -7880,7 +9370,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>226</v>
       </c>
@@ -7894,7 +9384,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -7908,7 +9398,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>228</v>
       </c>
@@ -7922,7 +9412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -7936,7 +9426,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -7950,7 +9440,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>231</v>
       </c>
@@ -7964,7 +9454,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -7978,7 +9468,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>233</v>
       </c>
@@ -7992,7 +9482,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>234</v>
       </c>
@@ -8006,7 +9496,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>235</v>
       </c>
@@ -8020,7 +9510,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -8034,7 +9524,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>237</v>
       </c>
@@ -8048,7 +9538,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>238</v>
       </c>
@@ -8062,7 +9552,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>239</v>
       </c>
@@ -8076,7 +9566,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>240</v>
       </c>
@@ -8090,7 +9580,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -8104,7 +9594,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>242</v>
       </c>
@@ -8118,7 +9608,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>243</v>
       </c>
@@ -8132,7 +9622,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -8146,7 +9636,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>245</v>
       </c>
@@ -8160,7 +9650,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>246</v>
       </c>
@@ -8175,7 +9665,7 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>247</v>
       </c>
@@ -8189,7 +9679,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>248</v>
       </c>
@@ -8203,7 +9693,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>249</v>
       </c>
@@ -8217,7 +9707,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>250</v>
       </c>
@@ -8231,7 +9721,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>251</v>
       </c>
@@ -8245,7 +9735,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -8259,7 +9749,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>253</v>
       </c>
@@ -8273,7 +9763,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>254</v>
       </c>
@@ -8287,7 +9777,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -8301,7 +9791,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>256</v>
       </c>
@@ -8315,7 +9805,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>278</v>
       </c>
@@ -8329,7 +9819,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -8340,7 +9830,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -8351,7 +9841,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>415</v>
       </c>
@@ -8362,7 +9852,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>419</v>
       </c>
@@ -8373,7 +9863,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>428</v>
       </c>
@@ -8384,7 +9874,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>389</v>
       </c>
@@ -8395,7 +9885,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>430</v>
       </c>
@@ -8406,7 +9896,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>432</v>
       </c>
@@ -8417,7 +9907,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>434</v>
       </c>
@@ -8429,7 +9919,7 @@
       </c>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>391</v>
       </c>
@@ -8440,7 +9930,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>393</v>
       </c>
@@ -8451,7 +9941,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>395</v>
       </c>
@@ -8462,7 +9952,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>397</v>
       </c>
@@ -8473,7 +9963,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>437</v>
       </c>
@@ -8484,7 +9974,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>439</v>
       </c>
@@ -8495,7 +9985,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>441</v>
       </c>
@@ -8506,7 +9996,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>443</v>
       </c>
@@ -8517,7 +10007,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>445</v>
       </c>
@@ -8528,7 +10018,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>399</v>
       </c>
@@ -8539,7 +10029,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>447</v>
       </c>
@@ -8550,7 +10040,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>449</v>
       </c>
@@ -8561,7 +10051,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>451</v>
       </c>
@@ -8572,7 +10062,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>454</v>
       </c>
@@ -8583,7 +10073,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>456</v>
       </c>
@@ -8594,7 +10084,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>458</v>
       </c>
@@ -8605,7 +10095,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>460</v>
       </c>
@@ -8616,7 +10106,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>463</v>
       </c>
@@ -8627,7 +10117,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>466</v>
       </c>
@@ -8638,7 +10128,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>469</v>
       </c>
@@ -8649,7 +10139,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>401</v>
       </c>
@@ -8660,7 +10150,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>471</v>
       </c>
@@ -8671,7 +10161,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>474</v>
       </c>
@@ -8682,7 +10172,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>476</v>
       </c>
@@ -8693,7 +10183,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>479</v>
       </c>
@@ -8704,7 +10194,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>403</v>
       </c>
@@ -8715,7 +10205,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>482</v>
       </c>
@@ -8726,7 +10216,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>484</v>
       </c>
@@ -8737,7 +10227,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>487</v>
       </c>
@@ -8748,7 +10238,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>489</v>
       </c>
@@ -8759,7 +10249,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>491</v>
       </c>
@@ -8770,7 +10260,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>493</v>
       </c>
@@ -8781,7 +10271,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>495</v>
       </c>
@@ -8792,7 +10282,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>497</v>
       </c>
@@ -8803,7 +10293,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>499</v>
       </c>
@@ -8814,7 +10304,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>241</v>
       </c>
@@ -8825,7 +10315,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>502</v>
       </c>
@@ -8836,7 +10326,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>504</v>
       </c>
@@ -8847,7 +10337,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>506</v>
       </c>
@@ -8858,7 +10348,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>405</v>
       </c>
@@ -8869,7 +10359,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>407</v>
       </c>
@@ -8880,7 +10370,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>409</v>
       </c>
@@ -8891,7 +10381,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>509</v>
       </c>
@@ -8902,7 +10392,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>513</v>
       </c>
@@ -8913,7 +10403,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>515</v>
       </c>
@@ -8924,7 +10414,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>517</v>
       </c>
@@ -8935,7 +10425,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>519</v>
       </c>
@@ -8946,7 +10436,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>521</v>
       </c>
@@ -8958,7 +10448,7 @@
       </c>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>523</v>
       </c>
@@ -8969,7 +10459,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>525</v>
       </c>
@@ -8980,7 +10470,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>527</v>
       </c>
@@ -9002,101 +10492,3733 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8">
+      <c r="A2" t="s">
         <v>798</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E1" t="s">
-        <v>802</v>
-      </c>
-      <c r="F1" t="s">
-        <v>803</v>
-      </c>
-      <c r="G1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B2" t="s">
-        <v>257</v>
-      </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D2" t="s">
         <v>807</v>
       </c>
       <c r="E2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2" t="s">
+        <v>801</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="J2" t="s">
+        <v>808</v>
+      </c>
+      <c r="K2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B3" t="s">
         <v>257</v>
       </c>
-      <c r="F2" t="s">
-        <v>806</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G3" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
-      <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="s">
+        <v>811</v>
+      </c>
+      <c r="J3" t="s">
+        <v>812</v>
+      </c>
+      <c r="K3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100.8">
+      <c r="A4">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G4" t="s">
+        <v>817</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" t="s">
+        <v>819</v>
+      </c>
+      <c r="K4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="244.8">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E5" t="s">
+        <v>823</v>
+      </c>
+      <c r="G5" t="s">
+        <v>824</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" t="s">
+        <v>826</v>
+      </c>
+      <c r="K5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C6" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E6" t="s">
+        <v>831</v>
+      </c>
+      <c r="G6" t="s">
+        <v>832</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G7" t="s">
+        <v>838</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" t="s">
+        <v>839</v>
+      </c>
+      <c r="K7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="374.4">
+      <c r="A8">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>840</v>
+      </c>
+      <c r="C8" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E8" t="s">
+        <v>842</v>
+      </c>
+      <c r="G8" t="s">
+        <v>843</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" t="s">
+        <v>845</v>
+      </c>
+      <c r="K8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="144">
+      <c r="A9">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>847</v>
+      </c>
+      <c r="C9" t="s">
+        <v>848</v>
+      </c>
+      <c r="D9" t="s">
+        <v>849</v>
+      </c>
+      <c r="E9" t="s">
+        <v>850</v>
+      </c>
+      <c r="G9" t="s">
+        <v>851</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" t="s">
+        <v>853</v>
+      </c>
+      <c r="K9" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="115.2">
+      <c r="A10">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>855</v>
+      </c>
+      <c r="C10" t="s">
+        <v>856</v>
+      </c>
+      <c r="D10" t="s">
+        <v>830</v>
+      </c>
+      <c r="E10" t="s">
+        <v>857</v>
+      </c>
+      <c r="G10" t="s">
+        <v>858</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" t="s">
+        <v>853</v>
+      </c>
+      <c r="K10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>860</v>
+      </c>
+      <c r="C11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D11" t="s">
+        <v>803</v>
+      </c>
+      <c r="E11" t="s">
+        <v>862</v>
+      </c>
+      <c r="G11" t="s">
+        <v>863</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" t="s">
+        <v>864</v>
+      </c>
+      <c r="K11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>865</v>
+      </c>
+      <c r="C12" t="s">
+        <v>866</v>
+      </c>
+      <c r="D12" t="s">
+        <v>867</v>
+      </c>
+      <c r="E12" t="s">
+        <v>868</v>
+      </c>
+      <c r="G12" t="s">
+        <v>869</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" t="s">
+        <v>870</v>
+      </c>
+      <c r="K12" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>872</v>
+      </c>
+      <c r="C13" t="s">
+        <v>829</v>
+      </c>
+      <c r="D13" t="s">
+        <v>830</v>
+      </c>
+      <c r="E13" t="s">
+        <v>873</v>
+      </c>
+      <c r="G13" t="s">
+        <v>874</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" t="s">
+        <v>826</v>
+      </c>
+      <c r="K13" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.6">
+      <c r="A14">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D14" t="s">
+        <v>830</v>
+      </c>
+      <c r="E14" t="s">
+        <v>876</v>
+      </c>
+      <c r="G14" t="s">
+        <v>877</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" t="s">
+        <v>826</v>
+      </c>
+      <c r="K14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8">
+      <c r="A15">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>879</v>
+      </c>
+      <c r="C15" t="s">
+        <v>829</v>
+      </c>
+      <c r="D15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G15" t="s">
+        <v>881</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K15" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="144">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>882</v>
+      </c>
+      <c r="C16" t="s">
+        <v>829</v>
+      </c>
+      <c r="D16" t="s">
+        <v>883</v>
+      </c>
+      <c r="E16" t="s">
+        <v>884</v>
+      </c>
+      <c r="G16" t="s">
+        <v>885</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" t="s">
+        <v>853</v>
+      </c>
+      <c r="K16" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="144">
+      <c r="A17">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C17" t="s">
+        <v>887</v>
+      </c>
+      <c r="D17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E17" t="s">
+        <v>889</v>
+      </c>
+      <c r="G17" t="s">
+        <v>885</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" t="s">
+        <v>826</v>
+      </c>
+      <c r="K17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="144">
+      <c r="A18">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C18" t="s">
+        <v>829</v>
+      </c>
+      <c r="D18" t="s">
+        <v>883</v>
+      </c>
+      <c r="E18" t="s">
+        <v>891</v>
+      </c>
+      <c r="G18" t="s">
+        <v>885</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" t="s">
+        <v>826</v>
+      </c>
+      <c r="K18" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="144">
+      <c r="A19">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>892</v>
+      </c>
+      <c r="C19" t="s">
+        <v>856</v>
+      </c>
+      <c r="D19" t="s">
+        <v>841</v>
+      </c>
+      <c r="E19" t="s">
+        <v>893</v>
+      </c>
+      <c r="G19" t="s">
+        <v>885</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" t="s">
+        <v>894</v>
+      </c>
+      <c r="K19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="144">
+      <c r="A20">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>895</v>
+      </c>
+      <c r="C20" t="s">
+        <v>856</v>
+      </c>
+      <c r="D20" t="s">
+        <v>841</v>
+      </c>
+      <c r="E20" t="s">
+        <v>896</v>
+      </c>
+      <c r="G20" t="s">
+        <v>885</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" t="s">
+        <v>894</v>
+      </c>
+      <c r="K20" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.6">
+      <c r="A21">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>897</v>
+      </c>
+      <c r="C21" t="s">
+        <v>898</v>
+      </c>
+      <c r="D21" t="s">
+        <v>899</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G21" t="s">
+        <v>901</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" t="s">
+        <v>853</v>
+      </c>
+      <c r="K21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="409.6">
+      <c r="A22">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>903</v>
+      </c>
+      <c r="C22" t="s">
+        <v>904</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G22" t="s">
+        <v>901</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" t="s">
+        <v>826</v>
+      </c>
+      <c r="K22" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="409.6">
+      <c r="A23">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C23" t="s">
+        <v>904</v>
+      </c>
+      <c r="E23" t="s">
+        <v>908</v>
+      </c>
+      <c r="G23" t="s">
+        <v>901</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" t="s">
+        <v>853</v>
+      </c>
+      <c r="K23" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8">
+      <c r="A24">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>910</v>
+      </c>
+      <c r="C24" t="s">
+        <v>829</v>
+      </c>
+      <c r="D24" t="s">
+        <v>883</v>
+      </c>
+      <c r="E24" t="s">
+        <v>911</v>
+      </c>
+      <c r="G24" t="s">
+        <v>901</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K24" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="259.2">
+      <c r="A25">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>912</v>
+      </c>
+      <c r="C25" t="s">
+        <v>904</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="G25">
+        <v>1965</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" t="s">
+        <v>853</v>
+      </c>
+      <c r="K25" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="144">
+      <c r="A26">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>915</v>
+      </c>
+      <c r="C26" t="s">
+        <v>829</v>
+      </c>
+      <c r="D26" t="s">
+        <v>830</v>
+      </c>
+      <c r="E26" t="s">
+        <v>916</v>
+      </c>
+      <c r="G26" t="s">
+        <v>917</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" t="s">
+        <v>826</v>
+      </c>
+      <c r="K26" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="144">
+      <c r="A27">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>918</v>
+      </c>
+      <c r="C27" t="s">
+        <v>822</v>
+      </c>
+      <c r="D27" t="s">
+        <v>919</v>
+      </c>
+      <c r="E27" t="s">
+        <v>920</v>
+      </c>
+      <c r="G27" t="s">
+        <v>921</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="K27" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="409.6">
+      <c r="A28">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C28" t="s">
+        <v>904</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="G28" t="s">
+        <v>924</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" t="s">
+        <v>826</v>
+      </c>
+      <c r="K28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="72">
+      <c r="A29">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>926</v>
+      </c>
+      <c r="C29" t="s">
+        <v>904</v>
+      </c>
+      <c r="E29" t="s">
+        <v>927</v>
+      </c>
+      <c r="G29" t="s">
+        <v>928</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" t="s">
+        <v>826</v>
+      </c>
+      <c r="K29" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>930</v>
+      </c>
+      <c r="C30" t="s">
+        <v>829</v>
+      </c>
+      <c r="D30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E30" t="s">
+        <v>931</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" t="s">
+        <v>826</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="43.2">
+      <c r="A31">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>932</v>
+      </c>
+      <c r="C31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E31" t="s">
+        <v>934</v>
+      </c>
+      <c r="G31" t="s">
+        <v>935</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="K31" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72">
+      <c r="A32">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>938</v>
+      </c>
+      <c r="C32" t="s">
+        <v>829</v>
+      </c>
+      <c r="D32" t="s">
+        <v>883</v>
+      </c>
+      <c r="E32" t="s">
+        <v>939</v>
+      </c>
+      <c r="G32" t="s">
+        <v>824</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" t="s">
+        <v>853</v>
+      </c>
+      <c r="K32" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>941</v>
+      </c>
+      <c r="C33" t="s">
+        <v>829</v>
+      </c>
+      <c r="D33" t="s">
+        <v>883</v>
+      </c>
+      <c r="E33" t="s">
+        <v>942</v>
+      </c>
+      <c r="G33" t="s">
+        <v>943</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="K33" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>944</v>
+      </c>
+      <c r="C34" t="s">
+        <v>904</v>
+      </c>
+      <c r="E34" t="s">
+        <v>945</v>
+      </c>
+      <c r="G34" t="s">
+        <v>943</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" t="s">
+        <v>853</v>
+      </c>
+      <c r="K34" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>946</v>
+      </c>
+      <c r="C35" t="s">
+        <v>947</v>
+      </c>
+      <c r="D35" t="s">
+        <v>948</v>
+      </c>
+      <c r="E35" t="s">
+        <v>949</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" t="s">
+        <v>826</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8">
+      <c r="A36">
+        <v>163</v>
+      </c>
+      <c r="B36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C36" t="s">
+        <v>904</v>
+      </c>
+      <c r="E36" t="s">
+        <v>951</v>
+      </c>
+      <c r="G36" t="s">
+        <v>952</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K36" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="144">
+      <c r="A37">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>953</v>
+      </c>
+      <c r="C37" t="s">
+        <v>954</v>
+      </c>
+      <c r="D37" t="s">
+        <v>836</v>
+      </c>
+      <c r="E37" t="s">
+        <v>955</v>
+      </c>
+      <c r="G37" t="s">
+        <v>901</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" t="s">
+        <v>956</v>
+      </c>
+      <c r="K37" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="100.8">
+      <c r="A38">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>957</v>
+      </c>
+      <c r="C38" t="s">
+        <v>866</v>
+      </c>
+      <c r="D38" t="s">
+        <v>958</v>
+      </c>
+      <c r="E38" t="s">
+        <v>959</v>
+      </c>
+      <c r="G38" t="s">
+        <v>901</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" t="s">
+        <v>961</v>
+      </c>
+      <c r="K38" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="100.8">
+      <c r="A39">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>963</v>
+      </c>
+      <c r="C39" t="s">
+        <v>964</v>
+      </c>
+      <c r="D39" t="s">
+        <v>965</v>
+      </c>
+      <c r="E39" t="s">
+        <v>966</v>
+      </c>
+      <c r="G39" t="s">
+        <v>967</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" t="s">
+        <v>826</v>
+      </c>
+      <c r="K39" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="100.8">
+      <c r="A40">
+        <v>173</v>
+      </c>
+      <c r="B40" t="s">
+        <v>969</v>
+      </c>
+      <c r="C40" t="s">
+        <v>964</v>
+      </c>
+      <c r="D40" t="s">
+        <v>965</v>
+      </c>
+      <c r="E40" t="s">
+        <v>970</v>
+      </c>
+      <c r="G40" t="s">
+        <v>967</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" t="s">
+        <v>826</v>
+      </c>
+      <c r="K40" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="100.8">
+      <c r="A41">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>971</v>
+      </c>
+      <c r="C41" t="s">
+        <v>933</v>
+      </c>
+      <c r="E41" t="s">
+        <v>972</v>
+      </c>
+      <c r="G41" t="s">
+        <v>901</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" t="s">
+        <v>853</v>
+      </c>
+      <c r="K41" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="100.8">
+      <c r="A42">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>973</v>
+      </c>
+      <c r="C42" t="s">
+        <v>829</v>
+      </c>
+      <c r="D42" t="s">
+        <v>830</v>
+      </c>
+      <c r="E42" t="s">
+        <v>974</v>
+      </c>
+      <c r="G42" t="s">
+        <v>975</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" t="s">
+        <v>826</v>
+      </c>
+      <c r="K42" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="230.4">
+      <c r="A43">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>976</v>
+      </c>
+      <c r="C43" t="s">
+        <v>866</v>
+      </c>
+      <c r="D43" t="s">
+        <v>977</v>
+      </c>
+      <c r="E43" t="s">
+        <v>978</v>
+      </c>
+      <c r="G43" t="s">
+        <v>924</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" t="s">
+        <v>826</v>
+      </c>
+      <c r="K43" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="72">
+      <c r="A44">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>980</v>
+      </c>
+      <c r="C44" t="s">
+        <v>829</v>
+      </c>
+      <c r="D44" t="s">
+        <v>841</v>
+      </c>
+      <c r="E44" t="s">
+        <v>981</v>
+      </c>
+      <c r="G44" t="s">
+        <v>824</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" t="s">
+        <v>826</v>
+      </c>
+      <c r="K44" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="409.6">
+      <c r="A45">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>982</v>
+      </c>
+      <c r="C45" t="s">
+        <v>964</v>
+      </c>
+      <c r="D45" t="s">
+        <v>965</v>
+      </c>
+      <c r="E45" t="s">
+        <v>983</v>
+      </c>
+      <c r="G45" t="s">
+        <v>943</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" t="s">
+        <v>853</v>
+      </c>
+      <c r="K45" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="409.6">
+      <c r="A46">
+        <v>187</v>
+      </c>
+      <c r="B46" t="s">
+        <v>982</v>
+      </c>
+      <c r="C46" t="s">
+        <v>964</v>
+      </c>
+      <c r="D46" t="s">
+        <v>965</v>
+      </c>
+      <c r="E46" t="s">
+        <v>983</v>
+      </c>
+      <c r="G46" t="s">
+        <v>943</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" t="s">
+        <v>853</v>
+      </c>
+      <c r="K46" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>188</v>
+      </c>
+      <c r="B47" t="s">
+        <v>986</v>
+      </c>
+      <c r="C47" t="s">
+        <v>987</v>
+      </c>
+      <c r="D47" t="s">
+        <v>988</v>
+      </c>
+      <c r="E47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G47" t="s">
+        <v>943</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" t="s">
+        <v>853</v>
+      </c>
+      <c r="K47" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>990</v>
+      </c>
+      <c r="C48" t="s">
+        <v>991</v>
+      </c>
+      <c r="D48" t="s">
+        <v>992</v>
+      </c>
+      <c r="E48" t="s">
+        <v>993</v>
+      </c>
+      <c r="G48" t="s">
+        <v>943</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" t="s">
+        <v>853</v>
+      </c>
+      <c r="K48" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>190</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C49" t="s">
+        <v>829</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E49" t="s">
+        <v>996</v>
+      </c>
+      <c r="G49" t="s">
+        <v>943</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" t="s">
+        <v>826</v>
+      </c>
+      <c r="K49" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="409.6">
+      <c r="A50">
+        <v>194</v>
+      </c>
+      <c r="B50" t="s">
+        <v>997</v>
+      </c>
+      <c r="C50" t="s">
+        <v>998</v>
+      </c>
+      <c r="D50" t="s">
+        <v>999</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>885</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="144">
+      <c r="A51">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C51" t="s">
+        <v>887</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G51" t="s">
+        <v>901</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" t="s">
+        <v>853</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="100.8">
+      <c r="A52">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G52" t="s">
+        <v>975</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.8">
+      <c r="A53">
+        <v>203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>856</v>
+      </c>
+      <c r="D53" t="s">
+        <v>988</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G53" t="s">
+        <v>935</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K53" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.8">
+      <c r="A54">
+        <v>204</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C54" t="s">
+        <v>954</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G54" t="s">
+        <v>824</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.8">
+      <c r="A55">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G55">
+        <v>1992</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K55" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="100.8">
+      <c r="A56">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C56" t="s">
+        <v>947</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G56" t="s">
+        <v>824</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" t="s">
+        <v>853</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C57" t="s">
+        <v>856</v>
+      </c>
+      <c r="D57" t="s">
+        <v>988</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G57">
+        <v>1992</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="K57" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="409.6">
+      <c r="A58">
+        <v>219</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G58" t="s">
+        <v>832</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="144">
+      <c r="A59">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C59" t="s">
+        <v>829</v>
+      </c>
+      <c r="D59" t="s">
+        <v>883</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" t="s">
+        <v>826</v>
+      </c>
+      <c r="K59" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="409.6">
+      <c r="A60">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C60" t="s">
+        <v>866</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G60" t="s">
+        <v>832</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K60" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="144">
+      <c r="A61">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C61" t="s">
+        <v>848</v>
+      </c>
+      <c r="D61" t="s">
+        <v>849</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K61" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="144">
+      <c r="A62">
+        <v>240</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C62" t="s">
+        <v>964</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" t="s">
+        <v>826</v>
+      </c>
+      <c r="K62" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="244.8">
+      <c r="A63">
+        <v>242</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C63" t="s">
+        <v>904</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G63" t="s">
+        <v>832</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" t="s">
+        <v>853</v>
+      </c>
+      <c r="K63" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="302.39999999999998">
+      <c r="A64">
+        <v>243</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C64" t="s">
+        <v>866</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K64" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="403.2">
+      <c r="A65">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C65" t="s">
+        <v>866</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K65" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="144">
+      <c r="A66">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C66" t="s">
+        <v>848</v>
+      </c>
+      <c r="D66" t="s">
+        <v>849</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" t="s">
+        <v>826</v>
+      </c>
+      <c r="K66" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="409.6">
+      <c r="A67">
+        <v>247</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D67" t="s">
+        <v>899</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K67" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="144">
+      <c r="A68">
+        <v>249</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C68" t="s">
+        <v>848</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K68" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="144">
+      <c r="A69">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C69" t="s">
+        <v>954</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K69" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="144">
+      <c r="A70">
+        <v>253</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C70" t="s">
+        <v>866</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G70" t="s">
+        <v>881</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="100.8">
+      <c r="A71">
+        <v>256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C71" t="s">
+        <v>947</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G71" t="s">
+        <v>975</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" t="s">
+        <v>826</v>
+      </c>
+      <c r="K71" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="409.6">
+      <c r="A72">
+        <v>262</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G72" t="s">
+        <v>824</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K72" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="259.2">
+      <c r="A73">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C73" t="s">
+        <v>866</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G73" t="s">
+        <v>824</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K73" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="86.4">
+      <c r="A74">
+        <v>266</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C74" t="s">
+        <v>848</v>
+      </c>
+      <c r="D74" t="s">
+        <v>883</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G74" t="s">
+        <v>824</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="28.8">
+      <c r="A75">
+        <v>267</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C75" t="s">
+        <v>898</v>
+      </c>
+      <c r="D75" t="s">
+        <v>899</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G75" t="s">
+        <v>824</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="86.4">
+      <c r="A76">
+        <v>268</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C76" t="s">
+        <v>933</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G76" t="s">
+        <v>824</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K76" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.8">
+      <c r="A77">
+        <v>271</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C77" t="s">
+        <v>829</v>
+      </c>
+      <c r="D77" t="s">
+        <v>883</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G77" t="s">
+        <v>824</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="28.8">
+      <c r="A78">
+        <v>276</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C78" t="s">
+        <v>933</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G78" t="s">
+        <v>869</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="302.39999999999998">
+      <c r="A79">
+        <v>277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>866</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>952</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>279</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>829</v>
+      </c>
+      <c r="D80" t="s">
+        <v>830</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G80" t="s">
+        <v>952</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" t="s">
+        <v>826</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>280</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C81" t="s">
+        <v>954</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G81" t="s">
+        <v>952</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K81" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="100.8">
+      <c r="A82">
+        <v>284</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>866</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>967</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K82" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="100.8">
+      <c r="A83">
+        <v>292</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>829</v>
+      </c>
+      <c r="D83" t="s">
+        <v>830</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G83" t="s">
+        <v>832</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" t="s">
+        <v>853</v>
+      </c>
+      <c r="K83" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="331.2">
+      <c r="A84">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>947</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G84" t="s">
+        <v>824</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="100.8">
+      <c r="A85">
+        <v>305</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>887</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" t="s">
+        <v>826</v>
+      </c>
+      <c r="K85" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="100.8">
+      <c r="A86">
+        <v>306</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C86" t="s">
+        <v>848</v>
+      </c>
+      <c r="D86" t="s">
+        <v>883</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" t="s">
+        <v>826</v>
+      </c>
+      <c r="K86" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="409.6">
+      <c r="A87">
+        <v>307</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C87" t="s">
+        <v>829</v>
+      </c>
+      <c r="D87" t="s">
+        <v>883</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" t="s">
+        <v>826</v>
+      </c>
+      <c r="K87" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="28.8">
+      <c r="A88">
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C88" t="s">
+        <v>829</v>
+      </c>
+      <c r="D88" t="s">
+        <v>883</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>824</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="100.8">
+      <c r="A89">
+        <v>327</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K89" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="144">
+      <c r="A90">
+        <v>330</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K90" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="244.8">
+      <c r="A91">
+        <v>331</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C91" t="s">
+        <v>947</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G91" t="s">
+        <v>817</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I91" s="7"/>
+      <c r="K91" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="28.8">
+      <c r="A92">
+        <v>332</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>887</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G92" t="s">
+        <v>928</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K92" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="100.8">
+      <c r="A93">
+        <v>345</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G93" t="s">
+        <v>935</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="100.8">
+      <c r="A94">
+        <v>347</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C94" t="s">
+        <v>954</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K94" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="100.8">
+      <c r="A95">
+        <v>378</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C95" t="s">
+        <v>933</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" t="s">
+        <v>853</v>
+      </c>
+      <c r="K95" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="100.8">
+      <c r="A96">
+        <v>435</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C96" t="s">
+        <v>964</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I96" s="7"/>
+      <c r="J96" t="s">
+        <v>936</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="100.8">
+      <c r="A97">
+        <v>436</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>829</v>
+      </c>
+      <c r="D97" t="s">
+        <v>841</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I97" s="7"/>
+      <c r="J97" t="s">
+        <v>894</v>
+      </c>
+      <c r="K97" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="100.8">
+      <c r="A98">
+        <v>437</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C98" t="s">
+        <v>887</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I98" s="7"/>
+      <c r="J98" t="s">
+        <v>826</v>
+      </c>
+      <c r="K98" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="100.8">
+      <c r="A99">
+        <v>438</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C99" t="s">
+        <v>829</v>
+      </c>
+      <c r="D99" t="s">
+        <v>841</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I99" s="7"/>
+      <c r="J99" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K99" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="100.8">
+      <c r="A100">
+        <v>443</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" t="s">
+        <v>853</v>
+      </c>
+      <c r="K100" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="100.8">
+      <c r="A101">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C101" t="s">
+        <v>829</v>
+      </c>
+      <c r="D101" t="s">
+        <v>830</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" t="s">
+        <v>853</v>
+      </c>
+      <c r="K101" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="100.8">
+      <c r="A102">
+        <v>447</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C102" t="s">
+        <v>829</v>
+      </c>
+      <c r="D102" t="s">
+        <v>830</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I102" s="7"/>
+      <c r="J102" t="s">
+        <v>853</v>
+      </c>
+      <c r="K102" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="100.8">
+      <c r="A103">
+        <v>477</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C103" t="s">
+        <v>933</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="28.8">
+      <c r="A104">
+        <v>491</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D104" t="s">
+        <v>836</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G104" t="s">
+        <v>921</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K104" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="43.2">
+      <c r="A105">
+        <v>494</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G105" t="s">
+        <v>921</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K105" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="100.8">
+      <c r="A106">
+        <v>495</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>866</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I106" s="7"/>
+      <c r="J106" t="s">
+        <v>826</v>
+      </c>
+      <c r="K106" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="409.6">
+      <c r="A107">
+        <v>508</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="28.8">
+      <c r="A108">
+        <v>518</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>904</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K108" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="100.8">
+      <c r="A109">
+        <v>533</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C109" t="s">
+        <v>829</v>
+      </c>
+      <c r="D109" t="s">
+        <v>830</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G109" t="s">
+        <v>832</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I109" s="7"/>
+      <c r="J109" t="s">
+        <v>853</v>
+      </c>
+      <c r="K109" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="100.8">
+      <c r="A110">
+        <v>534</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C110" t="s">
+        <v>829</v>
+      </c>
+      <c r="D110" t="s">
+        <v>883</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G110" t="s">
+        <v>824</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I110" s="7"/>
+      <c r="J110" t="s">
+        <v>853</v>
+      </c>
+      <c r="K110" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="129.6">
+      <c r="A111">
+        <v>540</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C111" t="s">
+        <v>848</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G111" t="s">
+        <v>869</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I111" s="7"/>
+      <c r="J111" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K111" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="409.6">
+      <c r="A112">
+        <v>631</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C112" t="s">
+        <v>947</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G112" t="s">
+        <v>832</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="331.2">
+      <c r="A113">
+        <v>632</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G113" t="s">
+        <v>832</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I113" s="7"/>
+      <c r="J113" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K113" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="100.8">
+      <c r="A114">
+        <v>643</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C114" t="s">
+        <v>933</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I114" s="7"/>
+      <c r="J114" t="s">
+        <v>826</v>
+      </c>
+      <c r="K114" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="100.8">
+      <c r="A115">
+        <v>644</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C115" t="s">
+        <v>947</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I115" s="7"/>
+      <c r="J115" t="s">
+        <v>826</v>
+      </c>
+      <c r="K115" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="100.8">
+      <c r="A116">
+        <v>646</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G116" t="s">
+        <v>858</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K116" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="100.8">
+      <c r="A117">
+        <v>647</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C117" t="s">
+        <v>866</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G117" t="s">
+        <v>858</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="I117" s="7"/>
+      <c r="J117" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K117" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="409.6">
+      <c r="A118">
+        <v>651</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C118" t="s">
+        <v>947</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" t="s">
+        <v>826</v>
+      </c>
+      <c r="K118" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="28.8">
+      <c r="A119">
+        <v>652</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C119" t="s">
+        <v>904</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H119" t="s">
+        <v>960</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="K119" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="409.6">
+      <c r="A120">
+        <v>699</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G120" t="s">
+        <v>832</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I120" s="7"/>
+      <c r="J120" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="216">
+      <c r="A121">
+        <v>700</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G121" t="s">
+        <v>832</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="230.4">
+      <c r="A122">
+        <v>701</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G122" t="s">
+        <v>832</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K122" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>702</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="230.4">
+      <c r="A124">
+        <v>703</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G124" t="s">
+        <v>832</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I124" s="7"/>
+      <c r="J124" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="43.2">
+      <c r="A125">
+        <v>704</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G125" t="s">
+        <v>832</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I125" s="7"/>
+      <c r="J125" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="57.6">
+      <c r="A126">
+        <v>705</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G126" t="s">
+        <v>832</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K126" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="316.8">
+      <c r="A127">
+        <v>706</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C127" t="s">
+        <v>954</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G127" t="s">
+        <v>832</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K127" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>707</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G128" t="s">
+        <v>869</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K128" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="72">
+      <c r="A129">
+        <v>708</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G129" t="s">
+        <v>832</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="K129" s="7" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="57.6">
+      <c r="A130">
+        <v>709</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G130" t="s">
+        <v>832</v>
+      </c>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="K130" s="7" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="43.2">
+      <c r="A131">
+        <v>710</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G131" t="s">
+        <v>832</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="K131" s="7" t="s">
+        <v>1288</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
